--- a/JupyterNotebooks/AvgHW/SA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001136075922735</v>
+        <v>1.000410914605975</v>
       </c>
       <c r="D3">
         <v>0.9983200683942718</v>
       </c>
       <c r="E3">
-        <v>1.000410914605975</v>
+        <v>1.001136075922735</v>
       </c>
       <c r="F3">
+        <v>0.9983200683942718</v>
+      </c>
+      <c r="G3">
+        <v>0.9996582110007651</v>
+      </c>
+      <c r="H3">
+        <v>1.000425020802013</v>
+      </c>
+      <c r="I3">
+        <v>0.9989061304738048</v>
+      </c>
+      <c r="J3">
         <v>1.001136075922735</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.001136075922735</v>
+      </c>
+      <c r="L3">
         <v>0.9996384776976869</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>1.000622623545832</v>
-      </c>
-      <c r="I3">
-        <v>1.001136075922735</v>
-      </c>
-      <c r="J3">
-        <v>0.9983200683942718</v>
-      </c>
-      <c r="K3">
-        <v>0.9996582110007651</v>
-      </c>
-      <c r="L3">
-        <v>1.000425020802013</v>
-      </c>
-      <c r="M3">
-        <v>0.9989061304738048</v>
       </c>
       <c r="N3">
         <v>1.001136075922735</v>
@@ -764,7 +716,7 @@
         <v>0.9998896903053855</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000795401444877</v>
+      </c>
+      <c r="D4">
+        <v>0.9967555977041556</v>
+      </c>
+      <c r="E4">
         <v>1.002190841274003</v>
       </c>
-      <c r="D4">
-        <v>0.9967555977041554</v>
-      </c>
-      <c r="E4">
-        <v>1.000795401444877</v>
-      </c>
       <c r="F4">
+        <v>0.9967555977041556</v>
+      </c>
+      <c r="G4">
+        <v>0.9993410742682229</v>
+      </c>
+      <c r="H4">
+        <v>1.000819820901085</v>
+      </c>
+      <c r="I4">
+        <v>0.9978877549869752</v>
+      </c>
+      <c r="J4">
         <v>1.002190841274003</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.002190841274003</v>
+      </c>
+      <c r="L4">
         <v>0.9993019117064644</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>1.001202644895076</v>
-      </c>
-      <c r="I4">
-        <v>1.002190841274003</v>
-      </c>
-      <c r="J4">
-        <v>0.9967555977041554</v>
-      </c>
-      <c r="K4">
-        <v>0.9993410742682229</v>
-      </c>
-      <c r="L4">
-        <v>1.000819820901085</v>
-      </c>
-      <c r="M4">
-        <v>0.9978877549869752</v>
       </c>
       <c r="N4">
         <v>1.002190841274003</v>
@@ -835,7 +787,7 @@
         <v>0.9997868808976074</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004201508242877</v>
+        <v>1.001521522999703</v>
       </c>
       <c r="D5">
         <v>0.9937842037650588</v>
       </c>
       <c r="E5">
-        <v>1.001521522999703</v>
+        <v>1.004201508242877</v>
       </c>
       <c r="F5">
+        <v>0.9937842037650588</v>
+      </c>
+      <c r="G5">
+        <v>0.9987360872833753</v>
+      </c>
+      <c r="H5">
+        <v>1.001571963612829</v>
+      </c>
+      <c r="I5">
+        <v>0.9959528430508834</v>
+      </c>
+      <c r="J5">
         <v>1.004201508242877</v>
       </c>
-      <c r="G5">
-        <v>0.9986624250684922</v>
-      </c>
-      <c r="H5">
+      <c r="K5">
+        <v>1.004201508242877</v>
+      </c>
+      <c r="L5">
+        <v>0.9986624250684923</v>
+      </c>
+      <c r="M5">
         <v>1.002303844447463</v>
-      </c>
-      <c r="I5">
-        <v>1.004201508242877</v>
-      </c>
-      <c r="J5">
-        <v>0.9937842037650588</v>
-      </c>
-      <c r="K5">
-        <v>0.9987360872833753</v>
-      </c>
-      <c r="L5">
-        <v>1.001571963612829</v>
-      </c>
-      <c r="M5">
-        <v>0.9959528430508834</v>
       </c>
       <c r="N5">
         <v>1.004201508242877</v>
@@ -885,13 +837,13 @@
         <v>0.9976528633823808</v>
       </c>
       <c r="Q5">
-        <v>1.000091974034097</v>
+        <v>1.000091974034098</v>
       </c>
       <c r="R5">
         <v>0.9998357450025462</v>
       </c>
       <c r="S5">
-        <v>0.9979893839444179</v>
+        <v>0.9979893839444181</v>
       </c>
       <c r="T5">
         <v>0.9998357450025462</v>
@@ -906,7 +858,7 @@
         <v>0.9995917998088353</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006162971312656</v>
+        <v>1.002230943039289</v>
       </c>
       <c r="D6">
         <v>0.9908838080394164</v>
       </c>
       <c r="E6">
-        <v>1.002230943039289</v>
+        <v>1.006162971312656</v>
       </c>
       <c r="F6">
+        <v>0.9908838080394164</v>
+      </c>
+      <c r="G6">
+        <v>0.9981459790035975</v>
+      </c>
+      <c r="H6">
+        <v>1.002305770046357</v>
+      </c>
+      <c r="I6">
+        <v>0.9940642747673964</v>
+      </c>
+      <c r="J6">
         <v>1.006162971312656</v>
       </c>
-      <c r="G6">
-        <v>0.99803825526302</v>
-      </c>
-      <c r="H6">
+      <c r="K6">
+        <v>1.006162971312656</v>
+      </c>
+      <c r="L6">
+        <v>0.9980382552630198</v>
+      </c>
+      <c r="M6">
         <v>1.00337879235513</v>
-      </c>
-      <c r="I6">
-        <v>1.006162971312656</v>
-      </c>
-      <c r="J6">
-        <v>0.9908838080394164</v>
-      </c>
-      <c r="K6">
-        <v>0.9981459790035975</v>
-      </c>
-      <c r="L6">
-        <v>1.002305770046357</v>
-      </c>
-      <c r="M6">
-        <v>0.9940642747673964</v>
       </c>
       <c r="N6">
         <v>1.006162971312656</v>
@@ -977,7 +929,7 @@
         <v>0.9994013492283577</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000092999753291</v>
+        <v>1.000034848423689</v>
       </c>
       <c r="D7">
         <v>0.9998605433303566</v>
       </c>
       <c r="E7">
-        <v>1.000034848423689</v>
+        <v>1.000092999753291</v>
       </c>
       <c r="F7">
+        <v>0.9998605433303566</v>
+      </c>
+      <c r="G7">
+        <v>0.9999720996608795</v>
+      </c>
+      <c r="H7">
+        <v>1.000034872652357</v>
+      </c>
+      <c r="I7">
+        <v>0.9999093233092012</v>
+      </c>
+      <c r="J7">
         <v>1.000092999753291</v>
       </c>
-      <c r="G7">
-        <v>0.9999700330204776</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
+        <v>1.000092999753291</v>
+      </c>
+      <c r="L7">
+        <v>0.9999700330204777</v>
+      </c>
+      <c r="M7">
         <v>1.000051763133223</v>
-      </c>
-      <c r="I7">
-        <v>1.000092999753291</v>
-      </c>
-      <c r="J7">
-        <v>0.9998605433303566</v>
-      </c>
-      <c r="K7">
-        <v>0.9999720996608795</v>
-      </c>
-      <c r="L7">
-        <v>1.000034872652357</v>
-      </c>
-      <c r="M7">
-        <v>0.999909323309201</v>
       </c>
       <c r="N7">
         <v>1.000092999753291</v>
@@ -1024,7 +976,7 @@
         <v>1.000034848423689</v>
       </c>
       <c r="P7">
-        <v>0.9999476958770228</v>
+        <v>0.9999476958770226</v>
       </c>
       <c r="Q7">
         <v>1.000002440722083</v>
@@ -1033,7 +985,7 @@
         <v>0.9999961305024453</v>
       </c>
       <c r="S7">
-        <v>0.9999551415915078</v>
+        <v>0.9999551415915077</v>
       </c>
       <c r="T7">
         <v>0.9999961305024453</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999908104104342</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000270276302894</v>
+        <v>1.000099311715511</v>
       </c>
       <c r="D8">
         <v>0.9995978533055159</v>
       </c>
       <c r="E8">
-        <v>1.000099311715511</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="F8">
+        <v>0.9995978533055159</v>
+      </c>
+      <c r="G8">
+        <v>0.9999187878662281</v>
+      </c>
+      <c r="H8">
+        <v>1.00010121709811</v>
+      </c>
+      <c r="I8">
+        <v>0.9997383112732757</v>
+      </c>
+      <c r="J8">
         <v>1.000270276302894</v>
       </c>
-      <c r="G8">
-        <v>0.9999135145446648</v>
-      </c>
-      <c r="H8">
+      <c r="K8">
+        <v>1.000270276302894</v>
+      </c>
+      <c r="L8">
+        <v>0.999913514544665</v>
+      </c>
+      <c r="M8">
         <v>1.000149144300087</v>
-      </c>
-      <c r="I8">
-        <v>1.000270276302894</v>
-      </c>
-      <c r="J8">
-        <v>0.9995978533055159</v>
-      </c>
-      <c r="K8">
-        <v>0.9999187878662281</v>
-      </c>
-      <c r="L8">
-        <v>1.00010121709811</v>
-      </c>
-      <c r="M8">
-        <v>0.9997383112732757</v>
       </c>
       <c r="N8">
         <v>1.000270276302894</v>
@@ -1104,7 +1056,7 @@
         <v>0.9999891471079737</v>
       </c>
       <c r="S8">
-        <v>0.9998702265218973</v>
+        <v>0.9998702265218974</v>
       </c>
       <c r="T8">
         <v>0.9999891471079737</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999735520507858</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000404902225995</v>
+        <v>1.000145419407772</v>
       </c>
       <c r="D9">
         <v>0.9994029179379313</v>
       </c>
       <c r="E9">
-        <v>1.000145419407772</v>
+        <v>1.000404902225995</v>
       </c>
       <c r="F9">
+        <v>0.9994029179379313</v>
+      </c>
+      <c r="G9">
+        <v>0.9998781196818912</v>
+      </c>
+      <c r="H9">
+        <v>1.000151409328329</v>
+      </c>
+      <c r="I9">
+        <v>0.9996111091267662</v>
+      </c>
+      <c r="J9">
         <v>1.000404902225995</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>1.000404902225995</v>
+      </c>
+      <c r="L9">
         <v>0.9998714700286543</v>
       </c>
-      <c r="H9">
-        <v>1.000221226957767</v>
-      </c>
-      <c r="I9">
-        <v>1.000404902225995</v>
-      </c>
-      <c r="J9">
-        <v>0.9994029179379313</v>
-      </c>
-      <c r="K9">
-        <v>0.9998781196818912</v>
-      </c>
-      <c r="L9">
-        <v>1.000151409328329</v>
-      </c>
       <c r="M9">
-        <v>0.9996111091267662</v>
+        <v>1.000221226957766</v>
       </c>
       <c r="N9">
         <v>1.000404902225995</v>
@@ -1187,10 +1139,10 @@
         <v>1.000045922365269</v>
       </c>
       <c r="W9">
-        <v>0.9999608218368883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999608218368882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000847668227014</v>
+        <v>1.000306997348448</v>
       </c>
       <c r="D10">
         <v>0.9987459043385245</v>
       </c>
       <c r="E10">
-        <v>1.000306997348448</v>
+        <v>1.000847668227014</v>
       </c>
       <c r="F10">
+        <v>0.9987459043385245</v>
+      </c>
+      <c r="G10">
+        <v>0.9997450052026802</v>
+      </c>
+      <c r="H10">
+        <v>1.000317151367656</v>
+      </c>
+      <c r="I10">
+        <v>0.9991834506922407</v>
+      </c>
+      <c r="J10">
         <v>1.000847668227014</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>1.000847668227014</v>
+      </c>
+      <c r="L10">
         <v>0.9997301321467652</v>
       </c>
-      <c r="H10">
-        <v>1.00046482287453</v>
-      </c>
-      <c r="I10">
-        <v>1.000847668227014</v>
-      </c>
-      <c r="J10">
-        <v>0.9987459043385245</v>
-      </c>
-      <c r="K10">
-        <v>0.9997450052026802</v>
-      </c>
-      <c r="L10">
-        <v>1.000317151367656</v>
-      </c>
       <c r="M10">
-        <v>0.9991834506922409</v>
+        <v>1.000464822874531</v>
       </c>
       <c r="N10">
         <v>1.000847668227014</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999176415247324</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00148604781561</v>
+        <v>1.000522939519601</v>
       </c>
       <c r="D11">
         <v>0.9978258551353485</v>
       </c>
       <c r="E11">
-        <v>1.000522939519601</v>
+        <v>1.00148604781561</v>
       </c>
       <c r="F11">
+        <v>0.9978258551353485</v>
+      </c>
+      <c r="G11">
+        <v>0.9995519902204454</v>
+      </c>
+      <c r="H11">
+        <v>1.000554977091525</v>
+      </c>
+      <c r="I11">
+        <v>0.9985827947950247</v>
+      </c>
+      <c r="J11">
         <v>1.00148604781561</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>1.00148604781561</v>
+      </c>
+      <c r="L11">
         <v>0.9995315910165224</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>1.00080486021336</v>
-      </c>
-      <c r="I11">
-        <v>1.00148604781561</v>
-      </c>
-      <c r="J11">
-        <v>0.9978258551353485</v>
-      </c>
-      <c r="K11">
-        <v>0.9995519902204454</v>
-      </c>
-      <c r="L11">
-        <v>1.000554977091525</v>
-      </c>
-      <c r="M11">
-        <v>0.9985827947950244</v>
       </c>
       <c r="N11">
         <v>1.00148604781561</v>
@@ -1329,10 +1281,10 @@
         <v>1.000170496260538</v>
       </c>
       <c r="W11">
-        <v>0.9998576319759296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9998576319759297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,40 +1292,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9855411775522113</v>
+        <v>0.9923957669731575</v>
       </c>
       <c r="D12">
         <v>1.025179709688581</v>
       </c>
       <c r="E12">
-        <v>0.9923957669731575</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="F12">
-        <v>0.9855411775522113</v>
+        <v>1.025179709688581</v>
       </c>
       <c r="G12">
+        <v>1.004197990025722</v>
+      </c>
+      <c r="H12">
+        <v>0.994432464683307</v>
+      </c>
+      <c r="I12">
+        <v>1.016145287831274</v>
+      </c>
+      <c r="J12">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="K12">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="L12">
         <v>1.005331818181824</v>
       </c>
-      <c r="H12">
+      <c r="M12">
         <v>0.9905160771073416</v>
       </c>
-      <c r="I12">
-        <v>0.9855411775522113</v>
-      </c>
-      <c r="J12">
-        <v>1.025179709688581</v>
-      </c>
-      <c r="K12">
-        <v>1.004197990025722</v>
-      </c>
-      <c r="L12">
-        <v>0.994432464683307</v>
-      </c>
-      <c r="M12">
-        <v>1.016145287831274</v>
-      </c>
       <c r="N12">
-        <v>0.9855411775522113</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="O12">
         <v>0.9923957669731575</v>
@@ -1394,16 +1346,16 @@
         <v>1.001038884737983</v>
       </c>
       <c r="U12">
-        <v>1.002112118098944</v>
+        <v>1.002112118098943</v>
       </c>
       <c r="V12">
-        <v>0.9987979299895973</v>
+        <v>0.9987979299895968</v>
       </c>
       <c r="W12">
         <v>1.001717536505427</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9951039193639368</v>
+        <v>0.9990787227496117</v>
       </c>
       <c r="D13">
         <v>1.005880519605584</v>
       </c>
       <c r="E13">
-        <v>0.9990787227496117</v>
+        <v>0.9951039193639368</v>
       </c>
       <c r="F13">
+        <v>1.005880519605584</v>
+      </c>
+      <c r="G13">
+        <v>1.001527371619576</v>
+      </c>
+      <c r="H13">
+        <v>0.9982249519428326</v>
+      </c>
+      <c r="I13">
+        <v>1.003918575695935</v>
+      </c>
+      <c r="J13">
         <v>0.9951039193639368</v>
       </c>
-      <c r="G13">
+      <c r="K13">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="L13">
         <v>1.001296572258907</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>0.9978748240822469</v>
-      </c>
-      <c r="I13">
-        <v>0.9951039193639368</v>
-      </c>
-      <c r="J13">
-        <v>1.005880519605584</v>
-      </c>
-      <c r="K13">
-        <v>1.001527371619576</v>
-      </c>
-      <c r="L13">
-        <v>0.9982249519428326</v>
-      </c>
-      <c r="M13">
-        <v>1.003918575695934</v>
       </c>
       <c r="N13">
         <v>0.9951039193639368</v>
@@ -1474,7 +1426,7 @@
         <v>1.000363182164829</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.004584562242399</v>
+      </c>
+      <c r="D14">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="E14">
         <v>0.9948921832548223</v>
       </c>
-      <c r="D14">
-        <v>0.997261740433837</v>
-      </c>
-      <c r="E14">
-        <v>1.004584562242399</v>
-      </c>
       <c r="F14">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="G14">
+        <v>1.001948354221839</v>
+      </c>
+      <c r="H14">
+        <v>0.9985178997039236</v>
+      </c>
+      <c r="I14">
+        <v>0.9988948293817664</v>
+      </c>
+      <c r="J14">
         <v>0.9948921832548223</v>
       </c>
-      <c r="G14">
+      <c r="K14">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="L14">
         <v>0.9996460297370516</v>
       </c>
-      <c r="H14">
+      <c r="M14">
         <v>1.001425802721175</v>
-      </c>
-      <c r="I14">
-        <v>0.9948921832548223</v>
-      </c>
-      <c r="J14">
-        <v>0.997261740433837</v>
-      </c>
-      <c r="K14">
-        <v>1.001948354221839</v>
-      </c>
-      <c r="L14">
-        <v>0.9985178997039236</v>
-      </c>
-      <c r="M14">
-        <v>0.9988948293817664</v>
       </c>
       <c r="N14">
         <v>0.9948921832548223</v>
@@ -1542,10 +1494,10 @@
         <v>0.9982553397845866</v>
       </c>
       <c r="W14">
-        <v>0.9996464252121018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9996464252121017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002093053552758</v>
+        <v>0.9981088695450405</v>
       </c>
       <c r="D15">
         <v>1.00114206461984</v>
       </c>
       <c r="E15">
-        <v>0.9981088695450405</v>
+        <v>1.002093053552758</v>
       </c>
       <c r="F15">
+        <v>1.00114206461984</v>
+      </c>
+      <c r="G15">
+        <v>0.9992008158679484</v>
+      </c>
+      <c r="H15">
+        <v>1.000606490716347</v>
+      </c>
+      <c r="I15">
+        <v>1.000464577424958</v>
+      </c>
+      <c r="J15">
         <v>1.002093053552758</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="L15">
         <v>1.000148894817233</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>0.9994075297328978</v>
-      </c>
-      <c r="I15">
-        <v>1.002093053552758</v>
-      </c>
-      <c r="J15">
-        <v>1.00114206461984</v>
-      </c>
-      <c r="K15">
-        <v>0.9992008158679484</v>
-      </c>
-      <c r="L15">
-        <v>1.000606490716347</v>
-      </c>
-      <c r="M15">
-        <v>1.000464577424958</v>
       </c>
       <c r="N15">
         <v>1.002093053552758</v>
@@ -1616,7 +1568,7 @@
         <v>1.000146537034628</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000015873223828</v>
+        <v>1.008032706229494</v>
       </c>
       <c r="D16">
-        <v>0.9999993511170419</v>
+        <v>0.9672119417038018</v>
       </c>
       <c r="E16">
-        <v>0.9999914772085008</v>
+        <v>1.022150805488661</v>
       </c>
       <c r="F16">
-        <v>1.000015873223828</v>
+        <v>0.9672119417038018</v>
       </c>
       <c r="G16">
-        <v>0.9999993384373663</v>
+        <v>0.9933372287083713</v>
       </c>
       <c r="H16">
-        <v>0.9999993291119718</v>
+        <v>1.008288299113172</v>
       </c>
       <c r="I16">
-        <v>1.000015873223828</v>
+        <v>0.9786525734880944</v>
       </c>
       <c r="J16">
-        <v>0.9999993511170419</v>
+        <v>1.022150805488661</v>
       </c>
       <c r="K16">
-        <v>0.9999943129210603</v>
+        <v>1.022150805488661</v>
       </c>
       <c r="L16">
-        <v>1.000004986909544</v>
+        <v>0.992944754975693</v>
       </c>
       <c r="M16">
-        <v>0.9999980759246239</v>
+        <v>1.012153384610339</v>
       </c>
       <c r="N16">
-        <v>1.000015873223828</v>
+        <v>1.022150805488661</v>
       </c>
       <c r="O16">
-        <v>0.9999914772085008</v>
+        <v>1.008032706229494</v>
       </c>
       <c r="P16">
-        <v>0.9999954141627714</v>
+        <v>0.987622323966648</v>
       </c>
       <c r="Q16">
-        <v>0.9999954078229336</v>
+        <v>1.000488730602594</v>
       </c>
       <c r="R16">
-        <v>1.00000223384979</v>
+        <v>0.9991318178073191</v>
       </c>
       <c r="S16">
-        <v>0.999996722254303</v>
+        <v>0.9893964676363297</v>
       </c>
       <c r="T16">
-        <v>1.00000223384979</v>
+        <v>0.9991318178073193</v>
       </c>
       <c r="U16">
-        <v>1.000001509996684</v>
+        <v>0.9975850520994127</v>
       </c>
       <c r="V16">
-        <v>1.000004382642113</v>
+        <v>1.002498202777262</v>
       </c>
       <c r="W16">
-        <v>1.000000343106742</v>
+        <v>0.9978464617897034</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000079411707198</v>
+        <v>1.006640756468223</v>
       </c>
       <c r="D17">
-        <v>0.9998418690242801</v>
+        <v>0.9730953140111636</v>
       </c>
       <c r="E17">
-        <v>1.000054163115905</v>
+        <v>1.018088303733233</v>
       </c>
       <c r="F17">
-        <v>1.000079411707198</v>
+        <v>0.9730953140111636</v>
       </c>
       <c r="G17">
-        <v>0.9999669004613175</v>
+        <v>0.9945643961071524</v>
       </c>
       <c r="H17">
-        <v>1.000060232909738</v>
+        <v>1.006773626025983</v>
       </c>
       <c r="I17">
-        <v>1.000079411707198</v>
+        <v>0.9824916341082913</v>
       </c>
       <c r="J17">
-        <v>0.9998418690242801</v>
+        <v>1.018088303733233</v>
       </c>
       <c r="K17">
-        <v>0.9999777382715624</v>
+        <v>1.018088303733233</v>
       </c>
       <c r="L17">
-        <v>1.000031404979172</v>
+        <v>0.9942136930047729</v>
       </c>
       <c r="M17">
-        <v>0.9998997173535464</v>
+        <v>1.00997781156787</v>
       </c>
       <c r="N17">
-        <v>1.000079411707198</v>
+        <v>1.018088303733233</v>
       </c>
       <c r="O17">
-        <v>1.000054163115905</v>
+        <v>1.006640756468223</v>
       </c>
       <c r="P17">
-        <v>0.9999480160700926</v>
+        <v>0.9898680352396932</v>
       </c>
       <c r="Q17">
-        <v>1.000010531788611</v>
+        <v>1.000427224736498</v>
       </c>
       <c r="R17">
-        <v>0.9999918146157944</v>
+        <v>0.9992747914042065</v>
       </c>
       <c r="S17">
-        <v>0.9999543108671677</v>
+        <v>0.9913165878280532</v>
       </c>
       <c r="T17">
-        <v>0.9999918146157944</v>
+        <v>0.9992747914042065</v>
       </c>
       <c r="U17">
-        <v>0.9999855860771752</v>
+        <v>0.9980095168043481</v>
       </c>
       <c r="V17">
-        <v>1.00000435120318</v>
+        <v>1.002025274190125</v>
       </c>
       <c r="W17">
-        <v>0.9999889297278399</v>
+        <v>0.9982306918783361</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000385276061597</v>
+        <v>1.003854132309089</v>
       </c>
       <c r="D18">
-        <v>0.9995027252729467</v>
+        <v>0.9848558190086002</v>
       </c>
       <c r="E18">
-        <v>1.000094079534743</v>
+        <v>1.009975075794851</v>
       </c>
       <c r="F18">
-        <v>1.000385276061597</v>
+        <v>0.9848558190086002</v>
       </c>
       <c r="G18">
-        <v>0.9998913289458071</v>
+        <v>0.997014741064244</v>
       </c>
       <c r="H18">
-        <v>1.000181410697549</v>
+        <v>1.00374822181718</v>
       </c>
       <c r="I18">
-        <v>1.000385276061597</v>
+        <v>0.9901649577950822</v>
       </c>
       <c r="J18">
-        <v>0.9995027252729467</v>
+        <v>1.009975075794851</v>
       </c>
       <c r="K18">
-        <v>0.9998811903759033</v>
+        <v>1.009975075794851</v>
       </c>
       <c r="L18">
-        <v>1.000141118074165</v>
+        <v>0.9967499713285894</v>
       </c>
       <c r="M18">
-        <v>0.9996714352028212</v>
+        <v>1.005628531877809</v>
       </c>
       <c r="N18">
-        <v>1.000385276061597</v>
+        <v>1.009975075794851</v>
       </c>
       <c r="O18">
-        <v>1.000094079534743</v>
+        <v>1.003854132309089</v>
       </c>
       <c r="P18">
-        <v>0.999798402403845</v>
+        <v>0.9943549756588446</v>
       </c>
       <c r="Q18">
-        <v>0.9999927042402752</v>
+        <v>1.000302051818839</v>
       </c>
       <c r="R18">
-        <v>0.999994026956429</v>
+        <v>0.99956167570418</v>
       </c>
       <c r="S18">
-        <v>0.9998293779178323</v>
+        <v>0.9951533075487595</v>
       </c>
       <c r="T18">
-        <v>0.999994026956429</v>
+        <v>0.9995616757041801</v>
       </c>
       <c r="U18">
-        <v>0.9999683524537735</v>
+        <v>0.9988587496102824</v>
       </c>
       <c r="V18">
-        <v>1.000051737175338</v>
+        <v>1.001082014847196</v>
       </c>
       <c r="W18">
-        <v>0.9999685705206915</v>
+        <v>0.9989989313744306</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.004286148401903</v>
+      </c>
+      <c r="D19">
+        <v>0.9833950385377559</v>
+      </c>
+      <c r="E19">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="F19">
+        <v>0.9833950385377559</v>
+      </c>
+      <c r="G19">
+        <v>0.9967653537823639</v>
+      </c>
+      <c r="H19">
+        <v>1.004076290516335</v>
+      </c>
+      <c r="I19">
+        <v>0.9892267186797709</v>
+      </c>
+      <c r="J19">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="K19">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="L19">
+        <v>0.9964401014040155</v>
+      </c>
+      <c r="M19">
+        <v>1.006177779027409</v>
+      </c>
+      <c r="N19">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="O19">
+        <v>1.004286148401903</v>
+      </c>
+      <c r="P19">
+        <v>0.9938405934698294</v>
+      </c>
+      <c r="Q19">
+        <v>1.000363124902959</v>
+      </c>
+      <c r="R19">
+        <v>0.9995037723396213</v>
+      </c>
+      <c r="S19">
+        <v>0.9947070961145581</v>
+      </c>
+      <c r="T19">
+        <v>0.9995037723396213</v>
+      </c>
+      <c r="U19">
+        <v>0.9987378546057198</v>
+      </c>
+      <c r="V19">
+        <v>1.001156309700417</v>
+      </c>
+      <c r="W19">
+        <v>0.9988996950535947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999914772085007</v>
+      </c>
+      <c r="D20">
+        <v>0.9999993511170419</v>
+      </c>
+      <c r="E20">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="F20">
+        <v>0.9999993511170419</v>
+      </c>
+      <c r="G20">
+        <v>0.9999943129210603</v>
+      </c>
+      <c r="H20">
+        <v>1.000004986909544</v>
+      </c>
+      <c r="I20">
+        <v>0.9999980759246239</v>
+      </c>
+      <c r="J20">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="K20">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="L20">
+        <v>0.9999993384373662</v>
+      </c>
+      <c r="M20">
+        <v>0.9999993291119718</v>
+      </c>
+      <c r="N20">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="O20">
+        <v>0.9999914772085007</v>
+      </c>
+      <c r="P20">
+        <v>0.9999954141627713</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999954078229334</v>
+      </c>
+      <c r="R20">
+        <v>1.00000223384979</v>
+      </c>
+      <c r="S20">
+        <v>0.9999967222543029</v>
+      </c>
+      <c r="T20">
+        <v>1.00000223384979</v>
+      </c>
+      <c r="U20">
+        <v>1.000001509996684</v>
+      </c>
+      <c r="V20">
+        <v>1.000004382642113</v>
+      </c>
+      <c r="W20">
+        <v>1.000000343106742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000054163115905</v>
+      </c>
+      <c r="D21">
+        <v>0.9998418690242801</v>
+      </c>
+      <c r="E21">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="F21">
+        <v>0.9998418690242801</v>
+      </c>
+      <c r="G21">
+        <v>0.9999777382715624</v>
+      </c>
+      <c r="H21">
+        <v>1.000031404979172</v>
+      </c>
+      <c r="I21">
+        <v>0.9998997173535464</v>
+      </c>
+      <c r="J21">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="K21">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="L21">
+        <v>0.9999669004613175</v>
+      </c>
+      <c r="M21">
+        <v>1.000060232909738</v>
+      </c>
+      <c r="N21">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="O21">
+        <v>1.000054163115905</v>
+      </c>
+      <c r="P21">
+        <v>0.9999480160700926</v>
+      </c>
+      <c r="Q21">
+        <v>1.000010531788611</v>
+      </c>
+      <c r="R21">
+        <v>0.9999918146157946</v>
+      </c>
+      <c r="S21">
+        <v>0.9999543108671677</v>
+      </c>
+      <c r="T21">
+        <v>0.9999918146157946</v>
+      </c>
+      <c r="U21">
+        <v>0.9999855860771754</v>
+      </c>
+      <c r="V21">
+        <v>1.00000435120318</v>
+      </c>
+      <c r="W21">
+        <v>0.99998892972784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000094079534743</v>
+      </c>
+      <c r="D22">
+        <v>0.9995027252729465</v>
+      </c>
+      <c r="E22">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="F22">
+        <v>0.9995027252729465</v>
+      </c>
+      <c r="G22">
+        <v>0.9998811903759033</v>
+      </c>
+      <c r="H22">
+        <v>1.000141118074165</v>
+      </c>
+      <c r="I22">
+        <v>0.9996714352028215</v>
+      </c>
+      <c r="J22">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="K22">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="L22">
+        <v>0.9998913289458071</v>
+      </c>
+      <c r="M22">
+        <v>1.000181410697549</v>
+      </c>
+      <c r="N22">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="O22">
+        <v>1.000094079534743</v>
+      </c>
+      <c r="P22">
+        <v>0.9997984024038449</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999927042402752</v>
+      </c>
+      <c r="R22">
+        <v>0.9999940269564288</v>
+      </c>
+      <c r="S22">
+        <v>0.9998293779178322</v>
+      </c>
+      <c r="T22">
+        <v>0.9999940269564288</v>
+      </c>
+      <c r="U22">
+        <v>0.9999683524537735</v>
+      </c>
+      <c r="V22">
+        <v>1.000051737175338</v>
+      </c>
+      <c r="W22">
+        <v>0.9999685705206915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000161292217881</v>
+      </c>
+      <c r="D23">
+        <v>0.9988714033483694</v>
+      </c>
+      <c r="E23">
         <v>1.000967249997749</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9988714033483694</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9996969378724672</v>
+      </c>
+      <c r="H23">
+        <v>1.000349292008231</v>
+      </c>
+      <c r="I23">
+        <v>0.999245256529791</v>
+      </c>
+      <c r="J23">
+        <v>1.000967249997749</v>
+      </c>
+      <c r="K23">
+        <v>1.000967249997749</v>
+      </c>
+      <c r="L23">
+        <v>0.9997502246211983</v>
+      </c>
+      <c r="M23">
+        <v>1.000406241716652</v>
+      </c>
+      <c r="N23">
+        <v>1.000967249997749</v>
+      </c>
+      <c r="O23">
         <v>1.000161292217881</v>
       </c>
-      <c r="F19">
-        <v>1.000967249997749</v>
-      </c>
-      <c r="G19">
-        <v>0.9997502246211983</v>
-      </c>
-      <c r="H19">
-        <v>1.000406241716652</v>
-      </c>
-      <c r="I19">
-        <v>1.000967249997749</v>
-      </c>
-      <c r="J19">
-        <v>0.9988714033483694</v>
-      </c>
-      <c r="K19">
-        <v>0.9996969378724672</v>
-      </c>
-      <c r="L19">
-        <v>1.000349292008231</v>
-      </c>
-      <c r="M19">
-        <v>0.999245256529791</v>
-      </c>
-      <c r="N19">
-        <v>1.000967249997749</v>
-      </c>
-      <c r="O19">
-        <v>1.000161292217881</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995163477831253</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999557584195398</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999999818546667</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9995943067291496</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999999818546667</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999375425462995</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000143484036589</v>
       </c>
-      <c r="W19">
-        <v>0.9999309872890425</v>
+      <c r="W23">
+        <v>0.9999309872890424</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000410914605975</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="D3">
-        <v>0.9983200683942718</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="E3">
-        <v>1.001136075922735</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="F3">
-        <v>0.9983200683942718</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="G3">
-        <v>0.9996582110007651</v>
+        <v>0.9963867914625388</v>
       </c>
       <c r="H3">
-        <v>1.000425020802013</v>
+        <v>1.004538376376082</v>
       </c>
       <c r="I3">
-        <v>0.9989061304738048</v>
+        <v>0.9880827528530224</v>
       </c>
       <c r="J3">
-        <v>1.001136075922735</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="K3">
-        <v>1.001136075922735</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="L3">
-        <v>0.9996384776976869</v>
+        <v>0.9960619182997108</v>
       </c>
       <c r="M3">
-        <v>1.000622623545832</v>
+        <v>1.006821576095102</v>
       </c>
       <c r="N3">
-        <v>1.001136075922735</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="O3">
-        <v>1.000410914605975</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="P3">
-        <v>0.9993654915001233</v>
+        <v>0.9931626264841493</v>
       </c>
       <c r="Q3">
-        <v>1.000024696151831</v>
+        <v>1.000369706963256</v>
       </c>
       <c r="R3">
-        <v>0.9999556863076605</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="S3">
-        <v>0.9994564868993111</v>
+        <v>0.9941290570893365</v>
       </c>
       <c r="T3">
-        <v>0.9999556863076604</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="U3">
-        <v>0.999876384155167</v>
+        <v>0.9986157508735585</v>
       </c>
       <c r="V3">
-        <v>1.000128322508681</v>
+        <v>1.001307767144092</v>
       </c>
       <c r="W3">
-        <v>0.9998896903053855</v>
+        <v>0.9987865625351224</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000795401444877</v>
+        <v>1.00421512002236</v>
       </c>
       <c r="D4">
-        <v>0.9967555977041556</v>
+        <v>0.9834726947977944</v>
       </c>
       <c r="E4">
-        <v>1.002190841274003</v>
+        <v>1.010870125348493</v>
       </c>
       <c r="F4">
-        <v>0.9967555977041556</v>
+        <v>0.9834726947977944</v>
       </c>
       <c r="G4">
-        <v>0.9993410742682229</v>
+        <v>0.9967478484224771</v>
       </c>
       <c r="H4">
-        <v>1.000819820901085</v>
+        <v>1.004085553311596</v>
       </c>
       <c r="I4">
-        <v>0.9978877549869752</v>
+        <v>0.9892682742182211</v>
       </c>
       <c r="J4">
-        <v>1.002190841274003</v>
+        <v>1.010870125348493</v>
       </c>
       <c r="K4">
-        <v>1.002190841274003</v>
+        <v>1.010870125348493</v>
       </c>
       <c r="L4">
-        <v>0.9993019117064644</v>
+        <v>0.996453684531308</v>
       </c>
       <c r="M4">
-        <v>1.001202644895076</v>
+        <v>1.00614353123556</v>
       </c>
       <c r="N4">
-        <v>1.002190841274003</v>
+        <v>1.010870125348493</v>
       </c>
       <c r="O4">
-        <v>1.000795401444877</v>
+        <v>1.00421512002236</v>
       </c>
       <c r="P4">
-        <v>0.9987754995745162</v>
+        <v>0.9938439074100773</v>
       </c>
       <c r="Q4">
-        <v>1.000048656575671</v>
+        <v>1.000334402276834</v>
       </c>
       <c r="R4">
-        <v>0.9999139468076784</v>
+        <v>0.9995193133895491</v>
       </c>
       <c r="S4">
-        <v>0.9989509702851657</v>
+        <v>0.9947138331171542</v>
       </c>
       <c r="T4">
-        <v>0.9999139468076784</v>
+        <v>0.9995193133895489</v>
       </c>
       <c r="U4">
-        <v>0.999760938032375</v>
+        <v>0.9987529061749887</v>
       </c>
       <c r="V4">
-        <v>1.000246918680701</v>
+        <v>1.001176350009689</v>
       </c>
       <c r="W4">
-        <v>0.9997868808976074</v>
+        <v>0.9989071039859762</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001521522999703</v>
+        <v>1.005562928598383</v>
       </c>
       <c r="D5">
-        <v>0.9937842037650588</v>
+        <v>0.9781444942048515</v>
       </c>
       <c r="E5">
-        <v>1.004201508242877</v>
+        <v>1.014394239514824</v>
       </c>
       <c r="F5">
-        <v>0.9937842037650588</v>
+        <v>0.9781444942048515</v>
       </c>
       <c r="G5">
-        <v>0.9987360872833753</v>
+        <v>0.9956922940431265</v>
       </c>
       <c r="H5">
-        <v>1.001571963612829</v>
+        <v>1.00540885045822</v>
       </c>
       <c r="I5">
-        <v>0.9959528430508834</v>
+        <v>0.9858065788140172</v>
       </c>
       <c r="J5">
-        <v>1.004201508242877</v>
+        <v>1.014394239514824</v>
       </c>
       <c r="K5">
-        <v>1.004201508242877</v>
+        <v>1.014394239514824</v>
       </c>
       <c r="L5">
-        <v>0.9986624250684923</v>
+        <v>0.9953097293261466</v>
       </c>
       <c r="M5">
-        <v>1.002303844447463</v>
+        <v>1.008122961671159</v>
       </c>
       <c r="N5">
-        <v>1.004201508242877</v>
+        <v>1.014394239514824</v>
       </c>
       <c r="O5">
-        <v>1.001521522999703</v>
+        <v>1.005562928598383</v>
       </c>
       <c r="P5">
-        <v>0.9976528633823808</v>
+        <v>0.9918537114016173</v>
       </c>
       <c r="Q5">
-        <v>1.000091974034098</v>
+        <v>1.000436328962265</v>
       </c>
       <c r="R5">
-        <v>0.9998357450025462</v>
+        <v>0.9993672207726861</v>
       </c>
       <c r="S5">
-        <v>0.9979893839444181</v>
+        <v>0.9930057173764603</v>
       </c>
       <c r="T5">
-        <v>0.9998357450025462</v>
+        <v>0.9993672207726861</v>
       </c>
       <c r="U5">
-        <v>0.9995424150190327</v>
+        <v>0.9983528479110513</v>
       </c>
       <c r="V5">
-        <v>1.000474233663802</v>
+        <v>1.001561126231806</v>
       </c>
       <c r="W5">
-        <v>0.9995917998088353</v>
+        <v>0.9985552595788409</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002230943039289</v>
+        <v>1.006398380113636</v>
       </c>
       <c r="D6">
-        <v>0.9908838080394164</v>
+        <v>0.9748289053977274</v>
       </c>
       <c r="E6">
-        <v>1.006162971312656</v>
+        <v>1.01659298846591</v>
       </c>
       <c r="F6">
-        <v>0.9908838080394164</v>
+        <v>0.9748289053977274</v>
       </c>
       <c r="G6">
-        <v>0.9981459790035975</v>
+        <v>0.9950333714772726</v>
       </c>
       <c r="H6">
-        <v>1.002305770046357</v>
+        <v>1.006234108522727</v>
       </c>
       <c r="I6">
-        <v>0.9940642747673964</v>
+        <v>0.9836518958522726</v>
       </c>
       <c r="J6">
-        <v>1.006162971312656</v>
+        <v>1.01659298846591</v>
       </c>
       <c r="K6">
-        <v>1.006162971312656</v>
+        <v>1.01659298846591</v>
       </c>
       <c r="L6">
-        <v>0.9980382552630198</v>
+        <v>0.9945976845454543</v>
       </c>
       <c r="M6">
-        <v>1.00337879235513</v>
+        <v>1.009354368295455</v>
       </c>
       <c r="N6">
-        <v>1.006162971312656</v>
+        <v>1.01659298846591</v>
       </c>
       <c r="O6">
-        <v>1.002230943039289</v>
+        <v>1.006398380113636</v>
       </c>
       <c r="P6">
-        <v>0.9965573755393525</v>
+        <v>0.990613642755682</v>
       </c>
       <c r="Q6">
-        <v>1.000134599151154</v>
+        <v>1.000498032329545</v>
       </c>
       <c r="R6">
-        <v>0.9997592407971204</v>
+        <v>0.9992734246590912</v>
       </c>
       <c r="S6">
-        <v>0.9970510021139084</v>
+        <v>0.9919416566856061</v>
       </c>
       <c r="T6">
-        <v>0.9997592407971204</v>
+        <v>0.9992734246590912</v>
       </c>
       <c r="U6">
-        <v>0.9993289944135952</v>
+        <v>0.998104489630682</v>
       </c>
       <c r="V6">
-        <v>1.000695789793407</v>
+        <v>1.001802189397728</v>
       </c>
       <c r="W6">
-        <v>0.9994013492283577</v>
+        <v>0.9983364628338069</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000034848423689</v>
+        <v>1.015082353089117</v>
       </c>
       <c r="D7">
-        <v>0.9998605433303566</v>
+        <v>0.9412642654532782</v>
       </c>
       <c r="E7">
-        <v>1.000092999753291</v>
+        <v>1.038448857584648</v>
       </c>
       <c r="F7">
-        <v>0.9998605433303566</v>
+        <v>0.9412642654532782</v>
       </c>
       <c r="G7">
-        <v>0.9999720996608795</v>
+        <v>0.9885078409776481</v>
       </c>
       <c r="H7">
-        <v>1.000034872652357</v>
+        <v>1.014462592712033</v>
       </c>
       <c r="I7">
-        <v>0.9999093233092012</v>
+        <v>0.9618786736361086</v>
       </c>
       <c r="J7">
-        <v>1.000092999753291</v>
+        <v>1.038448857584648</v>
       </c>
       <c r="K7">
-        <v>1.000092999753291</v>
+        <v>1.038448857584648</v>
       </c>
       <c r="L7">
-        <v>0.9999700330204777</v>
+        <v>0.9874030456316472</v>
       </c>
       <c r="M7">
-        <v>1.000051763133223</v>
+        <v>1.021844017309519</v>
       </c>
       <c r="N7">
-        <v>1.000092999753291</v>
+        <v>1.038448857584648</v>
       </c>
       <c r="O7">
-        <v>1.000034848423689</v>
+        <v>1.015082353089117</v>
       </c>
       <c r="P7">
-        <v>0.9999476958770226</v>
+        <v>0.9781733092711975</v>
       </c>
       <c r="Q7">
-        <v>1.000002440722083</v>
+        <v>1.001242699360382</v>
       </c>
       <c r="R7">
-        <v>0.9999961305024453</v>
+        <v>0.9982651587090144</v>
       </c>
       <c r="S7">
-        <v>0.9999551415915077</v>
+        <v>0.9812498880580142</v>
       </c>
       <c r="T7">
-        <v>0.9999961305024453</v>
+        <v>0.9982651587090144</v>
       </c>
       <c r="U7">
-        <v>0.9999896061319534</v>
+        <v>0.9955496304396727</v>
       </c>
       <c r="V7">
-        <v>1.000010284856221</v>
+        <v>1.004129475868668</v>
       </c>
       <c r="W7">
-        <v>0.9999908104104342</v>
+        <v>0.9961114557992499</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000099311715511</v>
+        <v>1.015172326249622</v>
       </c>
       <c r="D8">
-        <v>0.9995978533055159</v>
+        <v>0.9408803744662098</v>
       </c>
       <c r="E8">
-        <v>1.000270276302894</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="F8">
-        <v>0.9995978533055159</v>
+        <v>0.9408803744662098</v>
       </c>
       <c r="G8">
-        <v>0.9999187878662281</v>
+        <v>0.9884272230425838</v>
       </c>
       <c r="H8">
-        <v>1.00010121709811</v>
+        <v>1.0145618987606</v>
       </c>
       <c r="I8">
-        <v>0.9997383112732757</v>
+        <v>0.9616280267195535</v>
       </c>
       <c r="J8">
-        <v>1.000270276302894</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="K8">
-        <v>1.000270276302894</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="L8">
-        <v>0.999913514544665</v>
+        <v>0.9873201960557418</v>
       </c>
       <c r="M8">
-        <v>1.000149144300087</v>
+        <v>1.021985884385018</v>
       </c>
       <c r="N8">
-        <v>1.000270276302894</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="O8">
-        <v>1.000099311715511</v>
+        <v>1.015172326249622</v>
       </c>
       <c r="P8">
-        <v>0.9998485825105136</v>
+        <v>0.978026350357916</v>
       </c>
       <c r="Q8">
-        <v>1.000006413130088</v>
+        <v>1.001246261152682</v>
       </c>
       <c r="R8">
-        <v>0.9999891471079737</v>
+        <v>0.9982560505453106</v>
       </c>
       <c r="S8">
-        <v>0.9998702265218974</v>
+        <v>0.9811242989238579</v>
       </c>
       <c r="T8">
-        <v>0.9999891471079737</v>
+        <v>0.9982560505453106</v>
       </c>
       <c r="U8">
-        <v>0.9999702389671465</v>
+        <v>0.9955220869229184</v>
       </c>
       <c r="V8">
-        <v>1.000030246434296</v>
+        <v>1.004160759722355</v>
       </c>
       <c r="W8">
-        <v>0.9999735520507858</v>
+        <v>0.9960864225749286</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000145419407772</v>
+        <v>1.015243005906833</v>
       </c>
       <c r="D9">
-        <v>0.9994029179379313</v>
+        <v>0.940627558085295</v>
       </c>
       <c r="E9">
-        <v>1.000404902225995</v>
+        <v>1.038870705266767</v>
       </c>
       <c r="F9">
-        <v>0.9994029179379313</v>
+        <v>0.940627558085295</v>
       </c>
       <c r="G9">
-        <v>0.9998781196818912</v>
+        <v>0.9883814441737344</v>
       </c>
       <c r="H9">
-        <v>1.000151409328329</v>
+        <v>1.014620949898463</v>
       </c>
       <c r="I9">
-        <v>0.9996111091267662</v>
+        <v>0.9614649384136138</v>
       </c>
       <c r="J9">
-        <v>1.000404902225995</v>
+        <v>1.038870705266767</v>
       </c>
       <c r="K9">
-        <v>1.000404902225995</v>
+        <v>1.038870705266767</v>
       </c>
       <c r="L9">
-        <v>0.9998714700286543</v>
+        <v>0.9872663211980972</v>
       </c>
       <c r="M9">
-        <v>1.000221226957766</v>
+        <v>1.022080512181913</v>
       </c>
       <c r="N9">
-        <v>1.000404902225995</v>
+        <v>1.038870705266767</v>
       </c>
       <c r="O9">
-        <v>1.000145419407772</v>
+        <v>1.015243005906833</v>
       </c>
       <c r="P9">
-        <v>0.9997741686728517</v>
+        <v>0.9779352819960639</v>
       </c>
       <c r="Q9">
-        <v>1.000008444718213</v>
+        <v>1.001254663552465</v>
       </c>
       <c r="R9">
-        <v>0.9999844131905661</v>
+        <v>0.9982470897529648</v>
       </c>
       <c r="S9">
-        <v>0.9998066024581193</v>
+        <v>0.9810456283967417</v>
       </c>
       <c r="T9">
-        <v>0.9999844131905661</v>
+        <v>0.9982470897529648</v>
       </c>
       <c r="U9">
-        <v>0.9999561774000881</v>
+        <v>0.995501897614248</v>
       </c>
       <c r="V9">
-        <v>1.000045922365269</v>
+        <v>1.004175659144752</v>
       </c>
       <c r="W9">
-        <v>0.9999608218368882</v>
+        <v>0.9960694293905894</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000306997348448</v>
+        <v>1.015545313496545</v>
       </c>
       <c r="D10">
-        <v>0.9987459043385245</v>
+        <v>0.939296418967237</v>
       </c>
       <c r="E10">
-        <v>1.000847668227014</v>
+        <v>1.03981231348355</v>
       </c>
       <c r="F10">
-        <v>0.9987459043385245</v>
+        <v>0.939296418967237</v>
       </c>
       <c r="G10">
-        <v>0.9997450052026802</v>
+        <v>0.988095710924339</v>
       </c>
       <c r="H10">
-        <v>1.000317151367656</v>
+        <v>1.014970667215324</v>
       </c>
       <c r="I10">
-        <v>0.9991834506922407</v>
+        <v>0.9605941471481699</v>
       </c>
       <c r="J10">
-        <v>1.000847668227014</v>
+        <v>1.03981231348355</v>
       </c>
       <c r="K10">
-        <v>1.000847668227014</v>
+        <v>1.03981231348355</v>
       </c>
       <c r="L10">
-        <v>0.9997301321467652</v>
+        <v>0.9869784594347994</v>
       </c>
       <c r="M10">
-        <v>1.000464822874531</v>
+        <v>1.022571419592849</v>
       </c>
       <c r="N10">
-        <v>1.000847668227014</v>
+        <v>1.03981231348355</v>
       </c>
       <c r="O10">
-        <v>1.000306997348448</v>
+        <v>1.015545313496545</v>
       </c>
       <c r="P10">
-        <v>0.9995264508434861</v>
+        <v>0.9774208662318912</v>
       </c>
       <c r="Q10">
-        <v>1.000018564747607</v>
+        <v>1.001261886465672</v>
       </c>
       <c r="R10">
-        <v>0.9999668566379953</v>
+        <v>0.9982180153157776</v>
       </c>
       <c r="S10">
-        <v>0.9995943446112459</v>
+        <v>0.9806067306328606</v>
       </c>
       <c r="T10">
-        <v>0.9999668566379953</v>
+        <v>0.9982180153157776</v>
       </c>
       <c r="U10">
-        <v>0.9999076755151878</v>
+        <v>0.995408126345533</v>
       </c>
       <c r="V10">
-        <v>1.000095674057553</v>
+        <v>1.004288963773136</v>
       </c>
       <c r="W10">
-        <v>0.9999176415247324</v>
+        <v>0.9959830562828516</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000522939519601</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="D11">
-        <v>0.9978258551353485</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="E11">
-        <v>1.00148604781561</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="F11">
-        <v>0.9978258551353485</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="G11">
-        <v>0.9995519902204454</v>
+        <v>0.9995819435385044</v>
       </c>
       <c r="H11">
-        <v>1.000554977091525</v>
+        <v>1.000516424730651</v>
       </c>
       <c r="I11">
-        <v>0.9985827947950247</v>
+        <v>0.9986888514585998</v>
       </c>
       <c r="J11">
-        <v>1.00148604781561</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="K11">
-        <v>1.00148604781561</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="L11">
-        <v>0.9995315910165224</v>
+        <v>0.999566626162225</v>
       </c>
       <c r="M11">
-        <v>1.00080486021336</v>
+        <v>1.000743387592281</v>
       </c>
       <c r="N11">
-        <v>1.00148604781561</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="O11">
-        <v>1.000522939519601</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="P11">
-        <v>0.9991743973274746</v>
+        <v>0.9992337449310633</v>
       </c>
       <c r="Q11">
-        <v>1.000027265268062</v>
+        <v>1.000021967992373</v>
       </c>
       <c r="R11">
-        <v>0.9999449474901865</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="S11">
-        <v>0.9992934618904905</v>
+        <v>0.9993447053414505</v>
       </c>
       <c r="T11">
-        <v>0.9999449474901865</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="U11">
-        <v>0.9998416083717705</v>
+        <v>0.9998546749571486</v>
       </c>
       <c r="V11">
-        <v>1.000170496260538</v>
+        <v>1.000160656726568</v>
       </c>
       <c r="W11">
-        <v>0.9998576319759297</v>
+        <v>0.9998686633935789</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9923957669731575</v>
+        <v>1.000292546987273</v>
       </c>
       <c r="D12">
-        <v>1.025179709688581</v>
+        <v>0.998839434039875</v>
       </c>
       <c r="E12">
-        <v>0.9855411775522112</v>
+        <v>1.000769434747902</v>
       </c>
       <c r="F12">
-        <v>1.025179709688581</v>
+        <v>0.998839434039875</v>
       </c>
       <c r="G12">
-        <v>1.004197990025722</v>
+        <v>0.9997694273506745</v>
       </c>
       <c r="H12">
-        <v>0.994432464683307</v>
+        <v>1.000288804971193</v>
       </c>
       <c r="I12">
-        <v>1.016145287831274</v>
+        <v>0.9992458114927049</v>
       </c>
       <c r="J12">
-        <v>0.9855411775522112</v>
+        <v>1.000769434747902</v>
       </c>
       <c r="K12">
-        <v>0.9855411775522112</v>
+        <v>1.000769434747902</v>
       </c>
       <c r="L12">
-        <v>1.005331818181824</v>
+        <v>0.9997507666198807</v>
       </c>
       <c r="M12">
-        <v>0.9905160771073416</v>
+        <v>1.000431044013247</v>
       </c>
       <c r="N12">
-        <v>0.9855411775522112</v>
+        <v>1.000769434747902</v>
       </c>
       <c r="O12">
-        <v>0.9923957669731575</v>
+        <v>1.000292546987273</v>
       </c>
       <c r="P12">
-        <v>1.008787738330869</v>
+        <v>0.9995659905135738</v>
       </c>
       <c r="Q12">
-        <v>0.9988637925774908</v>
+        <v>1.000021656803577</v>
       </c>
       <c r="R12">
-        <v>1.001038884737983</v>
+        <v>0.9999671385916832</v>
       </c>
       <c r="S12">
-        <v>1.007635764947854</v>
+        <v>0.9996275825490094</v>
       </c>
       <c r="T12">
-        <v>1.001038884737983</v>
+        <v>0.9999671385916832</v>
       </c>
       <c r="U12">
-        <v>1.002112118098943</v>
+        <v>0.9999130455987325</v>
       </c>
       <c r="V12">
-        <v>0.9987979299895968</v>
+        <v>1.000084323428566</v>
       </c>
       <c r="W12">
-        <v>1.001717536505427</v>
+        <v>0.9999234087778437</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9990787227496117</v>
+        <v>1.001071408677785</v>
       </c>
       <c r="D13">
-        <v>1.005880519605584</v>
+        <v>0.9958089784601128</v>
       </c>
       <c r="E13">
-        <v>0.9951039193639368</v>
+        <v>1.002751958236823</v>
       </c>
       <c r="F13">
-        <v>1.005880519605584</v>
+        <v>0.9958089784601128</v>
       </c>
       <c r="G13">
-        <v>1.001527371619576</v>
+        <v>0.9991769340225112</v>
       </c>
       <c r="H13">
-        <v>0.9982249519428326</v>
+        <v>1.001034614687366</v>
       </c>
       <c r="I13">
-        <v>1.003918575695935</v>
+        <v>0.9972790705252249</v>
       </c>
       <c r="J13">
-        <v>0.9951039193639368</v>
+        <v>1.002751958236823</v>
       </c>
       <c r="K13">
-        <v>0.9951039193639368</v>
+        <v>1.002751958236823</v>
       </c>
       <c r="L13">
-        <v>1.001296572258907</v>
+        <v>0.9991008730763289</v>
       </c>
       <c r="M13">
-        <v>0.9978748240822469</v>
+        <v>1.001558152418518</v>
       </c>
       <c r="N13">
-        <v>0.9951039193639368</v>
+        <v>1.002751958236823</v>
       </c>
       <c r="O13">
-        <v>0.9990787227496117</v>
+        <v>1.001071408677785</v>
       </c>
       <c r="P13">
-        <v>1.002479621177598</v>
+        <v>0.9984401935689489</v>
       </c>
       <c r="Q13">
-        <v>1.000187647504259</v>
+        <v>1.000086140877057</v>
       </c>
       <c r="R13">
-        <v>1.000021053906378</v>
+        <v>0.9998774484582403</v>
       </c>
       <c r="S13">
-        <v>1.002085271538034</v>
+        <v>0.9986604200714089</v>
       </c>
       <c r="T13">
-        <v>1.000021053906378</v>
+        <v>0.9998774484582403</v>
       </c>
       <c r="U13">
-        <v>1.00033993349451</v>
+        <v>0.9996833046127624</v>
       </c>
       <c r="V13">
-        <v>0.9992927306683953</v>
+        <v>1.000297035337575</v>
       </c>
       <c r="W13">
-        <v>1.000363182164829</v>
+        <v>0.9997227487630838</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.004584562242399</v>
+        <v>1.001154406920513</v>
       </c>
       <c r="D14">
-        <v>0.9972617404338369</v>
+        <v>0.995294161596709</v>
       </c>
       <c r="E14">
-        <v>0.9948921832548223</v>
+        <v>1.003176431918757</v>
       </c>
       <c r="F14">
-        <v>0.9972617404338369</v>
+        <v>0.995294161596709</v>
       </c>
       <c r="G14">
-        <v>1.001948354221839</v>
+        <v>0.9990447206820351</v>
       </c>
       <c r="H14">
-        <v>0.9985178997039236</v>
+        <v>1.001188707916726</v>
       </c>
       <c r="I14">
-        <v>0.9988948293817664</v>
+        <v>0.9969364166341239</v>
       </c>
       <c r="J14">
-        <v>0.9948921832548223</v>
+        <v>1.003176431918757</v>
       </c>
       <c r="K14">
-        <v>0.9948921832548223</v>
+        <v>1.003176431918757</v>
       </c>
       <c r="L14">
-        <v>0.9996460297370516</v>
+        <v>0.9989875043894556</v>
       </c>
       <c r="M14">
-        <v>1.001425802721175</v>
+        <v>1.001744450807523</v>
       </c>
       <c r="N14">
-        <v>0.9948921832548223</v>
+        <v>1.003176431918757</v>
       </c>
       <c r="O14">
-        <v>1.004584562242399</v>
+        <v>1.001154406920513</v>
       </c>
       <c r="P14">
-        <v>1.000923151338118</v>
+        <v>0.998224284258611</v>
       </c>
       <c r="Q14">
-        <v>1.002115295989725</v>
+        <v>1.000070955654984</v>
       </c>
       <c r="R14">
-        <v>0.9989128286436862</v>
+        <v>0.9998750001453263</v>
       </c>
       <c r="S14">
-        <v>1.000497444137763</v>
+        <v>0.9984786909688926</v>
       </c>
       <c r="T14">
-        <v>0.9989128286436862</v>
+        <v>0.9998750001453263</v>
       </c>
       <c r="U14">
-        <v>0.9990961289170276</v>
+        <v>0.9996531262063586</v>
       </c>
       <c r="V14">
-        <v>0.9982553397845866</v>
+        <v>1.000357787348838</v>
       </c>
       <c r="W14">
-        <v>0.9996464252121017</v>
+        <v>0.9996908501082303</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9981088695450405</v>
+        <v>1.000410914605975</v>
       </c>
       <c r="D15">
-        <v>1.00114206461984</v>
+        <v>0.9983200683942718</v>
       </c>
       <c r="E15">
-        <v>1.002093053552758</v>
+        <v>1.001136075922735</v>
       </c>
       <c r="F15">
-        <v>1.00114206461984</v>
+        <v>0.9983200683942718</v>
       </c>
       <c r="G15">
-        <v>0.9992008158679484</v>
+        <v>0.9996582110007651</v>
       </c>
       <c r="H15">
-        <v>1.000606490716347</v>
+        <v>1.000425020802013</v>
       </c>
       <c r="I15">
-        <v>1.000464577424958</v>
+        <v>0.9989061304738048</v>
       </c>
       <c r="J15">
-        <v>1.002093053552758</v>
+        <v>1.001136075922735</v>
       </c>
       <c r="K15">
-        <v>1.002093053552758</v>
+        <v>1.001136075922735</v>
       </c>
       <c r="L15">
-        <v>1.000148894817233</v>
+        <v>0.9996384776976869</v>
       </c>
       <c r="M15">
-        <v>0.9994075297328978</v>
+        <v>1.000622623545832</v>
       </c>
       <c r="N15">
-        <v>1.002093053552758</v>
+        <v>1.001136075922735</v>
       </c>
       <c r="O15">
-        <v>0.9981088695450405</v>
+        <v>1.000410914605975</v>
       </c>
       <c r="P15">
-        <v>0.99962546708244</v>
+        <v>0.9993654915001233</v>
       </c>
       <c r="Q15">
-        <v>0.999128882181137</v>
+        <v>1.000024696151831</v>
       </c>
       <c r="R15">
-        <v>1.000447995905879</v>
+        <v>0.9999556863076605</v>
       </c>
       <c r="S15">
-        <v>0.9997999429940378</v>
+        <v>0.9994564868993111</v>
       </c>
       <c r="T15">
-        <v>1.000447995905879</v>
+        <v>0.9999556863076604</v>
       </c>
       <c r="U15">
-        <v>1.000373220633718</v>
+        <v>0.999876384155167</v>
       </c>
       <c r="V15">
-        <v>1.000717187217526</v>
+        <v>1.000128322508681</v>
       </c>
       <c r="W15">
-        <v>1.000146537034628</v>
+        <v>0.9998896903053855</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.008032706229494</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="D16">
-        <v>0.9672119417038018</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="E16">
-        <v>1.022150805488661</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="F16">
-        <v>0.9672119417038018</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="G16">
-        <v>0.9933372287083713</v>
+        <v>0.9993410742682229</v>
       </c>
       <c r="H16">
-        <v>1.008288299113172</v>
+        <v>1.000819820901085</v>
       </c>
       <c r="I16">
-        <v>0.9786525734880944</v>
+        <v>0.9978877549869752</v>
       </c>
       <c r="J16">
-        <v>1.022150805488661</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="K16">
-        <v>1.022150805488661</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="L16">
-        <v>0.992944754975693</v>
+        <v>0.9993019117064644</v>
       </c>
       <c r="M16">
-        <v>1.012153384610339</v>
+        <v>1.001202644895076</v>
       </c>
       <c r="N16">
-        <v>1.022150805488661</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="O16">
-        <v>1.008032706229494</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="P16">
-        <v>0.987622323966648</v>
+        <v>0.9987754995745162</v>
       </c>
       <c r="Q16">
-        <v>1.000488730602594</v>
+        <v>1.000048656575671</v>
       </c>
       <c r="R16">
-        <v>0.9991318178073191</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="S16">
-        <v>0.9893964676363297</v>
+        <v>0.9989509702851657</v>
       </c>
       <c r="T16">
-        <v>0.9991318178073193</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="U16">
-        <v>0.9975850520994127</v>
+        <v>0.999760938032375</v>
       </c>
       <c r="V16">
-        <v>1.002498202777262</v>
+        <v>1.000246918680701</v>
       </c>
       <c r="W16">
-        <v>0.9978464617897034</v>
+        <v>0.9997868808976074</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006640756468223</v>
+        <v>1.001521522999703</v>
       </c>
       <c r="D17">
-        <v>0.9730953140111636</v>
+        <v>0.9937842037650588</v>
       </c>
       <c r="E17">
-        <v>1.018088303733233</v>
+        <v>1.004201508242877</v>
       </c>
       <c r="F17">
-        <v>0.9730953140111636</v>
+        <v>0.9937842037650588</v>
       </c>
       <c r="G17">
-        <v>0.9945643961071524</v>
+        <v>0.9987360872833753</v>
       </c>
       <c r="H17">
-        <v>1.006773626025983</v>
+        <v>1.001571963612829</v>
       </c>
       <c r="I17">
-        <v>0.9824916341082913</v>
+        <v>0.9959528430508834</v>
       </c>
       <c r="J17">
-        <v>1.018088303733233</v>
+        <v>1.004201508242877</v>
       </c>
       <c r="K17">
-        <v>1.018088303733233</v>
+        <v>1.004201508242877</v>
       </c>
       <c r="L17">
-        <v>0.9942136930047729</v>
+        <v>0.9986624250684923</v>
       </c>
       <c r="M17">
-        <v>1.00997781156787</v>
+        <v>1.002303844447463</v>
       </c>
       <c r="N17">
-        <v>1.018088303733233</v>
+        <v>1.004201508242877</v>
       </c>
       <c r="O17">
-        <v>1.006640756468223</v>
+        <v>1.001521522999703</v>
       </c>
       <c r="P17">
-        <v>0.9898680352396932</v>
+        <v>0.9976528633823808</v>
       </c>
       <c r="Q17">
-        <v>1.000427224736498</v>
+        <v>1.000091974034098</v>
       </c>
       <c r="R17">
-        <v>0.9992747914042065</v>
+        <v>0.9998357450025462</v>
       </c>
       <c r="S17">
-        <v>0.9913165878280532</v>
+        <v>0.9979893839444181</v>
       </c>
       <c r="T17">
-        <v>0.9992747914042065</v>
+        <v>0.9998357450025462</v>
       </c>
       <c r="U17">
-        <v>0.9980095168043481</v>
+        <v>0.9995424150190327</v>
       </c>
       <c r="V17">
-        <v>1.002025274190125</v>
+        <v>1.000474233663802</v>
       </c>
       <c r="W17">
-        <v>0.9982306918783361</v>
+        <v>0.9995917998088353</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003854132309089</v>
+        <v>1.002230943039289</v>
       </c>
       <c r="D18">
-        <v>0.9848558190086002</v>
+        <v>0.9908838080394164</v>
       </c>
       <c r="E18">
-        <v>1.009975075794851</v>
+        <v>1.006162971312656</v>
       </c>
       <c r="F18">
-        <v>0.9848558190086002</v>
+        <v>0.9908838080394164</v>
       </c>
       <c r="G18">
-        <v>0.997014741064244</v>
+        <v>0.9981459790035975</v>
       </c>
       <c r="H18">
-        <v>1.00374822181718</v>
+        <v>1.002305770046357</v>
       </c>
       <c r="I18">
-        <v>0.9901649577950822</v>
+        <v>0.9940642747673964</v>
       </c>
       <c r="J18">
-        <v>1.009975075794851</v>
+        <v>1.006162971312656</v>
       </c>
       <c r="K18">
-        <v>1.009975075794851</v>
+        <v>1.006162971312656</v>
       </c>
       <c r="L18">
-        <v>0.9967499713285894</v>
+        <v>0.9980382552630198</v>
       </c>
       <c r="M18">
-        <v>1.005628531877809</v>
+        <v>1.00337879235513</v>
       </c>
       <c r="N18">
-        <v>1.009975075794851</v>
+        <v>1.006162971312656</v>
       </c>
       <c r="O18">
-        <v>1.003854132309089</v>
+        <v>1.002230943039289</v>
       </c>
       <c r="P18">
-        <v>0.9943549756588446</v>
+        <v>0.9965573755393525</v>
       </c>
       <c r="Q18">
-        <v>1.000302051818839</v>
+        <v>1.000134599151154</v>
       </c>
       <c r="R18">
-        <v>0.99956167570418</v>
+        <v>0.9997592407971204</v>
       </c>
       <c r="S18">
-        <v>0.9951533075487595</v>
+        <v>0.9970510021139084</v>
       </c>
       <c r="T18">
-        <v>0.9995616757041801</v>
+        <v>0.9997592407971204</v>
       </c>
       <c r="U18">
-        <v>0.9988587496102824</v>
+        <v>0.9993289944135952</v>
       </c>
       <c r="V18">
-        <v>1.001082014847196</v>
+        <v>1.000695789793407</v>
       </c>
       <c r="W18">
-        <v>0.9989989313744306</v>
+        <v>0.9994013492283577</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004286148401903</v>
+        <v>1.000034848423689</v>
       </c>
       <c r="D19">
-        <v>0.9833950385377559</v>
+        <v>0.9998605433303566</v>
       </c>
       <c r="E19">
-        <v>1.010830130079205</v>
+        <v>1.000092999753291</v>
       </c>
       <c r="F19">
-        <v>0.9833950385377559</v>
+        <v>0.9998605433303566</v>
       </c>
       <c r="G19">
-        <v>0.9967653537823639</v>
+        <v>0.9999720996608795</v>
       </c>
       <c r="H19">
-        <v>1.004076290516335</v>
+        <v>1.000034872652357</v>
       </c>
       <c r="I19">
-        <v>0.9892267186797709</v>
+        <v>0.9999093233092012</v>
       </c>
       <c r="J19">
-        <v>1.010830130079205</v>
+        <v>1.000092999753291</v>
       </c>
       <c r="K19">
-        <v>1.010830130079205</v>
+        <v>1.000092999753291</v>
       </c>
       <c r="L19">
-        <v>0.9964401014040155</v>
+        <v>0.9999700330204777</v>
       </c>
       <c r="M19">
-        <v>1.006177779027409</v>
+        <v>1.000051763133223</v>
       </c>
       <c r="N19">
-        <v>1.010830130079205</v>
+        <v>1.000092999753291</v>
       </c>
       <c r="O19">
-        <v>1.004286148401903</v>
+        <v>1.000034848423689</v>
       </c>
       <c r="P19">
-        <v>0.9938405934698294</v>
+        <v>0.9999476958770226</v>
       </c>
       <c r="Q19">
-        <v>1.000363124902959</v>
+        <v>1.000002440722083</v>
       </c>
       <c r="R19">
-        <v>0.9995037723396213</v>
+        <v>0.9999961305024453</v>
       </c>
       <c r="S19">
-        <v>0.9947070961145581</v>
+        <v>0.9999551415915077</v>
       </c>
       <c r="T19">
-        <v>0.9995037723396213</v>
+        <v>0.9999961305024453</v>
       </c>
       <c r="U19">
-        <v>0.9987378546057198</v>
+        <v>0.9999896061319534</v>
       </c>
       <c r="V19">
-        <v>1.001156309700417</v>
+        <v>1.000010284856221</v>
       </c>
       <c r="W19">
-        <v>0.9988996950535947</v>
+        <v>0.9999908104104342</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999914772085007</v>
+        <v>1.000099311715511</v>
       </c>
       <c r="D20">
-        <v>0.9999993511170419</v>
+        <v>0.9995978533055159</v>
       </c>
       <c r="E20">
-        <v>1.000015873223828</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="F20">
-        <v>0.9999993511170419</v>
+        <v>0.9995978533055159</v>
       </c>
       <c r="G20">
-        <v>0.9999943129210603</v>
+        <v>0.9999187878662281</v>
       </c>
       <c r="H20">
-        <v>1.000004986909544</v>
+        <v>1.00010121709811</v>
       </c>
       <c r="I20">
-        <v>0.9999980759246239</v>
+        <v>0.9997383112732757</v>
       </c>
       <c r="J20">
-        <v>1.000015873223828</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="K20">
-        <v>1.000015873223828</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="L20">
-        <v>0.9999993384373662</v>
+        <v>0.999913514544665</v>
       </c>
       <c r="M20">
-        <v>0.9999993291119718</v>
+        <v>1.000149144300087</v>
       </c>
       <c r="N20">
-        <v>1.000015873223828</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="O20">
-        <v>0.9999914772085007</v>
+        <v>1.000099311715511</v>
       </c>
       <c r="P20">
-        <v>0.9999954141627713</v>
+        <v>0.9998485825105136</v>
       </c>
       <c r="Q20">
-        <v>0.9999954078229334</v>
+        <v>1.000006413130088</v>
       </c>
       <c r="R20">
-        <v>1.00000223384979</v>
+        <v>0.9999891471079737</v>
       </c>
       <c r="S20">
-        <v>0.9999967222543029</v>
+        <v>0.9998702265218974</v>
       </c>
       <c r="T20">
-        <v>1.00000223384979</v>
+        <v>0.9999891471079737</v>
       </c>
       <c r="U20">
-        <v>1.000001509996684</v>
+        <v>0.9999702389671465</v>
       </c>
       <c r="V20">
-        <v>1.000004382642113</v>
+        <v>1.000030246434296</v>
       </c>
       <c r="W20">
-        <v>1.000000343106742</v>
+        <v>0.9999735520507858</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000054163115905</v>
+        <v>1.000145419407772</v>
       </c>
       <c r="D21">
-        <v>0.9998418690242801</v>
+        <v>0.9994029179379313</v>
       </c>
       <c r="E21">
-        <v>1.000079411707198</v>
+        <v>1.000404902225995</v>
       </c>
       <c r="F21">
-        <v>0.9998418690242801</v>
+        <v>0.9994029179379313</v>
       </c>
       <c r="G21">
-        <v>0.9999777382715624</v>
+        <v>0.9998781196818912</v>
       </c>
       <c r="H21">
-        <v>1.000031404979172</v>
+        <v>1.000151409328329</v>
       </c>
       <c r="I21">
-        <v>0.9998997173535464</v>
+        <v>0.9996111091267662</v>
       </c>
       <c r="J21">
-        <v>1.000079411707198</v>
+        <v>1.000404902225995</v>
       </c>
       <c r="K21">
-        <v>1.000079411707198</v>
+        <v>1.000404902225995</v>
       </c>
       <c r="L21">
-        <v>0.9999669004613175</v>
+        <v>0.9998714700286543</v>
       </c>
       <c r="M21">
-        <v>1.000060232909738</v>
+        <v>1.000221226957766</v>
       </c>
       <c r="N21">
-        <v>1.000079411707198</v>
+        <v>1.000404902225995</v>
       </c>
       <c r="O21">
-        <v>1.000054163115905</v>
+        <v>1.000145419407772</v>
       </c>
       <c r="P21">
-        <v>0.9999480160700926</v>
+        <v>0.9997741686728517</v>
       </c>
       <c r="Q21">
-        <v>1.000010531788611</v>
+        <v>1.000008444718213</v>
       </c>
       <c r="R21">
-        <v>0.9999918146157946</v>
+        <v>0.9999844131905661</v>
       </c>
       <c r="S21">
-        <v>0.9999543108671677</v>
+        <v>0.9998066024581193</v>
       </c>
       <c r="T21">
-        <v>0.9999918146157946</v>
+        <v>0.9999844131905661</v>
       </c>
       <c r="U21">
-        <v>0.9999855860771754</v>
+        <v>0.9999561774000881</v>
       </c>
       <c r="V21">
-        <v>1.00000435120318</v>
+        <v>1.000045922365269</v>
       </c>
       <c r="W21">
-        <v>0.99998892972784</v>
+        <v>0.9999608218368882</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000094079534743</v>
+        <v>1.000306997348448</v>
       </c>
       <c r="D22">
-        <v>0.9995027252729465</v>
+        <v>0.9987459043385245</v>
       </c>
       <c r="E22">
-        <v>1.000385276061597</v>
+        <v>1.000847668227014</v>
       </c>
       <c r="F22">
-        <v>0.9995027252729465</v>
+        <v>0.9987459043385245</v>
       </c>
       <c r="G22">
-        <v>0.9998811903759033</v>
+        <v>0.9997450052026802</v>
       </c>
       <c r="H22">
-        <v>1.000141118074165</v>
+        <v>1.000317151367656</v>
       </c>
       <c r="I22">
-        <v>0.9996714352028215</v>
+        <v>0.9991834506922407</v>
       </c>
       <c r="J22">
-        <v>1.000385276061597</v>
+        <v>1.000847668227014</v>
       </c>
       <c r="K22">
-        <v>1.000385276061597</v>
+        <v>1.000847668227014</v>
       </c>
       <c r="L22">
-        <v>0.9998913289458071</v>
+        <v>0.9997301321467652</v>
       </c>
       <c r="M22">
-        <v>1.000181410697549</v>
+        <v>1.000464822874531</v>
       </c>
       <c r="N22">
-        <v>1.000385276061597</v>
+        <v>1.000847668227014</v>
       </c>
       <c r="O22">
-        <v>1.000094079534743</v>
+        <v>1.000306997348448</v>
       </c>
       <c r="P22">
-        <v>0.9997984024038449</v>
+        <v>0.9995264508434861</v>
       </c>
       <c r="Q22">
-        <v>0.9999927042402752</v>
+        <v>1.000018564747607</v>
       </c>
       <c r="R22">
-        <v>0.9999940269564288</v>
+        <v>0.9999668566379953</v>
       </c>
       <c r="S22">
-        <v>0.9998293779178322</v>
+        <v>0.9995943446112459</v>
       </c>
       <c r="T22">
-        <v>0.9999940269564288</v>
+        <v>0.9999668566379953</v>
       </c>
       <c r="U22">
-        <v>0.9999683524537735</v>
+        <v>0.9999076755151878</v>
       </c>
       <c r="V22">
-        <v>1.000051737175338</v>
+        <v>1.000095674057553</v>
       </c>
       <c r="W22">
-        <v>0.9999685705206915</v>
+        <v>0.9999176415247324</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000522939519601</v>
+      </c>
+      <c r="D23">
+        <v>0.9978258551353485</v>
+      </c>
+      <c r="E23">
+        <v>1.00148604781561</v>
+      </c>
+      <c r="F23">
+        <v>0.9978258551353485</v>
+      </c>
+      <c r="G23">
+        <v>0.9995519902204454</v>
+      </c>
+      <c r="H23">
+        <v>1.000554977091525</v>
+      </c>
+      <c r="I23">
+        <v>0.9985827947950247</v>
+      </c>
+      <c r="J23">
+        <v>1.00148604781561</v>
+      </c>
+      <c r="K23">
+        <v>1.00148604781561</v>
+      </c>
+      <c r="L23">
+        <v>0.9995315910165224</v>
+      </c>
+      <c r="M23">
+        <v>1.00080486021336</v>
+      </c>
+      <c r="N23">
+        <v>1.00148604781561</v>
+      </c>
+      <c r="O23">
+        <v>1.000522939519601</v>
+      </c>
+      <c r="P23">
+        <v>0.9991743973274746</v>
+      </c>
+      <c r="Q23">
+        <v>1.000027265268062</v>
+      </c>
+      <c r="R23">
+        <v>0.9999449474901865</v>
+      </c>
+      <c r="S23">
+        <v>0.9992934618904905</v>
+      </c>
+      <c r="T23">
+        <v>0.9999449474901865</v>
+      </c>
+      <c r="U23">
+        <v>0.9998416083717705</v>
+      </c>
+      <c r="V23">
+        <v>1.000170496260538</v>
+      </c>
+      <c r="W23">
+        <v>0.9998576319759297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9923957669731575</v>
+      </c>
+      <c r="D24">
+        <v>1.025179709688581</v>
+      </c>
+      <c r="E24">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="F24">
+        <v>1.025179709688581</v>
+      </c>
+      <c r="G24">
+        <v>1.004197990025722</v>
+      </c>
+      <c r="H24">
+        <v>0.994432464683307</v>
+      </c>
+      <c r="I24">
+        <v>1.016145287831274</v>
+      </c>
+      <c r="J24">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="K24">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="L24">
+        <v>1.005331818181824</v>
+      </c>
+      <c r="M24">
+        <v>0.9905160771073416</v>
+      </c>
+      <c r="N24">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="O24">
+        <v>0.9923957669731575</v>
+      </c>
+      <c r="P24">
+        <v>1.008787738330869</v>
+      </c>
+      <c r="Q24">
+        <v>0.9988637925774908</v>
+      </c>
+      <c r="R24">
+        <v>1.001038884737983</v>
+      </c>
+      <c r="S24">
+        <v>1.007635764947854</v>
+      </c>
+      <c r="T24">
+        <v>1.001038884737983</v>
+      </c>
+      <c r="U24">
+        <v>1.002112118098943</v>
+      </c>
+      <c r="V24">
+        <v>0.9987979299895968</v>
+      </c>
+      <c r="W24">
+        <v>1.001717536505427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9990787227496117</v>
+      </c>
+      <c r="D25">
+        <v>1.005880519605584</v>
+      </c>
+      <c r="E25">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="F25">
+        <v>1.005880519605584</v>
+      </c>
+      <c r="G25">
+        <v>1.001527371619576</v>
+      </c>
+      <c r="H25">
+        <v>0.9982249519428326</v>
+      </c>
+      <c r="I25">
+        <v>1.003918575695935</v>
+      </c>
+      <c r="J25">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="K25">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="L25">
+        <v>1.001296572258907</v>
+      </c>
+      <c r="M25">
+        <v>0.9978748240822469</v>
+      </c>
+      <c r="N25">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="O25">
+        <v>0.9990787227496117</v>
+      </c>
+      <c r="P25">
+        <v>1.002479621177598</v>
+      </c>
+      <c r="Q25">
+        <v>1.000187647504259</v>
+      </c>
+      <c r="R25">
+        <v>1.000021053906378</v>
+      </c>
+      <c r="S25">
+        <v>1.002085271538034</v>
+      </c>
+      <c r="T25">
+        <v>1.000021053906378</v>
+      </c>
+      <c r="U25">
+        <v>1.00033993349451</v>
+      </c>
+      <c r="V25">
+        <v>0.9992927306683953</v>
+      </c>
+      <c r="W25">
+        <v>1.000363182164829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.004584562242399</v>
+      </c>
+      <c r="D26">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="E26">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="F26">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="G26">
+        <v>1.001948354221839</v>
+      </c>
+      <c r="H26">
+        <v>0.9985178997039236</v>
+      </c>
+      <c r="I26">
+        <v>0.9988948293817664</v>
+      </c>
+      <c r="J26">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="K26">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="L26">
+        <v>0.9996460297370516</v>
+      </c>
+      <c r="M26">
+        <v>1.001425802721175</v>
+      </c>
+      <c r="N26">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="O26">
+        <v>1.004584562242399</v>
+      </c>
+      <c r="P26">
+        <v>1.000923151338118</v>
+      </c>
+      <c r="Q26">
+        <v>1.002115295989725</v>
+      </c>
+      <c r="R26">
+        <v>0.9989128286436862</v>
+      </c>
+      <c r="S26">
+        <v>1.000497444137763</v>
+      </c>
+      <c r="T26">
+        <v>0.9989128286436862</v>
+      </c>
+      <c r="U26">
+        <v>0.9990961289170276</v>
+      </c>
+      <c r="V26">
+        <v>0.9982553397845866</v>
+      </c>
+      <c r="W26">
+        <v>0.9996464252121017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9981088695450405</v>
+      </c>
+      <c r="D27">
+        <v>1.00114206461984</v>
+      </c>
+      <c r="E27">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="F27">
+        <v>1.00114206461984</v>
+      </c>
+      <c r="G27">
+        <v>0.9992008158679484</v>
+      </c>
+      <c r="H27">
+        <v>1.000606490716347</v>
+      </c>
+      <c r="I27">
+        <v>1.000464577424958</v>
+      </c>
+      <c r="J27">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="K27">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="L27">
+        <v>1.000148894817233</v>
+      </c>
+      <c r="M27">
+        <v>0.9994075297328978</v>
+      </c>
+      <c r="N27">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="O27">
+        <v>0.9981088695450405</v>
+      </c>
+      <c r="P27">
+        <v>0.99962546708244</v>
+      </c>
+      <c r="Q27">
+        <v>0.999128882181137</v>
+      </c>
+      <c r="R27">
+        <v>1.000447995905879</v>
+      </c>
+      <c r="S27">
+        <v>0.9997999429940378</v>
+      </c>
+      <c r="T27">
+        <v>1.000447995905879</v>
+      </c>
+      <c r="U27">
+        <v>1.000373220633718</v>
+      </c>
+      <c r="V27">
+        <v>1.000717187217526</v>
+      </c>
+      <c r="W27">
+        <v>1.000146537034628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.008032706229494</v>
+      </c>
+      <c r="D28">
+        <v>0.9672119417038018</v>
+      </c>
+      <c r="E28">
+        <v>1.022150805488661</v>
+      </c>
+      <c r="F28">
+        <v>0.9672119417038018</v>
+      </c>
+      <c r="G28">
+        <v>0.9933372287083713</v>
+      </c>
+      <c r="H28">
+        <v>1.008288299113172</v>
+      </c>
+      <c r="I28">
+        <v>0.9786525734880944</v>
+      </c>
+      <c r="J28">
+        <v>1.022150805488661</v>
+      </c>
+      <c r="K28">
+        <v>1.022150805488661</v>
+      </c>
+      <c r="L28">
+        <v>0.992944754975693</v>
+      </c>
+      <c r="M28">
+        <v>1.012153384610339</v>
+      </c>
+      <c r="N28">
+        <v>1.022150805488661</v>
+      </c>
+      <c r="O28">
+        <v>1.008032706229494</v>
+      </c>
+      <c r="P28">
+        <v>0.987622323966648</v>
+      </c>
+      <c r="Q28">
+        <v>1.000488730602594</v>
+      </c>
+      <c r="R28">
+        <v>0.9991318178073191</v>
+      </c>
+      <c r="S28">
+        <v>0.9893964676363297</v>
+      </c>
+      <c r="T28">
+        <v>0.9991318178073193</v>
+      </c>
+      <c r="U28">
+        <v>0.9975850520994127</v>
+      </c>
+      <c r="V28">
+        <v>1.002498202777262</v>
+      </c>
+      <c r="W28">
+        <v>0.9978464617897034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.006640756468223</v>
+      </c>
+      <c r="D29">
+        <v>0.9730953140111636</v>
+      </c>
+      <c r="E29">
+        <v>1.018088303733233</v>
+      </c>
+      <c r="F29">
+        <v>0.9730953140111636</v>
+      </c>
+      <c r="G29">
+        <v>0.9945643961071524</v>
+      </c>
+      <c r="H29">
+        <v>1.006773626025983</v>
+      </c>
+      <c r="I29">
+        <v>0.9824916341082913</v>
+      </c>
+      <c r="J29">
+        <v>1.018088303733233</v>
+      </c>
+      <c r="K29">
+        <v>1.018088303733233</v>
+      </c>
+      <c r="L29">
+        <v>0.9942136930047729</v>
+      </c>
+      <c r="M29">
+        <v>1.00997781156787</v>
+      </c>
+      <c r="N29">
+        <v>1.018088303733233</v>
+      </c>
+      <c r="O29">
+        <v>1.006640756468223</v>
+      </c>
+      <c r="P29">
+        <v>0.9898680352396932</v>
+      </c>
+      <c r="Q29">
+        <v>1.000427224736498</v>
+      </c>
+      <c r="R29">
+        <v>0.9992747914042065</v>
+      </c>
+      <c r="S29">
+        <v>0.9913165878280532</v>
+      </c>
+      <c r="T29">
+        <v>0.9992747914042065</v>
+      </c>
+      <c r="U29">
+        <v>0.9980095168043481</v>
+      </c>
+      <c r="V29">
+        <v>1.002025274190125</v>
+      </c>
+      <c r="W29">
+        <v>0.9982306918783361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.003854132309089</v>
+      </c>
+      <c r="D30">
+        <v>0.9848558190086002</v>
+      </c>
+      <c r="E30">
+        <v>1.009975075794851</v>
+      </c>
+      <c r="F30">
+        <v>0.9848558190086002</v>
+      </c>
+      <c r="G30">
+        <v>0.997014741064244</v>
+      </c>
+      <c r="H30">
+        <v>1.00374822181718</v>
+      </c>
+      <c r="I30">
+        <v>0.9901649577950822</v>
+      </c>
+      <c r="J30">
+        <v>1.009975075794851</v>
+      </c>
+      <c r="K30">
+        <v>1.009975075794851</v>
+      </c>
+      <c r="L30">
+        <v>0.9967499713285894</v>
+      </c>
+      <c r="M30">
+        <v>1.005628531877809</v>
+      </c>
+      <c r="N30">
+        <v>1.009975075794851</v>
+      </c>
+      <c r="O30">
+        <v>1.003854132309089</v>
+      </c>
+      <c r="P30">
+        <v>0.9943549756588446</v>
+      </c>
+      <c r="Q30">
+        <v>1.000302051818839</v>
+      </c>
+      <c r="R30">
+        <v>0.99956167570418</v>
+      </c>
+      <c r="S30">
+        <v>0.9951533075487595</v>
+      </c>
+      <c r="T30">
+        <v>0.9995616757041801</v>
+      </c>
+      <c r="U30">
+        <v>0.9988587496102824</v>
+      </c>
+      <c r="V30">
+        <v>1.001082014847196</v>
+      </c>
+      <c r="W30">
+        <v>0.9989989313744306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.004286148401903</v>
+      </c>
+      <c r="D31">
+        <v>0.9833950385377559</v>
+      </c>
+      <c r="E31">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="F31">
+        <v>0.9833950385377559</v>
+      </c>
+      <c r="G31">
+        <v>0.9967653537823639</v>
+      </c>
+      <c r="H31">
+        <v>1.004076290516335</v>
+      </c>
+      <c r="I31">
+        <v>0.9892267186797709</v>
+      </c>
+      <c r="J31">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="K31">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="L31">
+        <v>0.9964401014040155</v>
+      </c>
+      <c r="M31">
+        <v>1.006177779027409</v>
+      </c>
+      <c r="N31">
+        <v>1.010830130079205</v>
+      </c>
+      <c r="O31">
+        <v>1.004286148401903</v>
+      </c>
+      <c r="P31">
+        <v>0.9938405934698294</v>
+      </c>
+      <c r="Q31">
+        <v>1.000363124902959</v>
+      </c>
+      <c r="R31">
+        <v>0.9995037723396213</v>
+      </c>
+      <c r="S31">
+        <v>0.9947070961145581</v>
+      </c>
+      <c r="T31">
+        <v>0.9995037723396213</v>
+      </c>
+      <c r="U31">
+        <v>0.9987378546057198</v>
+      </c>
+      <c r="V31">
+        <v>1.001156309700417</v>
+      </c>
+      <c r="W31">
+        <v>0.9988996950535947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.009806945753424</v>
+      </c>
+      <c r="D32">
+        <v>0.9595412827397257</v>
+      </c>
+      <c r="E32">
+        <v>1.027519555890411</v>
+      </c>
+      <c r="F32">
+        <v>0.9595412827397257</v>
+      </c>
+      <c r="G32">
+        <v>0.9917113034246576</v>
+      </c>
+      <c r="H32">
+        <v>1.010285645753424</v>
+      </c>
+      <c r="I32">
+        <v>0.9736402353424656</v>
+      </c>
+      <c r="J32">
+        <v>1.027519555890411</v>
+      </c>
+      <c r="K32">
+        <v>1.027519555890411</v>
+      </c>
+      <c r="L32">
+        <v>0.9912878931506849</v>
+      </c>
+      <c r="M32">
+        <v>1.014985608493151</v>
+      </c>
+      <c r="N32">
+        <v>1.027519555890411</v>
+      </c>
+      <c r="O32">
+        <v>1.009806945753424</v>
+      </c>
+      <c r="P32">
+        <v>0.9846741142465751</v>
+      </c>
+      <c r="Q32">
+        <v>1.000547419452055</v>
+      </c>
+      <c r="R32">
+        <v>0.9989559281278537</v>
+      </c>
+      <c r="S32">
+        <v>0.9868787072146117</v>
+      </c>
+      <c r="T32">
+        <v>0.9989559281278536</v>
+      </c>
+      <c r="U32">
+        <v>0.9970389193835614</v>
+      </c>
+      <c r="V32">
+        <v>1.003135046684931</v>
+      </c>
+      <c r="W32">
+        <v>0.997347308818493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.018303310526316</v>
+      </c>
+      <c r="D33">
+        <v>0.9325544242105264</v>
+      </c>
+      <c r="E33">
+        <v>1.042400314736842</v>
+      </c>
+      <c r="F33">
+        <v>0.9325544242105264</v>
+      </c>
+      <c r="G33">
+        <v>0.9874337084210528</v>
+      </c>
+      <c r="H33">
+        <v>1.016060335263158</v>
+      </c>
+      <c r="I33">
+        <v>0.9563961568421053</v>
+      </c>
+      <c r="J33">
+        <v>1.042400314736842</v>
+      </c>
+      <c r="K33">
+        <v>1.042400314736842</v>
+      </c>
+      <c r="L33">
+        <v>0.9855942305263158</v>
+      </c>
+      <c r="M33">
+        <v>1.025186567368421</v>
+      </c>
+      <c r="N33">
+        <v>1.042400314736842</v>
+      </c>
+      <c r="O33">
+        <v>1.018303310526316</v>
+      </c>
+      <c r="P33">
+        <v>0.975428867368421</v>
+      </c>
+      <c r="Q33">
+        <v>1.001948770526316</v>
+      </c>
+      <c r="R33">
+        <v>0.9977526831578948</v>
+      </c>
+      <c r="S33">
+        <v>0.978817321754386</v>
+      </c>
+      <c r="T33">
+        <v>0.9977526831578948</v>
+      </c>
+      <c r="U33">
+        <v>0.99471307</v>
+      </c>
+      <c r="V33">
+        <v>1.004250518947368</v>
+      </c>
+      <c r="W33">
+        <v>0.9954911309868422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.016432656315789</v>
+      </c>
+      <c r="D34">
+        <v>0.9353976505263157</v>
+      </c>
+      <c r="E34">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="F34">
+        <v>0.9353976505263157</v>
+      </c>
+      <c r="G34">
+        <v>0.9872600542105262</v>
+      </c>
+      <c r="H34">
+        <v>1.015993888947368</v>
+      </c>
+      <c r="I34">
+        <v>0.9580440215789476</v>
+      </c>
+      <c r="J34">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="K34">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="L34">
+        <v>0.9861354573684212</v>
+      </c>
+      <c r="M34">
+        <v>1.024009436842106</v>
+      </c>
+      <c r="N34">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="O34">
+        <v>1.016432656315789</v>
+      </c>
+      <c r="P34">
+        <v>0.9759151534210526</v>
+      </c>
+      <c r="Q34">
+        <v>1.001284056842105</v>
+      </c>
+      <c r="R34">
+        <v>0.9981323621052631</v>
+      </c>
+      <c r="S34">
+        <v>0.9793219214035088</v>
+      </c>
+      <c r="T34">
+        <v>0.9981323621052631</v>
+      </c>
+      <c r="U34">
+        <v>0.9951331359210527</v>
+      </c>
+      <c r="V34">
+        <v>1.004619864631579</v>
+      </c>
+      <c r="W34">
+        <v>0.9957299931578948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.015305647827728</v>
+      </c>
+      <c r="D35">
+        <v>0.9404896428933408</v>
+      </c>
+      <c r="E35">
+        <v>1.038912567374599</v>
+      </c>
+      <c r="F35">
+        <v>0.9404896428933408</v>
+      </c>
+      <c r="G35">
+        <v>0.9883718952634521</v>
+      </c>
+      <c r="H35">
+        <v>1.014639796250435</v>
+      </c>
+      <c r="I35">
+        <v>0.9613801423010749</v>
+      </c>
+      <c r="J35">
+        <v>1.038912567374599</v>
+      </c>
+      <c r="K35">
+        <v>1.038912567374599</v>
+      </c>
+      <c r="L35">
+        <v>0.9872383785083332</v>
+      </c>
+      <c r="M35">
+        <v>1.022134634306054</v>
+      </c>
+      <c r="N35">
+        <v>1.038912567374599</v>
+      </c>
+      <c r="O35">
+        <v>1.015305647827728</v>
+      </c>
+      <c r="P35">
+        <v>0.9778976453605346</v>
+      </c>
+      <c r="Q35">
+        <v>1.001272013168031</v>
+      </c>
+      <c r="R35">
+        <v>0.9982359526985559</v>
+      </c>
+      <c r="S35">
+        <v>0.9810112230764675</v>
+      </c>
+      <c r="T35">
+        <v>0.9982359526985559</v>
+      </c>
+      <c r="U35">
+        <v>0.9954865591510003</v>
+      </c>
+      <c r="V35">
+        <v>1.00417176079572</v>
+      </c>
+      <c r="W35">
+        <v>0.9960590880906272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999914772085007</v>
+      </c>
+      <c r="D36">
+        <v>0.9999993511170419</v>
+      </c>
+      <c r="E36">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="F36">
+        <v>0.9999993511170419</v>
+      </c>
+      <c r="G36">
+        <v>0.9999943129210603</v>
+      </c>
+      <c r="H36">
+        <v>1.000004986909544</v>
+      </c>
+      <c r="I36">
+        <v>0.9999980759246239</v>
+      </c>
+      <c r="J36">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="K36">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="L36">
+        <v>0.9999993384373662</v>
+      </c>
+      <c r="M36">
+        <v>0.9999993291119718</v>
+      </c>
+      <c r="N36">
+        <v>1.000015873223828</v>
+      </c>
+      <c r="O36">
+        <v>0.9999914772085007</v>
+      </c>
+      <c r="P36">
+        <v>0.9999954141627713</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999954078229334</v>
+      </c>
+      <c r="R36">
+        <v>1.00000223384979</v>
+      </c>
+      <c r="S36">
+        <v>0.9999967222543029</v>
+      </c>
+      <c r="T36">
+        <v>1.00000223384979</v>
+      </c>
+      <c r="U36">
+        <v>1.000001509996684</v>
+      </c>
+      <c r="V36">
+        <v>1.000004382642113</v>
+      </c>
+      <c r="W36">
+        <v>1.000000343106742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000054163115905</v>
+      </c>
+      <c r="D37">
+        <v>0.9998418690242801</v>
+      </c>
+      <c r="E37">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="F37">
+        <v>0.9998418690242801</v>
+      </c>
+      <c r="G37">
+        <v>0.9999777382715624</v>
+      </c>
+      <c r="H37">
+        <v>1.000031404979172</v>
+      </c>
+      <c r="I37">
+        <v>0.9998997173535464</v>
+      </c>
+      <c r="J37">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="K37">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="L37">
+        <v>0.9999669004613175</v>
+      </c>
+      <c r="M37">
+        <v>1.000060232909738</v>
+      </c>
+      <c r="N37">
+        <v>1.000079411707198</v>
+      </c>
+      <c r="O37">
+        <v>1.000054163115905</v>
+      </c>
+      <c r="P37">
+        <v>0.9999480160700926</v>
+      </c>
+      <c r="Q37">
+        <v>1.000010531788611</v>
+      </c>
+      <c r="R37">
+        <v>0.9999918146157946</v>
+      </c>
+      <c r="S37">
+        <v>0.9999543108671677</v>
+      </c>
+      <c r="T37">
+        <v>0.9999918146157946</v>
+      </c>
+      <c r="U37">
+        <v>0.9999855860771754</v>
+      </c>
+      <c r="V37">
+        <v>1.00000435120318</v>
+      </c>
+      <c r="W37">
+        <v>0.99998892972784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000094079534743</v>
+      </c>
+      <c r="D38">
+        <v>0.9995027252729465</v>
+      </c>
+      <c r="E38">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="F38">
+        <v>0.9995027252729465</v>
+      </c>
+      <c r="G38">
+        <v>0.9998811903759033</v>
+      </c>
+      <c r="H38">
+        <v>1.000141118074165</v>
+      </c>
+      <c r="I38">
+        <v>0.9996714352028215</v>
+      </c>
+      <c r="J38">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="K38">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="L38">
+        <v>0.9998913289458071</v>
+      </c>
+      <c r="M38">
+        <v>1.000181410697549</v>
+      </c>
+      <c r="N38">
+        <v>1.000385276061597</v>
+      </c>
+      <c r="O38">
+        <v>1.000094079534743</v>
+      </c>
+      <c r="P38">
+        <v>0.9997984024038449</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999927042402752</v>
+      </c>
+      <c r="R38">
+        <v>0.9999940269564288</v>
+      </c>
+      <c r="S38">
+        <v>0.9998293779178322</v>
+      </c>
+      <c r="T38">
+        <v>0.9999940269564288</v>
+      </c>
+      <c r="U38">
+        <v>0.9999683524537735</v>
+      </c>
+      <c r="V38">
+        <v>1.000051737175338</v>
+      </c>
+      <c r="W38">
+        <v>0.9999685705206915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000161292217881</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9988714033483694</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000967249997749</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9988714033483694</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9996969378724672</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000349292008231</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.999245256529791</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000967249997749</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000967249997749</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9997502246211983</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000406241716652</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000967249997749</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000161292217881</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995163477831253</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999557584195398</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999999818546667</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9995943067291496</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999999818546667</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999375425462995</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000143484036589</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999309872890424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.005645596823366</v>
+      </c>
+      <c r="D40">
+        <v>0.9771194415393957</v>
+      </c>
+      <c r="E40">
+        <v>1.01538622789122</v>
+      </c>
+      <c r="F40">
+        <v>0.9771194415393957</v>
+      </c>
+      <c r="G40">
+        <v>0.9953761823617752</v>
+      </c>
+      <c r="H40">
+        <v>1.005761552462943</v>
+      </c>
+      <c r="I40">
+        <v>0.9851100239397215</v>
+      </c>
+      <c r="J40">
+        <v>1.01538622789122</v>
+      </c>
+      <c r="K40">
+        <v>1.01538622789122</v>
+      </c>
+      <c r="L40">
+        <v>0.9950790365933193</v>
+      </c>
+      <c r="M40">
+        <v>1.00848523689049</v>
+      </c>
+      <c r="N40">
+        <v>1.01538622789122</v>
+      </c>
+      <c r="O40">
+        <v>1.005645596823366</v>
+      </c>
+      <c r="P40">
+        <v>0.9913825191813808</v>
+      </c>
+      <c r="Q40">
+        <v>1.000362316708343</v>
+      </c>
+      <c r="R40">
+        <v>0.9993837554179937</v>
+      </c>
+      <c r="S40">
+        <v>0.9926146916520269</v>
+      </c>
+      <c r="T40">
+        <v>0.9993837554179938</v>
+      </c>
+      <c r="U40">
+        <v>0.9983075757118252</v>
+      </c>
+      <c r="V40">
+        <v>1.001723306147704</v>
+      </c>
+      <c r="W40">
+        <v>0.9984954123127788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9969668724536642</v>
+      </c>
+      <c r="D41">
+        <v>1.011741727110312</v>
+      </c>
+      <c r="E41">
+        <v>0.9923458632750999</v>
+      </c>
+      <c r="F41">
+        <v>1.011741727110312</v>
+      </c>
+      <c r="G41">
+        <v>1.00228582088747</v>
+      </c>
+      <c r="H41">
+        <v>0.9971188432577174</v>
+      </c>
+      <c r="I41">
+        <v>1.007617624910653</v>
+      </c>
+      <c r="J41">
+        <v>0.9923458632750999</v>
+      </c>
+      <c r="K41">
+        <v>0.9923458632750999</v>
+      </c>
+      <c r="L41">
+        <v>1.00251714309629</v>
+      </c>
+      <c r="M41">
+        <v>0.9956313192526615</v>
+      </c>
+      <c r="N41">
+        <v>0.9923458632750999</v>
+      </c>
+      <c r="O41">
+        <v>0.9969668724536642</v>
+      </c>
+      <c r="P41">
+        <v>1.004354299781988</v>
+      </c>
+      <c r="Q41">
+        <v>0.9997420077749772</v>
+      </c>
+      <c r="R41">
+        <v>1.000351487613026</v>
+      </c>
+      <c r="S41">
+        <v>1.003741914220089</v>
+      </c>
+      <c r="T41">
+        <v>1.000351487613026</v>
+      </c>
+      <c r="U41">
+        <v>1.000892901483842</v>
+      </c>
+      <c r="V41">
+        <v>0.9991834938420933</v>
+      </c>
+      <c r="W41">
+        <v>1.000778151780484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.006530981059256</v>
+      </c>
+      <c r="D42">
+        <v>0.9774667012323138</v>
+      </c>
+      <c r="E42">
+        <v>1.013426366478237</v>
+      </c>
+      <c r="F42">
+        <v>0.9774667012323138</v>
+      </c>
+      <c r="G42">
+        <v>0.9960678400348949</v>
+      </c>
+      <c r="H42">
+        <v>1.005134625615793</v>
+      </c>
+      <c r="I42">
+        <v>0.9855041457024926</v>
+      </c>
+      <c r="J42">
+        <v>1.013426366478237</v>
+      </c>
+      <c r="K42">
+        <v>1.013426366478237</v>
+      </c>
+      <c r="L42">
+        <v>0.9952120877306471</v>
+      </c>
+      <c r="M42">
+        <v>1.008458389233094</v>
+      </c>
+      <c r="N42">
+        <v>1.013426366478237</v>
+      </c>
+      <c r="O42">
+        <v>1.006530981059256</v>
+      </c>
+      <c r="P42">
+        <v>0.9919988411457847</v>
+      </c>
+      <c r="Q42">
+        <v>1.000871534394951</v>
+      </c>
+      <c r="R42">
+        <v>0.9991413495899355</v>
+      </c>
+      <c r="S42">
+        <v>0.9930699233407388</v>
+      </c>
+      <c r="T42">
+        <v>0.9991413495899355</v>
+      </c>
+      <c r="U42">
+        <v>0.9981590341251134</v>
+      </c>
+      <c r="V42">
+        <v>1.001212500595738</v>
+      </c>
+      <c r="W42">
+        <v>0.998475142135841</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001136075922735</v>
+        <v>1.000099311715511</v>
       </c>
       <c r="D3">
-        <v>0.9983200683942718</v>
+        <v>0.9995978533055159</v>
       </c>
       <c r="E3">
-        <v>1.000410914605975</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="F3">
-        <v>1.001136075922735</v>
+        <v>0.9995978533055159</v>
       </c>
       <c r="G3">
-        <v>0.9996384776976869</v>
+        <v>0.9999187878662281</v>
       </c>
       <c r="H3">
-        <v>1.000622623545832</v>
+        <v>1.00010121709811</v>
       </c>
       <c r="I3">
-        <v>1.001136075922735</v>
+        <v>0.9997383112732757</v>
       </c>
       <c r="J3">
-        <v>0.9983200683942718</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="K3">
-        <v>0.9996582110007651</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="L3">
-        <v>1.000425020802013</v>
+        <v>0.999913514544665</v>
       </c>
       <c r="M3">
-        <v>0.9989061304738048</v>
+        <v>1.000149144300087</v>
       </c>
       <c r="N3">
-        <v>1.001136075922735</v>
+        <v>1.000270276302894</v>
       </c>
       <c r="O3">
-        <v>1.000410914605975</v>
+        <v>1.000099311715511</v>
       </c>
       <c r="P3">
-        <v>0.9993654915001233</v>
+        <v>0.9998485825105136</v>
       </c>
       <c r="Q3">
-        <v>1.000024696151831</v>
+        <v>1.000006413130088</v>
       </c>
       <c r="R3">
-        <v>0.9999556863076605</v>
+        <v>0.9999891471079737</v>
       </c>
       <c r="S3">
-        <v>0.9994564868993111</v>
+        <v>0.9998702265218974</v>
       </c>
       <c r="T3">
-        <v>0.9999556863076604</v>
+        <v>0.9999891471079737</v>
       </c>
       <c r="U3">
-        <v>0.999876384155167</v>
+        <v>0.9999702389671465</v>
       </c>
       <c r="V3">
-        <v>1.000128322508681</v>
+        <v>1.000030246434296</v>
       </c>
       <c r="W3">
-        <v>0.9998896903053855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999735520507858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002190841274003</v>
+        <v>1.005645596823366</v>
       </c>
       <c r="D4">
-        <v>0.9967555977041554</v>
+        <v>0.9771194415393957</v>
       </c>
       <c r="E4">
-        <v>1.000795401444877</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="F4">
-        <v>1.002190841274003</v>
+        <v>0.9771194415393957</v>
       </c>
       <c r="G4">
-        <v>0.9993019117064644</v>
+        <v>0.9953761823617752</v>
       </c>
       <c r="H4">
-        <v>1.001202644895076</v>
+        <v>1.005761552462943</v>
       </c>
       <c r="I4">
-        <v>1.002190841274003</v>
+        <v>0.9851100239397215</v>
       </c>
       <c r="J4">
-        <v>0.9967555977041554</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="K4">
-        <v>0.9993410742682229</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="L4">
-        <v>1.000819820901085</v>
+        <v>0.9950790365933193</v>
       </c>
       <c r="M4">
-        <v>0.9978877549869752</v>
+        <v>1.00848523689049</v>
       </c>
       <c r="N4">
-        <v>1.002190841274003</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="O4">
-        <v>1.000795401444877</v>
+        <v>1.005645596823366</v>
       </c>
       <c r="P4">
-        <v>0.9987754995745162</v>
+        <v>0.9913825191813808</v>
       </c>
       <c r="Q4">
-        <v>1.000048656575671</v>
+        <v>1.000362316708343</v>
       </c>
       <c r="R4">
-        <v>0.9999139468076784</v>
+        <v>0.9993837554179937</v>
       </c>
       <c r="S4">
-        <v>0.9989509702851657</v>
+        <v>0.9926146916520269</v>
       </c>
       <c r="T4">
-        <v>0.9999139468076784</v>
+        <v>0.9993837554179938</v>
       </c>
       <c r="U4">
-        <v>0.999760938032375</v>
+        <v>0.9983075757118252</v>
       </c>
       <c r="V4">
-        <v>1.000246918680701</v>
+        <v>1.001723306147704</v>
       </c>
       <c r="W4">
-        <v>0.9997868808976074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9984954123127788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004201508242877</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="D5">
-        <v>0.9937842037650588</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="E5">
-        <v>1.001521522999703</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="F5">
-        <v>1.004201508242877</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="G5">
-        <v>0.9986624250684922</v>
+        <v>0.9963867914625388</v>
       </c>
       <c r="H5">
-        <v>1.002303844447463</v>
+        <v>1.004538376376082</v>
       </c>
       <c r="I5">
-        <v>1.004201508242877</v>
+        <v>0.9880827528530224</v>
       </c>
       <c r="J5">
-        <v>0.9937842037650588</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="K5">
-        <v>0.9987360872833753</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="L5">
-        <v>1.001571963612829</v>
+        <v>0.9960619182997108</v>
       </c>
       <c r="M5">
-        <v>0.9959528430508834</v>
+        <v>1.006821576095102</v>
       </c>
       <c r="N5">
-        <v>1.004201508242877</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="O5">
-        <v>1.001521522999703</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="P5">
-        <v>0.9976528633823808</v>
+        <v>0.9931626264841493</v>
       </c>
       <c r="Q5">
-        <v>1.000091974034097</v>
+        <v>1.000369706963256</v>
       </c>
       <c r="R5">
-        <v>0.9998357450025462</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="S5">
-        <v>0.9979893839444179</v>
+        <v>0.9941290570893365</v>
       </c>
       <c r="T5">
-        <v>0.9998357450025462</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="U5">
-        <v>0.9995424150190327</v>
+        <v>0.9986157508735585</v>
       </c>
       <c r="V5">
-        <v>1.000474233663802</v>
+        <v>1.001307767144092</v>
       </c>
       <c r="W5">
-        <v>0.9995917998088353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9987865625351224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006162971312656</v>
+        <v>1.015305647827728</v>
       </c>
       <c r="D6">
-        <v>0.9908838080394164</v>
+        <v>0.9404896428933408</v>
       </c>
       <c r="E6">
-        <v>1.002230943039289</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="F6">
-        <v>1.006162971312656</v>
+        <v>0.9404896428933408</v>
       </c>
       <c r="G6">
-        <v>0.99803825526302</v>
+        <v>0.9883718952634521</v>
       </c>
       <c r="H6">
-        <v>1.00337879235513</v>
+        <v>1.014639796250435</v>
       </c>
       <c r="I6">
-        <v>1.006162971312656</v>
+        <v>0.9613801423010749</v>
       </c>
       <c r="J6">
-        <v>0.9908838080394164</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="K6">
-        <v>0.9981459790035975</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="L6">
-        <v>1.002305770046357</v>
+        <v>0.9872383785083332</v>
       </c>
       <c r="M6">
-        <v>0.9940642747673964</v>
+        <v>1.022134634306054</v>
       </c>
       <c r="N6">
-        <v>1.006162971312656</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="O6">
-        <v>1.002230943039289</v>
+        <v>1.015305647827728</v>
       </c>
       <c r="P6">
-        <v>0.9965573755393525</v>
+        <v>0.9778976453605346</v>
       </c>
       <c r="Q6">
-        <v>1.000134599151154</v>
+        <v>1.001272013168031</v>
       </c>
       <c r="R6">
-        <v>0.9997592407971204</v>
+        <v>0.9982359526985559</v>
       </c>
       <c r="S6">
-        <v>0.9970510021139084</v>
+        <v>0.9810112230764675</v>
       </c>
       <c r="T6">
-        <v>0.9997592407971204</v>
+        <v>0.9982359526985559</v>
       </c>
       <c r="U6">
-        <v>0.9993289944135952</v>
+        <v>0.9954865591510003</v>
       </c>
       <c r="V6">
-        <v>1.000695789793407</v>
+        <v>1.00417176079572</v>
       </c>
       <c r="W6">
-        <v>0.9994013492283577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9960590880906272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000092999753291</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="D7">
-        <v>0.9998605433303566</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="E7">
-        <v>1.000034848423689</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="F7">
-        <v>1.000092999753291</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="G7">
-        <v>0.9999700330204776</v>
+        <v>0.9995819435385044</v>
       </c>
       <c r="H7">
-        <v>1.000051763133223</v>
+        <v>1.000516424730651</v>
       </c>
       <c r="I7">
-        <v>1.000092999753291</v>
+        <v>0.9986888514585998</v>
       </c>
       <c r="J7">
-        <v>0.9998605433303566</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="K7">
-        <v>0.9999720996608795</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="L7">
-        <v>1.000034872652357</v>
+        <v>0.999566626162225</v>
       </c>
       <c r="M7">
-        <v>0.999909323309201</v>
+        <v>1.000743387592281</v>
       </c>
       <c r="N7">
-        <v>1.000092999753291</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="O7">
-        <v>1.000034848423689</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="P7">
-        <v>0.9999476958770228</v>
+        <v>0.9992337449310633</v>
       </c>
       <c r="Q7">
-        <v>1.000002440722083</v>
+        <v>1.000021967992373</v>
       </c>
       <c r="R7">
-        <v>0.9999961305024453</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="S7">
-        <v>0.9999551415915078</v>
+        <v>0.9993447053414505</v>
       </c>
       <c r="T7">
-        <v>0.9999961305024453</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="U7">
-        <v>0.9999896061319534</v>
+        <v>0.9998546749571486</v>
       </c>
       <c r="V7">
-        <v>1.000010284856221</v>
+        <v>1.000160656726568</v>
       </c>
       <c r="W7">
-        <v>0.9999908104104342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9998686633935789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000270276302894</v>
+        <v>1.000054163115905</v>
       </c>
       <c r="D8">
-        <v>0.9995978533055159</v>
+        <v>0.9998418690242801</v>
       </c>
       <c r="E8">
-        <v>1.000099311715511</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="F8">
-        <v>1.000270276302894</v>
+        <v>0.9998418690242801</v>
       </c>
       <c r="G8">
-        <v>0.9999135145446648</v>
+        <v>0.9999777382715624</v>
       </c>
       <c r="H8">
-        <v>1.000149144300087</v>
+        <v>1.000031404979172</v>
       </c>
       <c r="I8">
-        <v>1.000270276302894</v>
+        <v>0.9998997173535464</v>
       </c>
       <c r="J8">
-        <v>0.9995978533055159</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="K8">
-        <v>0.9999187878662281</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="L8">
-        <v>1.00010121709811</v>
+        <v>0.9999669004613175</v>
       </c>
       <c r="M8">
-        <v>0.9997383112732757</v>
+        <v>1.000060232909738</v>
       </c>
       <c r="N8">
-        <v>1.000270276302894</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="O8">
-        <v>1.000099311715511</v>
+        <v>1.000054163115905</v>
       </c>
       <c r="P8">
-        <v>0.9998485825105136</v>
+        <v>0.9999480160700926</v>
       </c>
       <c r="Q8">
-        <v>1.000006413130088</v>
+        <v>1.000010531788611</v>
       </c>
       <c r="R8">
-        <v>0.9999891471079737</v>
+        <v>0.9999918146157946</v>
       </c>
       <c r="S8">
-        <v>0.9998702265218973</v>
+        <v>0.9999543108671677</v>
       </c>
       <c r="T8">
-        <v>0.9999891471079737</v>
+        <v>0.9999918146157946</v>
       </c>
       <c r="U8">
-        <v>0.9999702389671465</v>
+        <v>0.9999855860771754</v>
       </c>
       <c r="V8">
-        <v>1.000030246434296</v>
+        <v>1.00000435120318</v>
       </c>
       <c r="W8">
-        <v>0.9999735520507858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.99998892972784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000404902225995</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="D9">
-        <v>0.9994029179379313</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="E9">
-        <v>1.000145419407772</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="F9">
-        <v>1.000404902225995</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="G9">
-        <v>0.9998714700286543</v>
+        <v>0.9993410742682229</v>
       </c>
       <c r="H9">
-        <v>1.000221226957767</v>
+        <v>1.000819820901085</v>
       </c>
       <c r="I9">
-        <v>1.000404902225995</v>
+        <v>0.9978877549869752</v>
       </c>
       <c r="J9">
-        <v>0.9994029179379313</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="K9">
-        <v>0.9998781196818912</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="L9">
-        <v>1.000151409328329</v>
+        <v>0.9993019117064644</v>
       </c>
       <c r="M9">
-        <v>0.9996111091267662</v>
+        <v>1.001202644895076</v>
       </c>
       <c r="N9">
-        <v>1.000404902225995</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="O9">
-        <v>1.000145419407772</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="P9">
-        <v>0.9997741686728517</v>
+        <v>0.9987754995745162</v>
       </c>
       <c r="Q9">
-        <v>1.000008444718213</v>
+        <v>1.000048656575671</v>
       </c>
       <c r="R9">
-        <v>0.9999844131905661</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="S9">
-        <v>0.9998066024581193</v>
+        <v>0.9989509702851657</v>
       </c>
       <c r="T9">
-        <v>0.9999844131905661</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="U9">
-        <v>0.9999561774000881</v>
+        <v>0.999760938032375</v>
       </c>
       <c r="V9">
-        <v>1.000045922365269</v>
+        <v>1.000246918680701</v>
       </c>
       <c r="W9">
-        <v>0.9999608218368883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9997868808976074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000847668227014</v>
+        <v>1.015541313429673</v>
       </c>
       <c r="D10">
-        <v>0.9987459043385245</v>
+        <v>0.9396004707247229</v>
       </c>
       <c r="E10">
-        <v>1.000306997348448</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="F10">
-        <v>1.000847668227014</v>
+        <v>0.9396004707247229</v>
       </c>
       <c r="G10">
-        <v>0.9997301321467652</v>
+        <v>0.988202619761432</v>
       </c>
       <c r="H10">
-        <v>1.00046482287453</v>
+        <v>1.014854660249149</v>
       </c>
       <c r="I10">
-        <v>1.000847668227014</v>
+        <v>0.9608043125235788</v>
       </c>
       <c r="J10">
-        <v>0.9987459043385245</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="K10">
-        <v>0.9997450052026802</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="L10">
-        <v>1.000317151367656</v>
+        <v>0.9870481206714685</v>
       </c>
       <c r="M10">
-        <v>0.9991834506922409</v>
+        <v>1.022466090861468</v>
       </c>
       <c r="N10">
-        <v>1.000847668227014</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="O10">
-        <v>1.000306997348448</v>
+        <v>1.015541313429673</v>
       </c>
       <c r="P10">
-        <v>0.9995264508434861</v>
+        <v>0.9775708920771982</v>
       </c>
       <c r="Q10">
-        <v>1.000018564747607</v>
+        <v>1.001294717050571</v>
       </c>
       <c r="R10">
-        <v>0.9999668566379953</v>
+        <v>0.9982077862561346</v>
       </c>
       <c r="S10">
-        <v>0.9995943446112459</v>
+        <v>0.9807299682752882</v>
       </c>
       <c r="T10">
-        <v>0.9999668566379953</v>
+        <v>0.9982077862561344</v>
       </c>
       <c r="U10">
-        <v>0.9999076755151878</v>
+        <v>0.9954178698599679</v>
       </c>
       <c r="V10">
-        <v>1.000095674057553</v>
+        <v>1.004230610810776</v>
       </c>
       <c r="W10">
-        <v>0.9999176415247324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9959998953544374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00148604781561</v>
+        <v>1.002871294984958</v>
       </c>
       <c r="D11">
-        <v>0.9978258551353485</v>
+        <v>0.9883631960232068</v>
       </c>
       <c r="E11">
-        <v>1.000522939519601</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="F11">
-        <v>1.00148604781561</v>
+        <v>0.9883631960232068</v>
       </c>
       <c r="G11">
-        <v>0.9995315910165224</v>
+        <v>0.9976483806088013</v>
       </c>
       <c r="H11">
-        <v>1.00080486021336</v>
+        <v>1.002930258695028</v>
       </c>
       <c r="I11">
-        <v>1.00148604781561</v>
+        <v>0.9924271216092759</v>
       </c>
       <c r="J11">
-        <v>0.9978258551353485</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="K11">
-        <v>0.9995519902204454</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="L11">
-        <v>1.000554977091525</v>
+        <v>0.9974972516660664</v>
       </c>
       <c r="M11">
-        <v>0.9985827947950244</v>
+        <v>1.004315500663841</v>
       </c>
       <c r="N11">
-        <v>1.00148604781561</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="O11">
-        <v>1.000522939519601</v>
+        <v>1.002871294984958</v>
       </c>
       <c r="P11">
-        <v>0.9991743973274746</v>
+        <v>0.9956172455040824</v>
       </c>
       <c r="Q11">
-        <v>1.000027265268062</v>
+        <v>1.000184273325512</v>
       </c>
       <c r="R11">
-        <v>0.9999449474901865</v>
+        <v>0.9996865830491504</v>
       </c>
       <c r="S11">
-        <v>0.9992934618904905</v>
+        <v>0.9962439142247437</v>
       </c>
       <c r="T11">
-        <v>0.9999449474901865</v>
+        <v>0.9996865830491504</v>
       </c>
       <c r="U11">
-        <v>0.9998416083717705</v>
+        <v>0.9991392502033793</v>
       </c>
       <c r="V11">
-        <v>1.000170496260538</v>
+        <v>1.000876451790561</v>
       </c>
       <c r="W11">
-        <v>0.9998576319759296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.999234782798808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9855411775522113</v>
+        <v>1.004725797378949</v>
       </c>
       <c r="D12">
-        <v>1.025179709688581</v>
+        <v>0.981638939873682</v>
       </c>
       <c r="E12">
-        <v>0.9923957669731575</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="F12">
-        <v>0.9855411775522113</v>
+        <v>0.981638939873682</v>
       </c>
       <c r="G12">
-        <v>1.005331818181824</v>
+        <v>0.9964145313263152</v>
       </c>
       <c r="H12">
-        <v>0.9905160771073416</v>
+        <v>1.004514971399999</v>
       </c>
       <c r="I12">
-        <v>0.9855411775522113</v>
+        <v>0.9880850000105246</v>
       </c>
       <c r="J12">
-        <v>1.025179709688581</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="K12">
-        <v>1.004197990025722</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="L12">
-        <v>0.994432464683307</v>
+        <v>0.9960627942736846</v>
       </c>
       <c r="M12">
-        <v>1.016145287831274</v>
+        <v>1.006829687473685</v>
       </c>
       <c r="N12">
-        <v>0.9855411775522113</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="O12">
-        <v>0.9923957669731575</v>
+        <v>1.004725797378949</v>
       </c>
       <c r="P12">
-        <v>1.008787738330869</v>
+        <v>0.9931823686263155</v>
       </c>
       <c r="Q12">
-        <v>0.9988637925774908</v>
+        <v>1.000394295826317</v>
       </c>
       <c r="R12">
-        <v>1.001038884737983</v>
+        <v>0.9994548317333333</v>
       </c>
       <c r="S12">
-        <v>1.007635764947854</v>
+        <v>0.9941425105087719</v>
       </c>
       <c r="T12">
-        <v>1.001038884737983</v>
+        <v>0.9994548317333333</v>
       </c>
       <c r="U12">
-        <v>1.002112118098944</v>
+        <v>0.998606822368421</v>
       </c>
       <c r="V12">
-        <v>0.9987979299895973</v>
+        <v>1.001285409484211</v>
       </c>
       <c r="W12">
-        <v>1.001717536505427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9987839349605261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9951039193639368</v>
+        <v>0.9970076802396591</v>
       </c>
       <c r="D13">
-        <v>1.005880519605584</v>
+        <v>1.0118394938682</v>
       </c>
       <c r="E13">
-        <v>0.9990787227496117</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="F13">
-        <v>0.9951039193639368</v>
+        <v>1.0118394938682</v>
       </c>
       <c r="G13">
-        <v>1.001296572258907</v>
+        <v>1.002347135412526</v>
       </c>
       <c r="H13">
-        <v>0.9978748240822469</v>
+        <v>0.9970581520032405</v>
       </c>
       <c r="I13">
-        <v>0.9951039193639368</v>
+        <v>1.007692489500905</v>
       </c>
       <c r="J13">
-        <v>1.005880519605584</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="K13">
-        <v>1.001527371619576</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="L13">
-        <v>0.9982249519428326</v>
+        <v>1.002542072633658</v>
       </c>
       <c r="M13">
-        <v>1.003918575695934</v>
+        <v>0.9956018805788792</v>
       </c>
       <c r="N13">
-        <v>0.9951039193639368</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="O13">
-        <v>0.9990787227496117</v>
+        <v>0.9970076802396591</v>
       </c>
       <c r="P13">
-        <v>1.002479621177598</v>
+        <v>1.004423587053929</v>
       </c>
       <c r="Q13">
-        <v>1.000187647504259</v>
+        <v>0.9997748764366587</v>
       </c>
       <c r="R13">
-        <v>1.000021053906378</v>
+        <v>1.000337286213767</v>
       </c>
       <c r="S13">
-        <v>1.002085271538034</v>
+        <v>1.003796415580506</v>
       </c>
       <c r="T13">
-        <v>1.000021053906378</v>
+        <v>1.000337286213767</v>
       </c>
       <c r="U13">
-        <v>1.00033993349451</v>
+        <v>1.00088848281874</v>
       </c>
       <c r="V13">
-        <v>0.9992927306683953</v>
+        <v>0.9991437231616803</v>
       </c>
       <c r="W13">
-        <v>1.000363182164829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000781698596314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9948921832548223</v>
+        <v>1.026871200000001</v>
       </c>
       <c r="D14">
-        <v>0.997261740433837</v>
+        <v>0.8956344300000008</v>
       </c>
       <c r="E14">
-        <v>1.004584562242399</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="F14">
-        <v>0.9948921832548223</v>
+        <v>0.8956344300000008</v>
       </c>
       <c r="G14">
-        <v>0.9996460297370516</v>
+        <v>0.9796259800000006</v>
       </c>
       <c r="H14">
-        <v>1.001425802721175</v>
+        <v>1.0256582</v>
       </c>
       <c r="I14">
-        <v>0.9948921832548223</v>
+        <v>0.9322759300000014</v>
       </c>
       <c r="J14">
-        <v>0.997261740433837</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="K14">
-        <v>1.001948354221839</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="L14">
-        <v>0.9985178997039236</v>
+        <v>0.9776212100000004</v>
       </c>
       <c r="M14">
-        <v>0.9988948293817664</v>
+        <v>1.038821400000002</v>
       </c>
       <c r="N14">
-        <v>0.9948921832548223</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="O14">
-        <v>1.004584562242399</v>
+        <v>1.026871200000001</v>
       </c>
       <c r="P14">
-        <v>1.000923151338118</v>
+        <v>0.9612528150000009</v>
       </c>
       <c r="Q14">
-        <v>1.002115295989725</v>
+        <v>1.002246205000001</v>
       </c>
       <c r="R14">
-        <v>0.9989128286436862</v>
+        <v>0.9968987766666677</v>
       </c>
       <c r="S14">
-        <v>1.000497444137763</v>
+        <v>0.9667089466666674</v>
       </c>
       <c r="T14">
-        <v>0.9989128286436862</v>
+        <v>0.9968987766666677</v>
       </c>
       <c r="U14">
-        <v>0.9990961289170276</v>
+        <v>0.9920793850000009</v>
       </c>
       <c r="V14">
-        <v>0.9982553397845866</v>
+        <v>1.007301648000001</v>
       </c>
       <c r="W14">
-        <v>0.9996464252121018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.993087381250001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002093053552758</v>
+        <v>1.0360038</v>
       </c>
       <c r="D15">
-        <v>1.00114206461984</v>
+        <v>0.8363107</v>
       </c>
       <c r="E15">
-        <v>0.9981088695450405</v>
+        <v>1.1178703</v>
       </c>
       <c r="F15">
-        <v>1.002093053552758</v>
+        <v>0.8363107</v>
       </c>
       <c r="G15">
-        <v>1.000148894817233</v>
+        <v>0.9641142700000001</v>
       </c>
       <c r="H15">
-        <v>0.9994075297328978</v>
+        <v>1.0436549</v>
       </c>
       <c r="I15">
-        <v>1.002093053552758</v>
+        <v>0.8927166600000001</v>
       </c>
       <c r="J15">
-        <v>1.00114206461984</v>
+        <v>1.1178703</v>
       </c>
       <c r="K15">
-        <v>0.9992008158679484</v>
+        <v>1.1178703</v>
       </c>
       <c r="L15">
-        <v>1.000606490716347</v>
+        <v>0.96453146</v>
       </c>
       <c r="M15">
-        <v>1.000464577424958</v>
+        <v>1.0602437</v>
       </c>
       <c r="N15">
-        <v>1.002093053552758</v>
+        <v>1.1178703</v>
       </c>
       <c r="O15">
-        <v>0.9981088695450405</v>
+        <v>1.0360038</v>
       </c>
       <c r="P15">
-        <v>0.99962546708244</v>
+        <v>0.9361572499999999</v>
       </c>
       <c r="Q15">
-        <v>0.999128882181137</v>
+        <v>1.00026763</v>
       </c>
       <c r="R15">
-        <v>1.000447995905879</v>
+        <v>0.9967282666666666</v>
       </c>
       <c r="S15">
-        <v>0.9997999429940378</v>
+        <v>0.9456153199999999</v>
       </c>
       <c r="T15">
-        <v>1.000447995905879</v>
+        <v>0.9967282666666667</v>
       </c>
       <c r="U15">
-        <v>1.000373220633718</v>
+        <v>0.988679065</v>
       </c>
       <c r="V15">
-        <v>1.000717187217526</v>
+        <v>1.014517312</v>
       </c>
       <c r="W15">
-        <v>1.000146537034628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.98943072375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000015873223828</v>
+        <v>1.0387361</v>
       </c>
       <c r="D16">
-        <v>0.9999993511170419</v>
+        <v>0.83977313</v>
       </c>
       <c r="E16">
-        <v>0.9999914772085008</v>
+        <v>1.1091657</v>
       </c>
       <c r="F16">
-        <v>1.000015873223828</v>
+        <v>0.83977313</v>
       </c>
       <c r="G16">
-        <v>0.9999993384373663</v>
+        <v>0.9671094099999999</v>
       </c>
       <c r="H16">
-        <v>0.9999993291119718</v>
+        <v>1.0407904</v>
       </c>
       <c r="I16">
-        <v>1.000015873223828</v>
+        <v>0.8955909</v>
       </c>
       <c r="J16">
-        <v>0.9999993511170419</v>
+        <v>1.1091657</v>
       </c>
       <c r="K16">
-        <v>0.9999943129210603</v>
+        <v>1.1091657</v>
       </c>
       <c r="L16">
-        <v>1.000004986909544</v>
+        <v>0.96549171</v>
       </c>
       <c r="M16">
-        <v>0.9999980759246239</v>
+        <v>1.0593362</v>
       </c>
       <c r="N16">
-        <v>1.000015873223828</v>
+        <v>1.1091657</v>
       </c>
       <c r="O16">
-        <v>0.9999914772085008</v>
+        <v>1.0387361</v>
       </c>
       <c r="P16">
-        <v>0.9999954141627714</v>
+        <v>0.939254615</v>
       </c>
       <c r="Q16">
-        <v>0.9999954078229336</v>
+        <v>1.002113905</v>
       </c>
       <c r="R16">
-        <v>1.00000223384979</v>
+        <v>0.9958916433333332</v>
       </c>
       <c r="S16">
-        <v>0.999996722254303</v>
+        <v>0.9480003133333333</v>
       </c>
       <c r="T16">
-        <v>1.00000223384979</v>
+        <v>0.9958916433333332</v>
       </c>
       <c r="U16">
-        <v>1.000001509996684</v>
+        <v>0.98829166</v>
       </c>
       <c r="V16">
-        <v>1.000004382642113</v>
+        <v>1.012466468</v>
       </c>
       <c r="W16">
-        <v>1.000000343106742</v>
+        <v>0.98949919375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000079411707198</v>
+        <v>1.0075668</v>
       </c>
       <c r="D17">
-        <v>0.9998418690242801</v>
+        <v>0.95964585</v>
       </c>
       <c r="E17">
-        <v>1.000054163115905</v>
+        <v>1.0313859</v>
       </c>
       <c r="F17">
-        <v>1.000079411707198</v>
+        <v>0.95964585</v>
       </c>
       <c r="G17">
-        <v>0.9999669004613175</v>
+        <v>0.99031525</v>
       </c>
       <c r="H17">
-        <v>1.000060232909738</v>
+        <v>1.0114895</v>
       </c>
       <c r="I17">
-        <v>1.000079411707198</v>
+        <v>0.97332487</v>
       </c>
       <c r="J17">
-        <v>0.9998418690242801</v>
+        <v>1.0313859</v>
       </c>
       <c r="K17">
-        <v>0.9999777382715624</v>
+        <v>1.0313859</v>
       </c>
       <c r="L17">
-        <v>1.000031404979172</v>
+        <v>0.99117729</v>
       </c>
       <c r="M17">
-        <v>0.9998997173535464</v>
+        <v>1.0147144</v>
       </c>
       <c r="N17">
-        <v>1.000079411707198</v>
+        <v>1.0313859</v>
       </c>
       <c r="O17">
-        <v>1.000054163115905</v>
+        <v>1.0075668</v>
       </c>
       <c r="P17">
-        <v>0.9999480160700926</v>
+        <v>0.983606325</v>
       </c>
       <c r="Q17">
-        <v>1.000010531788611</v>
+        <v>0.999372045</v>
       </c>
       <c r="R17">
-        <v>0.9999918146157944</v>
+        <v>0.99953285</v>
       </c>
       <c r="S17">
-        <v>0.9999543108671677</v>
+        <v>0.98612998</v>
       </c>
       <c r="T17">
-        <v>0.9999918146157944</v>
+        <v>0.99953285</v>
       </c>
       <c r="U17">
-        <v>0.9999855860771752</v>
+        <v>0.99744396</v>
       </c>
       <c r="V17">
-        <v>1.00000435120318</v>
+        <v>1.004232348</v>
       </c>
       <c r="W17">
-        <v>0.9999889297278399</v>
+        <v>0.9974524825</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000385276061597</v>
+        <v>1.009806945753424</v>
       </c>
       <c r="D18">
-        <v>0.9995027252729467</v>
+        <v>0.9595412827397257</v>
       </c>
       <c r="E18">
-        <v>1.000094079534743</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="F18">
-        <v>1.000385276061597</v>
+        <v>0.9595412827397257</v>
       </c>
       <c r="G18">
-        <v>0.9998913289458071</v>
+        <v>0.9917113034246576</v>
       </c>
       <c r="H18">
-        <v>1.000181410697549</v>
+        <v>1.010285645753424</v>
       </c>
       <c r="I18">
-        <v>1.000385276061597</v>
+        <v>0.9736402353424656</v>
       </c>
       <c r="J18">
-        <v>0.9995027252729467</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="K18">
-        <v>0.9998811903759033</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="L18">
-        <v>1.000141118074165</v>
+        <v>0.9912878931506849</v>
       </c>
       <c r="M18">
-        <v>0.9996714352028212</v>
+        <v>1.014985608493151</v>
       </c>
       <c r="N18">
-        <v>1.000385276061597</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="O18">
-        <v>1.000094079534743</v>
+        <v>1.009806945753424</v>
       </c>
       <c r="P18">
-        <v>0.999798402403845</v>
+        <v>0.9846741142465751</v>
       </c>
       <c r="Q18">
-        <v>0.9999927042402752</v>
+        <v>1.000547419452055</v>
       </c>
       <c r="R18">
-        <v>0.999994026956429</v>
+        <v>0.9989559281278537</v>
       </c>
       <c r="S18">
-        <v>0.9998293779178323</v>
+        <v>0.9868787072146117</v>
       </c>
       <c r="T18">
-        <v>0.999994026956429</v>
+        <v>0.9989559281278536</v>
       </c>
       <c r="U18">
-        <v>0.9999683524537735</v>
+        <v>0.9970389193835614</v>
       </c>
       <c r="V18">
-        <v>1.000051737175338</v>
+        <v>1.003135046684931</v>
       </c>
       <c r="W18">
-        <v>0.9999685705206915</v>
+        <v>0.997347308818493</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000967249997749</v>
+        <v>1.018303310526316</v>
       </c>
       <c r="D19">
-        <v>0.9988714033483694</v>
+        <v>0.9325544242105264</v>
       </c>
       <c r="E19">
-        <v>1.000161292217881</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="F19">
-        <v>1.000967249997749</v>
+        <v>0.9325544242105264</v>
       </c>
       <c r="G19">
-        <v>0.9997502246211983</v>
+        <v>0.9874337084210528</v>
       </c>
       <c r="H19">
-        <v>1.000406241716652</v>
+        <v>1.016060335263158</v>
       </c>
       <c r="I19">
-        <v>1.000967249997749</v>
+        <v>0.9563961568421053</v>
       </c>
       <c r="J19">
-        <v>0.9988714033483694</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="K19">
-        <v>0.9996969378724672</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="L19">
-        <v>1.000349292008231</v>
+        <v>0.9855942305263158</v>
       </c>
       <c r="M19">
-        <v>0.999245256529791</v>
+        <v>1.025186567368421</v>
       </c>
       <c r="N19">
-        <v>1.000967249997749</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="O19">
-        <v>1.000161292217881</v>
+        <v>1.018303310526316</v>
       </c>
       <c r="P19">
-        <v>0.9995163477831253</v>
+        <v>0.975428867368421</v>
       </c>
       <c r="Q19">
-        <v>0.9999557584195398</v>
+        <v>1.001948770526316</v>
       </c>
       <c r="R19">
-        <v>0.9999999818546667</v>
+        <v>0.9977526831578948</v>
       </c>
       <c r="S19">
-        <v>0.9995943067291496</v>
+        <v>0.978817321754386</v>
       </c>
       <c r="T19">
-        <v>0.9999999818546667</v>
+        <v>0.9977526831578948</v>
       </c>
       <c r="U19">
-        <v>0.9999375425462995</v>
+        <v>0.99471307</v>
       </c>
       <c r="V19">
-        <v>1.000143484036589</v>
+        <v>1.004250518947368</v>
       </c>
       <c r="W19">
-        <v>0.9999309872890425</v>
+        <v>0.9954911309868422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.016432656315789</v>
+      </c>
+      <c r="D20">
+        <v>0.9353976505263157</v>
+      </c>
+      <c r="E20">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="F20">
+        <v>0.9353976505263157</v>
+      </c>
+      <c r="G20">
+        <v>0.9872600542105262</v>
+      </c>
+      <c r="H20">
+        <v>1.015993888947368</v>
+      </c>
+      <c r="I20">
+        <v>0.9580440215789476</v>
+      </c>
+      <c r="J20">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="K20">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="L20">
+        <v>0.9861354573684212</v>
+      </c>
+      <c r="M20">
+        <v>1.024009436842106</v>
+      </c>
+      <c r="N20">
+        <v>1.042566779473684</v>
+      </c>
+      <c r="O20">
+        <v>1.016432656315789</v>
+      </c>
+      <c r="P20">
+        <v>0.9759151534210526</v>
+      </c>
+      <c r="Q20">
+        <v>1.001284056842105</v>
+      </c>
+      <c r="R20">
+        <v>0.9981323621052631</v>
+      </c>
+      <c r="S20">
+        <v>0.9793219214035088</v>
+      </c>
+      <c r="T20">
+        <v>0.9981323621052631</v>
+      </c>
+      <c r="U20">
+        <v>0.9951331359210527</v>
+      </c>
+      <c r="V20">
+        <v>1.004619864631579</v>
+      </c>
+      <c r="W20">
+        <v>0.9957299931578948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.004584562242399</v>
+      </c>
+      <c r="D21">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="E21">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="F21">
+        <v>0.9972617404338369</v>
+      </c>
+      <c r="G21">
+        <v>1.001948354221839</v>
+      </c>
+      <c r="H21">
+        <v>0.9985178997039236</v>
+      </c>
+      <c r="I21">
+        <v>0.9988948293817664</v>
+      </c>
+      <c r="J21">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="K21">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="L21">
+        <v>0.9996460297370516</v>
+      </c>
+      <c r="M21">
+        <v>1.001425802721175</v>
+      </c>
+      <c r="N21">
+        <v>0.9948921832548223</v>
+      </c>
+      <c r="O21">
+        <v>1.004584562242399</v>
+      </c>
+      <c r="P21">
+        <v>1.000923151338118</v>
+      </c>
+      <c r="Q21">
+        <v>1.002115295989725</v>
+      </c>
+      <c r="R21">
+        <v>0.9989128286436862</v>
+      </c>
+      <c r="S21">
+        <v>1.000497444137763</v>
+      </c>
+      <c r="T21">
+        <v>0.9989128286436862</v>
+      </c>
+      <c r="U21">
+        <v>0.9990961289170276</v>
+      </c>
+      <c r="V21">
+        <v>0.9982553397845866</v>
+      </c>
+      <c r="W21">
+        <v>0.9996464252121017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9981088695450405</v>
+      </c>
+      <c r="D22">
+        <v>1.00114206461984</v>
+      </c>
+      <c r="E22">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="F22">
+        <v>1.00114206461984</v>
+      </c>
+      <c r="G22">
+        <v>0.9992008158679484</v>
+      </c>
+      <c r="H22">
+        <v>1.000606490716347</v>
+      </c>
+      <c r="I22">
+        <v>1.000464577424958</v>
+      </c>
+      <c r="J22">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="K22">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="L22">
+        <v>1.000148894817233</v>
+      </c>
+      <c r="M22">
+        <v>0.9994075297328978</v>
+      </c>
+      <c r="N22">
+        <v>1.002093053552758</v>
+      </c>
+      <c r="O22">
+        <v>0.9981088695450405</v>
+      </c>
+      <c r="P22">
+        <v>0.99962546708244</v>
+      </c>
+      <c r="Q22">
+        <v>0.999128882181137</v>
+      </c>
+      <c r="R22">
+        <v>1.000447995905879</v>
+      </c>
+      <c r="S22">
+        <v>0.9997999429940378</v>
+      </c>
+      <c r="T22">
+        <v>1.000447995905879</v>
+      </c>
+      <c r="U22">
+        <v>1.000373220633718</v>
+      </c>
+      <c r="V22">
+        <v>1.000717187217526</v>
+      </c>
+      <c r="W22">
+        <v>1.000146537034628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9923957669731575</v>
+      </c>
+      <c r="D23">
+        <v>1.025179709688581</v>
+      </c>
+      <c r="E23">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="F23">
+        <v>1.025179709688581</v>
+      </c>
+      <c r="G23">
+        <v>1.004197990025722</v>
+      </c>
+      <c r="H23">
+        <v>0.994432464683307</v>
+      </c>
+      <c r="I23">
+        <v>1.016145287831274</v>
+      </c>
+      <c r="J23">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="K23">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="L23">
+        <v>1.005331818181824</v>
+      </c>
+      <c r="M23">
+        <v>0.9905160771073416</v>
+      </c>
+      <c r="N23">
+        <v>0.9855411775522112</v>
+      </c>
+      <c r="O23">
+        <v>0.9923957669731575</v>
+      </c>
+      <c r="P23">
+        <v>1.008787738330869</v>
+      </c>
+      <c r="Q23">
+        <v>0.9988637925774908</v>
+      </c>
+      <c r="R23">
+        <v>1.001038884737983</v>
+      </c>
+      <c r="S23">
+        <v>1.007635764947854</v>
+      </c>
+      <c r="T23">
+        <v>1.001038884737983</v>
+      </c>
+      <c r="U23">
+        <v>1.002112118098943</v>
+      </c>
+      <c r="V23">
+        <v>0.9987979299895968</v>
+      </c>
+      <c r="W23">
+        <v>1.001717536505427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9990787227496117</v>
+      </c>
+      <c r="D24">
+        <v>1.005880519605584</v>
+      </c>
+      <c r="E24">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="F24">
+        <v>1.005880519605584</v>
+      </c>
+      <c r="G24">
+        <v>1.001527371619576</v>
+      </c>
+      <c r="H24">
+        <v>0.9982249519428326</v>
+      </c>
+      <c r="I24">
+        <v>1.003918575695935</v>
+      </c>
+      <c r="J24">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="K24">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="L24">
+        <v>1.001296572258907</v>
+      </c>
+      <c r="M24">
+        <v>0.9978748240822469</v>
+      </c>
+      <c r="N24">
+        <v>0.9951039193639368</v>
+      </c>
+      <c r="O24">
+        <v>0.9990787227496117</v>
+      </c>
+      <c r="P24">
+        <v>1.002479621177598</v>
+      </c>
+      <c r="Q24">
+        <v>1.000187647504259</v>
+      </c>
+      <c r="R24">
+        <v>1.000021053906378</v>
+      </c>
+      <c r="S24">
+        <v>1.002085271538034</v>
+      </c>
+      <c r="T24">
+        <v>1.000021053906378</v>
+      </c>
+      <c r="U24">
+        <v>1.00033993349451</v>
+      </c>
+      <c r="V24">
+        <v>0.9992927306683953</v>
+      </c>
+      <c r="W24">
+        <v>1.000363182164829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9961710038106326</v>
+      </c>
+      <c r="D25">
+        <v>1.007312281306035</v>
+      </c>
+      <c r="E25">
+        <v>0.9986823374729268</v>
+      </c>
+      <c r="F25">
+        <v>1.007312281306035</v>
+      </c>
+      <c r="G25">
+        <v>1.000181870885224</v>
+      </c>
+      <c r="H25">
+        <v>0.999283556772967</v>
+      </c>
+      <c r="I25">
+        <v>1.004408040210496</v>
+      </c>
+      <c r="J25">
+        <v>0.9986823374729268</v>
+      </c>
+      <c r="K25">
+        <v>0.9986823374729268</v>
+      </c>
+      <c r="L25">
+        <v>1.001450975327149</v>
+      </c>
+      <c r="M25">
+        <v>0.9970757097668707</v>
+      </c>
+      <c r="N25">
+        <v>0.9986823374729268</v>
+      </c>
+      <c r="O25">
+        <v>0.9961710038106326</v>
+      </c>
+      <c r="P25">
+        <v>1.001741642558334</v>
+      </c>
+      <c r="Q25">
+        <v>0.9988109895688906</v>
+      </c>
+      <c r="R25">
+        <v>1.000721874196532</v>
+      </c>
+      <c r="S25">
+        <v>1.001644753481272</v>
+      </c>
+      <c r="T25">
+        <v>1.000721874196531</v>
+      </c>
+      <c r="U25">
+        <v>1.000904149479186</v>
+      </c>
+      <c r="V25">
+        <v>1.000459787077934</v>
+      </c>
+      <c r="W25">
+        <v>1.000570721944038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000584791942278</v>
+      </c>
+      <c r="D26">
+        <v>1.000921471761566</v>
+      </c>
+      <c r="E26">
+        <v>0.997936504661503</v>
+      </c>
+      <c r="F26">
+        <v>1.000921471761566</v>
+      </c>
+      <c r="G26">
+        <v>1.000705995786463</v>
+      </c>
+      <c r="H26">
+        <v>0.9993167670061012</v>
+      </c>
+      <c r="I26">
+        <v>1.000740285621528</v>
+      </c>
+      <c r="J26">
+        <v>0.997936504661503</v>
+      </c>
+      <c r="K26">
+        <v>0.997936504661503</v>
+      </c>
+      <c r="L26">
+        <v>1.000246984680731</v>
+      </c>
+      <c r="M26">
+        <v>0.9997435273320731</v>
+      </c>
+      <c r="N26">
+        <v>0.997936504661503</v>
+      </c>
+      <c r="O26">
+        <v>1.000584791942278</v>
+      </c>
+      <c r="P26">
+        <v>1.000753131851922</v>
+      </c>
+      <c r="Q26">
+        <v>1.000415888311504</v>
+      </c>
+      <c r="R26">
+        <v>0.9998142561217821</v>
+      </c>
+      <c r="S26">
+        <v>1.000584416128191</v>
+      </c>
+      <c r="T26">
+        <v>0.9998142561217821</v>
+      </c>
+      <c r="U26">
+        <v>0.9999224382615193</v>
+      </c>
+      <c r="V26">
+        <v>0.9995252515415161</v>
+      </c>
+      <c r="W26">
+        <v>1.00002454109903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001525594773627</v>
+      </c>
+      <c r="D27">
+        <v>0.9938265253350946</v>
+      </c>
+      <c r="E27">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="F27">
+        <v>0.9938265253350946</v>
+      </c>
+      <c r="G27">
+        <v>0.9987539203486643</v>
+      </c>
+      <c r="H27">
+        <v>1.001553239690504</v>
+      </c>
+      <c r="I27">
+        <v>0.9959828863708103</v>
+      </c>
+      <c r="J27">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="K27">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="L27">
+        <v>0.998672392978501</v>
+      </c>
+      <c r="M27">
+        <v>1.002289676737032</v>
+      </c>
+      <c r="N27">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="O27">
+        <v>1.001525594773627</v>
+      </c>
+      <c r="P27">
+        <v>0.9976760600543607</v>
+      </c>
+      <c r="Q27">
+        <v>1.000098993876064</v>
+      </c>
+      <c r="R27">
+        <v>0.9998331224329501</v>
+      </c>
+      <c r="S27">
+        <v>0.9980081710290741</v>
+      </c>
+      <c r="T27">
+        <v>0.9998331224329501</v>
+      </c>
+      <c r="U27">
+        <v>0.9995429400693377</v>
+      </c>
+      <c r="V27">
+        <v>1.000463801493496</v>
+      </c>
+      <c r="W27">
+        <v>0.9995939354280452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001468322675749</v>
+      </c>
+      <c r="D28">
+        <v>0.9934386647339022</v>
+      </c>
+      <c r="E28">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="F28">
+        <v>0.9934386647339022</v>
+      </c>
+      <c r="G28">
+        <v>0.9985776478558172</v>
+      </c>
+      <c r="H28">
+        <v>1.001735898079818</v>
+      </c>
+      <c r="I28">
+        <v>0.9957040044949209</v>
+      </c>
+      <c r="J28">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="K28">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="L28">
+        <v>0.9985797831118944</v>
+      </c>
+      <c r="M28">
+        <v>1.002417454308465</v>
+      </c>
+      <c r="N28">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="O28">
+        <v>1.001468322675749</v>
+      </c>
+      <c r="P28">
+        <v>0.9974534937048254</v>
+      </c>
+      <c r="Q28">
+        <v>1.000024052893822</v>
+      </c>
+      <c r="R28">
+        <v>0.9998623330991129</v>
+      </c>
+      <c r="S28">
+        <v>0.9978289235071817</v>
+      </c>
+      <c r="T28">
+        <v>0.9998623330991129</v>
+      </c>
+      <c r="U28">
+        <v>0.9995416956023082</v>
+      </c>
+      <c r="V28">
+        <v>1.000569358859384</v>
+      </c>
+      <c r="W28">
+        <v>0.9995752233935318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9957191200764245</v>
+      </c>
+      <c r="D29">
+        <v>1.013033148058242</v>
+      </c>
+      <c r="E29">
+        <v>0.993129164782399</v>
+      </c>
+      <c r="F29">
+        <v>1.013033148058242</v>
+      </c>
+      <c r="G29">
+        <v>1.001952171827427</v>
+      </c>
+      <c r="H29">
+        <v>0.9973098220741796</v>
+      </c>
+      <c r="I29">
+        <v>1.008297175840393</v>
+      </c>
+      <c r="J29">
+        <v>0.993129164782399</v>
+      </c>
+      <c r="K29">
+        <v>0.993129164782399</v>
+      </c>
+      <c r="L29">
+        <v>1.002739046581583</v>
+      </c>
+      <c r="M29">
+        <v>0.9950548782235576</v>
+      </c>
+      <c r="N29">
+        <v>0.993129164782399</v>
+      </c>
+      <c r="O29">
+        <v>0.9957191200764245</v>
+      </c>
+      <c r="P29">
+        <v>1.004376134067333</v>
+      </c>
+      <c r="Q29">
+        <v>0.9992290833290036</v>
+      </c>
+      <c r="R29">
+        <v>1.000627144305689</v>
+      </c>
+      <c r="S29">
+        <v>1.00383043823875</v>
+      </c>
+      <c r="T29">
+        <v>1.000627144305689</v>
+      </c>
+      <c r="U29">
+        <v>1.001155119874662</v>
+      </c>
+      <c r="V29">
+        <v>0.9995499288562094</v>
+      </c>
+      <c r="W29">
+        <v>1.000904315933026</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005645596823366</v>
+        <v>1.003688183182284</v>
       </c>
       <c r="D4">
-        <v>0.9771194415393957</v>
+        <v>0.9856654679821821</v>
       </c>
       <c r="E4">
-        <v>1.01538622789122</v>
+        <v>1.009370487501142</v>
       </c>
       <c r="F4">
-        <v>0.9771194415393957</v>
+        <v>0.9856654679821821</v>
       </c>
       <c r="G4">
-        <v>0.9953761823617752</v>
+        <v>0.9972000071007486</v>
       </c>
       <c r="H4">
-        <v>1.005761552462943</v>
+        <v>1.003525550343229</v>
       </c>
       <c r="I4">
-        <v>0.9851100239397215</v>
+        <v>0.9906977083011798</v>
       </c>
       <c r="J4">
-        <v>1.01538622789122</v>
+        <v>1.009370487501142</v>
       </c>
       <c r="K4">
-        <v>1.01538622789122</v>
+        <v>1.009370487501142</v>
       </c>
       <c r="L4">
-        <v>0.9950790365933193</v>
+        <v>0.9969261365792498</v>
       </c>
       <c r="M4">
-        <v>1.00848523689049</v>
+        <v>1.005331824976927</v>
       </c>
       <c r="N4">
-        <v>1.01538622789122</v>
+        <v>1.009370487501142</v>
       </c>
       <c r="O4">
-        <v>1.005645596823366</v>
+        <v>1.003688183182284</v>
       </c>
       <c r="P4">
-        <v>0.9913825191813808</v>
+        <v>0.9946768255822329</v>
       </c>
       <c r="Q4">
-        <v>1.000362316708343</v>
+        <v>1.000307159880767</v>
       </c>
       <c r="R4">
-        <v>0.9993837554179937</v>
+        <v>0.9995747128885361</v>
       </c>
       <c r="S4">
-        <v>0.9926146916520269</v>
+        <v>0.9954265959145719</v>
       </c>
       <c r="T4">
-        <v>0.9993837554179938</v>
+        <v>0.9995747128885361</v>
       </c>
       <c r="U4">
-        <v>0.9983075757118252</v>
+        <v>0.9989125688112145</v>
       </c>
       <c r="V4">
-        <v>1.001723306147704</v>
+        <v>1.0010041525492</v>
       </c>
       <c r="W4">
-        <v>0.9984954123127788</v>
+        <v>0.9990506707458677</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004677495626802</v>
+        <v>1.015172326249622</v>
       </c>
       <c r="D5">
-        <v>0.9816477573414966</v>
+        <v>0.9408803744662098</v>
       </c>
       <c r="E5">
-        <v>1.012075832226224</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="F5">
-        <v>0.9816477573414966</v>
+        <v>0.9408803744662098</v>
       </c>
       <c r="G5">
-        <v>0.9963867914625388</v>
+        <v>0.9884272230425838</v>
       </c>
       <c r="H5">
-        <v>1.004538376376082</v>
+        <v>1.0145618987606</v>
       </c>
       <c r="I5">
-        <v>0.9880827528530224</v>
+        <v>0.9616280267195535</v>
       </c>
       <c r="J5">
-        <v>1.012075832226224</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="K5">
-        <v>1.012075832226224</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="L5">
-        <v>0.9960619182997108</v>
+        <v>0.9873201960557418</v>
       </c>
       <c r="M5">
-        <v>1.006821576095102</v>
+        <v>1.021985884385018</v>
       </c>
       <c r="N5">
-        <v>1.012075832226224</v>
+        <v>1.0387154509201</v>
       </c>
       <c r="O5">
-        <v>1.004677495626802</v>
+        <v>1.015172326249622</v>
       </c>
       <c r="P5">
-        <v>0.9931626264841493</v>
+        <v>0.978026350357916</v>
       </c>
       <c r="Q5">
-        <v>1.000369706963256</v>
+        <v>1.001246261152682</v>
       </c>
       <c r="R5">
-        <v>0.9994670283981743</v>
+        <v>0.9982560505453106</v>
       </c>
       <c r="S5">
-        <v>0.9941290570893365</v>
+        <v>0.9811242989238579</v>
       </c>
       <c r="T5">
-        <v>0.9994670283981743</v>
+        <v>0.9982560505453106</v>
       </c>
       <c r="U5">
-        <v>0.9986157508735585</v>
+        <v>0.9955220869229184</v>
       </c>
       <c r="V5">
-        <v>1.001307767144092</v>
+        <v>1.004160759722355</v>
       </c>
       <c r="W5">
-        <v>0.9987865625351224</v>
+        <v>0.9960864225749286</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015305647827728</v>
+        <v>1.005645596823366</v>
       </c>
       <c r="D6">
-        <v>0.9404896428933408</v>
+        <v>0.9771194415393957</v>
       </c>
       <c r="E6">
-        <v>1.038912567374599</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="F6">
-        <v>0.9404896428933408</v>
+        <v>0.9771194415393957</v>
       </c>
       <c r="G6">
-        <v>0.9883718952634521</v>
+        <v>0.9953761823617752</v>
       </c>
       <c r="H6">
-        <v>1.014639796250435</v>
+        <v>1.005761552462943</v>
       </c>
       <c r="I6">
-        <v>0.9613801423010749</v>
+        <v>0.9851100239397215</v>
       </c>
       <c r="J6">
-        <v>1.038912567374599</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="K6">
-        <v>1.038912567374599</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="L6">
-        <v>0.9872383785083332</v>
+        <v>0.9950790365933193</v>
       </c>
       <c r="M6">
-        <v>1.022134634306054</v>
+        <v>1.00848523689049</v>
       </c>
       <c r="N6">
-        <v>1.038912567374599</v>
+        <v>1.01538622789122</v>
       </c>
       <c r="O6">
-        <v>1.015305647827728</v>
+        <v>1.005645596823366</v>
       </c>
       <c r="P6">
-        <v>0.9778976453605346</v>
+        <v>0.9913825191813808</v>
       </c>
       <c r="Q6">
-        <v>1.001272013168031</v>
+        <v>1.000362316708343</v>
       </c>
       <c r="R6">
-        <v>0.9982359526985559</v>
+        <v>0.9993837554179937</v>
       </c>
       <c r="S6">
-        <v>0.9810112230764675</v>
+        <v>0.9926146916520269</v>
       </c>
       <c r="T6">
-        <v>0.9982359526985559</v>
+        <v>0.9993837554179938</v>
       </c>
       <c r="U6">
-        <v>0.9954865591510003</v>
+        <v>0.9983075757118252</v>
       </c>
       <c r="V6">
-        <v>1.00417176079572</v>
+        <v>1.001723306147704</v>
       </c>
       <c r="W6">
-        <v>0.9960590880906272</v>
+        <v>0.9984954123127788</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000477309822521</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="D7">
-        <v>0.9979901800396059</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="E7">
-        <v>1.001384583804243</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="F7">
-        <v>0.9979901800396059</v>
+        <v>0.9816477573414966</v>
       </c>
       <c r="G7">
-        <v>0.9995819435385044</v>
+        <v>0.9963867914625388</v>
       </c>
       <c r="H7">
-        <v>1.000516424730651</v>
+        <v>1.004538376376082</v>
       </c>
       <c r="I7">
-        <v>0.9986888514585998</v>
+        <v>0.9880827528530224</v>
       </c>
       <c r="J7">
-        <v>1.001384583804243</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="K7">
-        <v>1.001384583804243</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="L7">
-        <v>0.999566626162225</v>
+        <v>0.9960619182997108</v>
       </c>
       <c r="M7">
-        <v>1.000743387592281</v>
+        <v>1.006821576095102</v>
       </c>
       <c r="N7">
-        <v>1.001384583804243</v>
+        <v>1.012075832226224</v>
       </c>
       <c r="O7">
-        <v>1.000477309822521</v>
+        <v>1.004677495626802</v>
       </c>
       <c r="P7">
-        <v>0.9992337449310633</v>
+        <v>0.9931626264841493</v>
       </c>
       <c r="Q7">
-        <v>1.000021967992373</v>
+        <v>1.000369706963256</v>
       </c>
       <c r="R7">
-        <v>0.9999506912221232</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="S7">
-        <v>0.9993447053414505</v>
+        <v>0.9941290570893365</v>
       </c>
       <c r="T7">
-        <v>0.9999506912221232</v>
+        <v>0.9994670283981743</v>
       </c>
       <c r="U7">
-        <v>0.9998546749571486</v>
+        <v>0.9986157508735585</v>
       </c>
       <c r="V7">
-        <v>1.000160656726568</v>
+        <v>1.001307767144092</v>
       </c>
       <c r="W7">
-        <v>0.9998686633935789</v>
+        <v>0.9987865625351224</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000054163115905</v>
+        <v>1.015305647827728</v>
       </c>
       <c r="D8">
-        <v>0.9998418690242801</v>
+        <v>0.9404896428933408</v>
       </c>
       <c r="E8">
-        <v>1.000079411707198</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="F8">
-        <v>0.9998418690242801</v>
+        <v>0.9404896428933408</v>
       </c>
       <c r="G8">
-        <v>0.9999777382715624</v>
+        <v>0.9883718952634521</v>
       </c>
       <c r="H8">
-        <v>1.000031404979172</v>
+        <v>1.014639796250435</v>
       </c>
       <c r="I8">
-        <v>0.9998997173535464</v>
+        <v>0.9613801423010749</v>
       </c>
       <c r="J8">
-        <v>1.000079411707198</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="K8">
-        <v>1.000079411707198</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="L8">
-        <v>0.9999669004613175</v>
+        <v>0.9872383785083332</v>
       </c>
       <c r="M8">
-        <v>1.000060232909738</v>
+        <v>1.022134634306054</v>
       </c>
       <c r="N8">
-        <v>1.000079411707198</v>
+        <v>1.038912567374599</v>
       </c>
       <c r="O8">
-        <v>1.000054163115905</v>
+        <v>1.015305647827728</v>
       </c>
       <c r="P8">
-        <v>0.9999480160700926</v>
+        <v>0.9778976453605346</v>
       </c>
       <c r="Q8">
-        <v>1.000010531788611</v>
+        <v>1.001272013168031</v>
       </c>
       <c r="R8">
-        <v>0.9999918146157946</v>
+        <v>0.9982359526985559</v>
       </c>
       <c r="S8">
-        <v>0.9999543108671677</v>
+        <v>0.9810112230764675</v>
       </c>
       <c r="T8">
-        <v>0.9999918146157946</v>
+        <v>0.9982359526985559</v>
       </c>
       <c r="U8">
-        <v>0.9999855860771754</v>
+        <v>0.9954865591510003</v>
       </c>
       <c r="V8">
-        <v>1.00000435120318</v>
+        <v>1.00417176079572</v>
       </c>
       <c r="W8">
-        <v>0.99998892972784</v>
+        <v>0.9960590880906272</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000795401444877</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="D9">
-        <v>0.9967555977041556</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="E9">
-        <v>1.002190841274003</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="F9">
-        <v>0.9967555977041556</v>
+        <v>0.9979901800396059</v>
       </c>
       <c r="G9">
-        <v>0.9993410742682229</v>
+        <v>0.9995819435385044</v>
       </c>
       <c r="H9">
-        <v>1.000819820901085</v>
+        <v>1.000516424730651</v>
       </c>
       <c r="I9">
-        <v>0.9978877549869752</v>
+        <v>0.9986888514585998</v>
       </c>
       <c r="J9">
-        <v>1.002190841274003</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="K9">
-        <v>1.002190841274003</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="L9">
-        <v>0.9993019117064644</v>
+        <v>0.999566626162225</v>
       </c>
       <c r="M9">
-        <v>1.001202644895076</v>
+        <v>1.000743387592281</v>
       </c>
       <c r="N9">
-        <v>1.002190841274003</v>
+        <v>1.001384583804243</v>
       </c>
       <c r="O9">
-        <v>1.000795401444877</v>
+        <v>1.000477309822521</v>
       </c>
       <c r="P9">
-        <v>0.9987754995745162</v>
+        <v>0.9992337449310633</v>
       </c>
       <c r="Q9">
-        <v>1.000048656575671</v>
+        <v>1.000021967992373</v>
       </c>
       <c r="R9">
-        <v>0.9999139468076784</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="S9">
-        <v>0.9989509702851657</v>
+        <v>0.9993447053414505</v>
       </c>
       <c r="T9">
-        <v>0.9999139468076784</v>
+        <v>0.9999506912221232</v>
       </c>
       <c r="U9">
-        <v>0.999760938032375</v>
+        <v>0.9998546749571486</v>
       </c>
       <c r="V9">
-        <v>1.000246918680701</v>
+        <v>1.000160656726568</v>
       </c>
       <c r="W9">
-        <v>0.9997868808976074</v>
+        <v>0.9998686633935789</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.015541313429673</v>
+        <v>1.000054163115905</v>
       </c>
       <c r="D10">
-        <v>0.9396004707247229</v>
+        <v>0.9998418690242801</v>
       </c>
       <c r="E10">
-        <v>1.039481574614007</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="F10">
-        <v>0.9396004707247229</v>
+        <v>0.9998418690242801</v>
       </c>
       <c r="G10">
-        <v>0.988202619761432</v>
+        <v>0.9999777382715624</v>
       </c>
       <c r="H10">
-        <v>1.014854660249149</v>
+        <v>1.000031404979172</v>
       </c>
       <c r="I10">
-        <v>0.9608043125235788</v>
+        <v>0.9998997173535464</v>
       </c>
       <c r="J10">
-        <v>1.039481574614007</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="K10">
-        <v>1.039481574614007</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="L10">
-        <v>0.9870481206714685</v>
+        <v>0.9999669004613175</v>
       </c>
       <c r="M10">
-        <v>1.022466090861468</v>
+        <v>1.000060232909738</v>
       </c>
       <c r="N10">
-        <v>1.039481574614007</v>
+        <v>1.000079411707198</v>
       </c>
       <c r="O10">
-        <v>1.015541313429673</v>
+        <v>1.000054163115905</v>
       </c>
       <c r="P10">
-        <v>0.9775708920771982</v>
+        <v>0.9999480160700926</v>
       </c>
       <c r="Q10">
-        <v>1.001294717050571</v>
+        <v>1.000010531788611</v>
       </c>
       <c r="R10">
-        <v>0.9982077862561346</v>
+        <v>0.9999918146157946</v>
       </c>
       <c r="S10">
-        <v>0.9807299682752882</v>
+        <v>0.9999543108671677</v>
       </c>
       <c r="T10">
-        <v>0.9982077862561344</v>
+        <v>0.9999918146157946</v>
       </c>
       <c r="U10">
-        <v>0.9954178698599679</v>
+        <v>0.9999855860771754</v>
       </c>
       <c r="V10">
-        <v>1.004230610810776</v>
+        <v>1.00000435120318</v>
       </c>
       <c r="W10">
-        <v>0.9959998953544374</v>
+        <v>0.99998892972784</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002871294984958</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="D11">
-        <v>0.9883631960232068</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="E11">
-        <v>1.007825258139286</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="F11">
-        <v>0.9883631960232068</v>
+        <v>0.9967555977041556</v>
       </c>
       <c r="G11">
-        <v>0.9976483806088013</v>
+        <v>0.9993410742682229</v>
       </c>
       <c r="H11">
-        <v>1.002930258695028</v>
+        <v>1.000819820901085</v>
       </c>
       <c r="I11">
-        <v>0.9924271216092759</v>
+        <v>0.9978877549869752</v>
       </c>
       <c r="J11">
-        <v>1.007825258139286</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="K11">
-        <v>1.007825258139286</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="L11">
-        <v>0.9974972516660664</v>
+        <v>0.9993019117064644</v>
       </c>
       <c r="M11">
-        <v>1.004315500663841</v>
+        <v>1.001202644895076</v>
       </c>
       <c r="N11">
-        <v>1.007825258139286</v>
+        <v>1.002190841274003</v>
       </c>
       <c r="O11">
-        <v>1.002871294984958</v>
+        <v>1.000795401444877</v>
       </c>
       <c r="P11">
-        <v>0.9956172455040824</v>
+        <v>0.9987754995745162</v>
       </c>
       <c r="Q11">
-        <v>1.000184273325512</v>
+        <v>1.000048656575671</v>
       </c>
       <c r="R11">
-        <v>0.9996865830491504</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="S11">
-        <v>0.9962439142247437</v>
+        <v>0.9989509702851657</v>
       </c>
       <c r="T11">
-        <v>0.9996865830491504</v>
+        <v>0.9999139468076784</v>
       </c>
       <c r="U11">
-        <v>0.9991392502033793</v>
+        <v>0.999760938032375</v>
       </c>
       <c r="V11">
-        <v>1.000876451790561</v>
+        <v>1.000246918680701</v>
       </c>
       <c r="W11">
-        <v>0.999234782798808</v>
+        <v>0.9997868808976074</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004725797378949</v>
+        <v>1.015541313429673</v>
       </c>
       <c r="D12">
-        <v>0.981638939873682</v>
+        <v>0.9396004707247229</v>
       </c>
       <c r="E12">
-        <v>1.011999757947369</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="F12">
-        <v>0.981638939873682</v>
+        <v>0.9396004707247229</v>
       </c>
       <c r="G12">
-        <v>0.9964145313263152</v>
+        <v>0.988202619761432</v>
       </c>
       <c r="H12">
-        <v>1.004514971399999</v>
+        <v>1.014854660249149</v>
       </c>
       <c r="I12">
-        <v>0.9880850000105246</v>
+        <v>0.9608043125235788</v>
       </c>
       <c r="J12">
-        <v>1.011999757947369</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="K12">
-        <v>1.011999757947369</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="L12">
-        <v>0.9960627942736846</v>
+        <v>0.9870481206714685</v>
       </c>
       <c r="M12">
-        <v>1.006829687473685</v>
+        <v>1.022466090861468</v>
       </c>
       <c r="N12">
-        <v>1.011999757947369</v>
+        <v>1.039481574614007</v>
       </c>
       <c r="O12">
-        <v>1.004725797378949</v>
+        <v>1.015541313429673</v>
       </c>
       <c r="P12">
-        <v>0.9931823686263155</v>
+        <v>0.9775708920771982</v>
       </c>
       <c r="Q12">
-        <v>1.000394295826317</v>
+        <v>1.001294717050571</v>
       </c>
       <c r="R12">
-        <v>0.9994548317333333</v>
+        <v>0.9982077862561346</v>
       </c>
       <c r="S12">
-        <v>0.9941425105087719</v>
+        <v>0.9807299682752882</v>
       </c>
       <c r="T12">
-        <v>0.9994548317333333</v>
+        <v>0.9982077862561344</v>
       </c>
       <c r="U12">
-        <v>0.998606822368421</v>
+        <v>0.9954178698599679</v>
       </c>
       <c r="V12">
-        <v>1.001285409484211</v>
+        <v>1.004230610810776</v>
       </c>
       <c r="W12">
-        <v>0.9987839349605261</v>
+        <v>0.9959998953544374</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9970076802396591</v>
+        <v>1.002871294984958</v>
       </c>
       <c r="D13">
-        <v>1.0118394938682</v>
+        <v>0.9883631960232068</v>
       </c>
       <c r="E13">
-        <v>0.9921646845334421</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="F13">
-        <v>1.0118394938682</v>
+        <v>0.9883631960232068</v>
       </c>
       <c r="G13">
-        <v>1.002347135412526</v>
+        <v>0.9976483806088013</v>
       </c>
       <c r="H13">
-        <v>0.9970581520032405</v>
+        <v>1.002930258695028</v>
       </c>
       <c r="I13">
-        <v>1.007692489500905</v>
+        <v>0.9924271216092759</v>
       </c>
       <c r="J13">
-        <v>0.9921646845334421</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="K13">
-        <v>0.9921646845334421</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="L13">
-        <v>1.002542072633658</v>
+        <v>0.9974972516660664</v>
       </c>
       <c r="M13">
-        <v>0.9956018805788792</v>
+        <v>1.004315500663841</v>
       </c>
       <c r="N13">
-        <v>0.9921646845334421</v>
+        <v>1.007825258139286</v>
       </c>
       <c r="O13">
-        <v>0.9970076802396591</v>
+        <v>1.002871294984958</v>
       </c>
       <c r="P13">
-        <v>1.004423587053929</v>
+        <v>0.9956172455040824</v>
       </c>
       <c r="Q13">
-        <v>0.9997748764366587</v>
+        <v>1.000184273325512</v>
       </c>
       <c r="R13">
-        <v>1.000337286213767</v>
+        <v>0.9996865830491504</v>
       </c>
       <c r="S13">
-        <v>1.003796415580506</v>
+        <v>0.9962439142247437</v>
       </c>
       <c r="T13">
-        <v>1.000337286213767</v>
+        <v>0.9996865830491504</v>
       </c>
       <c r="U13">
-        <v>1.00088848281874</v>
+        <v>0.9991392502033793</v>
       </c>
       <c r="V13">
-        <v>0.9991437231616803</v>
+        <v>1.000876451790561</v>
       </c>
       <c r="W13">
-        <v>1.000781698596314</v>
+        <v>0.999234782798808</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.026871200000001</v>
+        <v>1.004725797378949</v>
       </c>
       <c r="D14">
-        <v>0.8956344300000008</v>
+        <v>0.981638939873682</v>
       </c>
       <c r="E14">
-        <v>1.068190700000001</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="F14">
-        <v>0.8956344300000008</v>
+        <v>0.981638939873682</v>
       </c>
       <c r="G14">
-        <v>0.9796259800000006</v>
+        <v>0.9964145313263152</v>
       </c>
       <c r="H14">
-        <v>1.0256582</v>
+        <v>1.004514971399999</v>
       </c>
       <c r="I14">
-        <v>0.9322759300000014</v>
+        <v>0.9880850000105246</v>
       </c>
       <c r="J14">
-        <v>1.068190700000001</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="K14">
-        <v>1.068190700000001</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="L14">
-        <v>0.9776212100000004</v>
+        <v>0.9960627942736846</v>
       </c>
       <c r="M14">
-        <v>1.038821400000002</v>
+        <v>1.006829687473685</v>
       </c>
       <c r="N14">
-        <v>1.068190700000001</v>
+        <v>1.011999757947369</v>
       </c>
       <c r="O14">
-        <v>1.026871200000001</v>
+        <v>1.004725797378949</v>
       </c>
       <c r="P14">
-        <v>0.9612528150000009</v>
+        <v>0.9931823686263155</v>
       </c>
       <c r="Q14">
-        <v>1.002246205000001</v>
+        <v>1.000394295826317</v>
       </c>
       <c r="R14">
-        <v>0.9968987766666677</v>
+        <v>0.9994548317333333</v>
       </c>
       <c r="S14">
-        <v>0.9667089466666674</v>
+        <v>0.9941425105087719</v>
       </c>
       <c r="T14">
-        <v>0.9968987766666677</v>
+        <v>0.9994548317333333</v>
       </c>
       <c r="U14">
-        <v>0.9920793850000009</v>
+        <v>0.998606822368421</v>
       </c>
       <c r="V14">
-        <v>1.007301648000001</v>
+        <v>1.001285409484211</v>
       </c>
       <c r="W14">
-        <v>0.993087381250001</v>
+        <v>0.9987839349605261</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0360038</v>
+        <v>0.9970076802396591</v>
       </c>
       <c r="D15">
-        <v>0.8363107</v>
+        <v>1.0118394938682</v>
       </c>
       <c r="E15">
-        <v>1.1178703</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="F15">
-        <v>0.8363107</v>
+        <v>1.0118394938682</v>
       </c>
       <c r="G15">
-        <v>0.9641142700000001</v>
+        <v>1.002347135412526</v>
       </c>
       <c r="H15">
-        <v>1.0436549</v>
+        <v>0.9970581520032405</v>
       </c>
       <c r="I15">
-        <v>0.8927166600000001</v>
+        <v>1.007692489500905</v>
       </c>
       <c r="J15">
-        <v>1.1178703</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="K15">
-        <v>1.1178703</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="L15">
-        <v>0.96453146</v>
+        <v>1.002542072633658</v>
       </c>
       <c r="M15">
-        <v>1.0602437</v>
+        <v>0.9956018805788792</v>
       </c>
       <c r="N15">
-        <v>1.1178703</v>
+        <v>0.9921646845334421</v>
       </c>
       <c r="O15">
-        <v>1.0360038</v>
+        <v>0.9970076802396591</v>
       </c>
       <c r="P15">
-        <v>0.9361572499999999</v>
+        <v>1.004423587053929</v>
       </c>
       <c r="Q15">
-        <v>1.00026763</v>
+        <v>0.9997748764366587</v>
       </c>
       <c r="R15">
-        <v>0.9967282666666666</v>
+        <v>1.000337286213767</v>
       </c>
       <c r="S15">
-        <v>0.9456153199999999</v>
+        <v>1.003796415580506</v>
       </c>
       <c r="T15">
-        <v>0.9967282666666667</v>
+        <v>1.000337286213767</v>
       </c>
       <c r="U15">
-        <v>0.988679065</v>
+        <v>1.00088848281874</v>
       </c>
       <c r="V15">
-        <v>1.014517312</v>
+        <v>0.9991437231616803</v>
       </c>
       <c r="W15">
-        <v>0.98943072375</v>
+        <v>1.000781698596314</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0387361</v>
+        <v>1.026871200000001</v>
       </c>
       <c r="D16">
-        <v>0.83977313</v>
+        <v>0.8956344300000008</v>
       </c>
       <c r="E16">
-        <v>1.1091657</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="F16">
-        <v>0.83977313</v>
+        <v>0.8956344300000008</v>
       </c>
       <c r="G16">
-        <v>0.9671094099999999</v>
+        <v>0.9796259800000006</v>
       </c>
       <c r="H16">
-        <v>1.0407904</v>
+        <v>1.0256582</v>
       </c>
       <c r="I16">
-        <v>0.8955909</v>
+        <v>0.9322759300000014</v>
       </c>
       <c r="J16">
-        <v>1.1091657</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="K16">
-        <v>1.1091657</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="L16">
-        <v>0.96549171</v>
+        <v>0.9776212100000004</v>
       </c>
       <c r="M16">
-        <v>1.0593362</v>
+        <v>1.038821400000002</v>
       </c>
       <c r="N16">
-        <v>1.1091657</v>
+        <v>1.068190700000001</v>
       </c>
       <c r="O16">
-        <v>1.0387361</v>
+        <v>1.026871200000001</v>
       </c>
       <c r="P16">
-        <v>0.939254615</v>
+        <v>0.9612528150000009</v>
       </c>
       <c r="Q16">
-        <v>1.002113905</v>
+        <v>1.002246205000001</v>
       </c>
       <c r="R16">
-        <v>0.9958916433333332</v>
+        <v>0.9968987766666677</v>
       </c>
       <c r="S16">
-        <v>0.9480003133333333</v>
+        <v>0.9667089466666674</v>
       </c>
       <c r="T16">
-        <v>0.9958916433333332</v>
+        <v>0.9968987766666677</v>
       </c>
       <c r="U16">
-        <v>0.98829166</v>
+        <v>0.9920793850000009</v>
       </c>
       <c r="V16">
-        <v>1.012466468</v>
+        <v>1.007301648000001</v>
       </c>
       <c r="W16">
-        <v>0.98949919375</v>
+        <v>0.993087381250001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0075668</v>
+        <v>1.0360038</v>
       </c>
       <c r="D17">
-        <v>0.95964585</v>
+        <v>0.8363107</v>
       </c>
       <c r="E17">
-        <v>1.0313859</v>
+        <v>1.1178703</v>
       </c>
       <c r="F17">
-        <v>0.95964585</v>
+        <v>0.8363107</v>
       </c>
       <c r="G17">
-        <v>0.99031525</v>
+        <v>0.9641142700000001</v>
       </c>
       <c r="H17">
-        <v>1.0114895</v>
+        <v>1.0436549</v>
       </c>
       <c r="I17">
-        <v>0.97332487</v>
+        <v>0.8927166600000001</v>
       </c>
       <c r="J17">
-        <v>1.0313859</v>
+        <v>1.1178703</v>
       </c>
       <c r="K17">
-        <v>1.0313859</v>
+        <v>1.1178703</v>
       </c>
       <c r="L17">
-        <v>0.99117729</v>
+        <v>0.96453146</v>
       </c>
       <c r="M17">
-        <v>1.0147144</v>
+        <v>1.0602437</v>
       </c>
       <c r="N17">
-        <v>1.0313859</v>
+        <v>1.1178703</v>
       </c>
       <c r="O17">
-        <v>1.0075668</v>
+        <v>1.0360038</v>
       </c>
       <c r="P17">
-        <v>0.983606325</v>
+        <v>0.9361572499999999</v>
       </c>
       <c r="Q17">
-        <v>0.999372045</v>
+        <v>1.00026763</v>
       </c>
       <c r="R17">
-        <v>0.99953285</v>
+        <v>0.9967282666666666</v>
       </c>
       <c r="S17">
-        <v>0.98612998</v>
+        <v>0.9456153199999999</v>
       </c>
       <c r="T17">
-        <v>0.99953285</v>
+        <v>0.9967282666666667</v>
       </c>
       <c r="U17">
-        <v>0.99744396</v>
+        <v>0.988679065</v>
       </c>
       <c r="V17">
-        <v>1.004232348</v>
+        <v>1.014517312</v>
       </c>
       <c r="W17">
-        <v>0.9974524825</v>
+        <v>0.98943072375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009806945753424</v>
+        <v>1.0387361</v>
       </c>
       <c r="D18">
-        <v>0.9595412827397257</v>
+        <v>0.83977313</v>
       </c>
       <c r="E18">
-        <v>1.027519555890411</v>
+        <v>1.1091657</v>
       </c>
       <c r="F18">
-        <v>0.9595412827397257</v>
+        <v>0.83977313</v>
       </c>
       <c r="G18">
-        <v>0.9917113034246576</v>
+        <v>0.9671094099999999</v>
       </c>
       <c r="H18">
-        <v>1.010285645753424</v>
+        <v>1.0407904</v>
       </c>
       <c r="I18">
-        <v>0.9736402353424656</v>
+        <v>0.8955909</v>
       </c>
       <c r="J18">
-        <v>1.027519555890411</v>
+        <v>1.1091657</v>
       </c>
       <c r="K18">
-        <v>1.027519555890411</v>
+        <v>1.1091657</v>
       </c>
       <c r="L18">
-        <v>0.9912878931506849</v>
+        <v>0.96549171</v>
       </c>
       <c r="M18">
-        <v>1.014985608493151</v>
+        <v>1.0593362</v>
       </c>
       <c r="N18">
-        <v>1.027519555890411</v>
+        <v>1.1091657</v>
       </c>
       <c r="O18">
-        <v>1.009806945753424</v>
+        <v>1.0387361</v>
       </c>
       <c r="P18">
-        <v>0.9846741142465751</v>
+        <v>0.939254615</v>
       </c>
       <c r="Q18">
-        <v>1.000547419452055</v>
+        <v>1.002113905</v>
       </c>
       <c r="R18">
-        <v>0.9989559281278537</v>
+        <v>0.9958916433333332</v>
       </c>
       <c r="S18">
-        <v>0.9868787072146117</v>
+        <v>0.9480003133333333</v>
       </c>
       <c r="T18">
-        <v>0.9989559281278536</v>
+        <v>0.9958916433333332</v>
       </c>
       <c r="U18">
-        <v>0.9970389193835614</v>
+        <v>0.98829166</v>
       </c>
       <c r="V18">
-        <v>1.003135046684931</v>
+        <v>1.012466468</v>
       </c>
       <c r="W18">
-        <v>0.997347308818493</v>
+        <v>0.98949919375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.018303310526316</v>
+        <v>1.0075668</v>
       </c>
       <c r="D19">
-        <v>0.9325544242105264</v>
+        <v>0.95964585</v>
       </c>
       <c r="E19">
-        <v>1.042400314736842</v>
+        <v>1.0313859</v>
       </c>
       <c r="F19">
-        <v>0.9325544242105264</v>
+        <v>0.95964585</v>
       </c>
       <c r="G19">
-        <v>0.9874337084210528</v>
+        <v>0.99031525</v>
       </c>
       <c r="H19">
-        <v>1.016060335263158</v>
+        <v>1.0114895</v>
       </c>
       <c r="I19">
-        <v>0.9563961568421053</v>
+        <v>0.97332487</v>
       </c>
       <c r="J19">
-        <v>1.042400314736842</v>
+        <v>1.0313859</v>
       </c>
       <c r="K19">
-        <v>1.042400314736842</v>
+        <v>1.0313859</v>
       </c>
       <c r="L19">
-        <v>0.9855942305263158</v>
+        <v>0.99117729</v>
       </c>
       <c r="M19">
-        <v>1.025186567368421</v>
+        <v>1.0147144</v>
       </c>
       <c r="N19">
-        <v>1.042400314736842</v>
+        <v>1.0313859</v>
       </c>
       <c r="O19">
-        <v>1.018303310526316</v>
+        <v>1.0075668</v>
       </c>
       <c r="P19">
-        <v>0.975428867368421</v>
+        <v>0.983606325</v>
       </c>
       <c r="Q19">
-        <v>1.001948770526316</v>
+        <v>0.999372045</v>
       </c>
       <c r="R19">
-        <v>0.9977526831578948</v>
+        <v>0.99953285</v>
       </c>
       <c r="S19">
-        <v>0.978817321754386</v>
+        <v>0.98612998</v>
       </c>
       <c r="T19">
-        <v>0.9977526831578948</v>
+        <v>0.99953285</v>
       </c>
       <c r="U19">
-        <v>0.99471307</v>
+        <v>0.99744396</v>
       </c>
       <c r="V19">
-        <v>1.004250518947368</v>
+        <v>1.004232348</v>
       </c>
       <c r="W19">
-        <v>0.9954911309868422</v>
+        <v>0.9974524825</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.016432656315789</v>
+        <v>1.009806945753424</v>
       </c>
       <c r="D20">
-        <v>0.9353976505263157</v>
+        <v>0.9595412827397257</v>
       </c>
       <c r="E20">
-        <v>1.042566779473684</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="F20">
-        <v>0.9353976505263157</v>
+        <v>0.9595412827397257</v>
       </c>
       <c r="G20">
-        <v>0.9872600542105262</v>
+        <v>0.9917113034246576</v>
       </c>
       <c r="H20">
-        <v>1.015993888947368</v>
+        <v>1.010285645753424</v>
       </c>
       <c r="I20">
-        <v>0.9580440215789476</v>
+        <v>0.9736402353424656</v>
       </c>
       <c r="J20">
-        <v>1.042566779473684</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="K20">
-        <v>1.042566779473684</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="L20">
-        <v>0.9861354573684212</v>
+        <v>0.9912878931506849</v>
       </c>
       <c r="M20">
-        <v>1.024009436842106</v>
+        <v>1.014985608493151</v>
       </c>
       <c r="N20">
-        <v>1.042566779473684</v>
+        <v>1.027519555890411</v>
       </c>
       <c r="O20">
-        <v>1.016432656315789</v>
+        <v>1.009806945753424</v>
       </c>
       <c r="P20">
-        <v>0.9759151534210526</v>
+        <v>0.9846741142465751</v>
       </c>
       <c r="Q20">
-        <v>1.001284056842105</v>
+        <v>1.000547419452055</v>
       </c>
       <c r="R20">
-        <v>0.9981323621052631</v>
+        <v>0.9989559281278537</v>
       </c>
       <c r="S20">
-        <v>0.9793219214035088</v>
+        <v>0.9868787072146117</v>
       </c>
       <c r="T20">
-        <v>0.9981323621052631</v>
+        <v>0.9989559281278536</v>
       </c>
       <c r="U20">
-        <v>0.9951331359210527</v>
+        <v>0.9970389193835614</v>
       </c>
       <c r="V20">
-        <v>1.004619864631579</v>
+        <v>1.003135046684931</v>
       </c>
       <c r="W20">
-        <v>0.9957299931578948</v>
+        <v>0.997347308818493</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.004584562242399</v>
+        <v>1.018303310526316</v>
       </c>
       <c r="D21">
-        <v>0.9972617404338369</v>
+        <v>0.9325544242105264</v>
       </c>
       <c r="E21">
-        <v>0.9948921832548223</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="F21">
-        <v>0.9972617404338369</v>
+        <v>0.9325544242105264</v>
       </c>
       <c r="G21">
-        <v>1.001948354221839</v>
+        <v>0.9874337084210528</v>
       </c>
       <c r="H21">
-        <v>0.9985178997039236</v>
+        <v>1.016060335263158</v>
       </c>
       <c r="I21">
-        <v>0.9988948293817664</v>
+        <v>0.9563961568421053</v>
       </c>
       <c r="J21">
-        <v>0.9948921832548223</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="K21">
-        <v>0.9948921832548223</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="L21">
-        <v>0.9996460297370516</v>
+        <v>0.9855942305263158</v>
       </c>
       <c r="M21">
-        <v>1.001425802721175</v>
+        <v>1.025186567368421</v>
       </c>
       <c r="N21">
-        <v>0.9948921832548223</v>
+        <v>1.042400314736842</v>
       </c>
       <c r="O21">
-        <v>1.004584562242399</v>
+        <v>1.018303310526316</v>
       </c>
       <c r="P21">
-        <v>1.000923151338118</v>
+        <v>0.975428867368421</v>
       </c>
       <c r="Q21">
-        <v>1.002115295989725</v>
+        <v>1.001948770526316</v>
       </c>
       <c r="R21">
-        <v>0.9989128286436862</v>
+        <v>0.9977526831578948</v>
       </c>
       <c r="S21">
-        <v>1.000497444137763</v>
+        <v>0.978817321754386</v>
       </c>
       <c r="T21">
-        <v>0.9989128286436862</v>
+        <v>0.9977526831578948</v>
       </c>
       <c r="U21">
-        <v>0.9990961289170276</v>
+        <v>0.99471307</v>
       </c>
       <c r="V21">
-        <v>0.9982553397845866</v>
+        <v>1.004250518947368</v>
       </c>
       <c r="W21">
-        <v>0.9996464252121017</v>
+        <v>0.9954911309868422</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9981088695450405</v>
+        <v>1.016432656315789</v>
       </c>
       <c r="D22">
-        <v>1.00114206461984</v>
+        <v>0.9353976505263157</v>
       </c>
       <c r="E22">
-        <v>1.002093053552758</v>
+        <v>1.042566779473684</v>
       </c>
       <c r="F22">
-        <v>1.00114206461984</v>
+        <v>0.9353976505263157</v>
       </c>
       <c r="G22">
-        <v>0.9992008158679484</v>
+        <v>0.9872600542105262</v>
       </c>
       <c r="H22">
-        <v>1.000606490716347</v>
+        <v>1.015993888947368</v>
       </c>
       <c r="I22">
-        <v>1.000464577424958</v>
+        <v>0.9580440215789476</v>
       </c>
       <c r="J22">
-        <v>1.002093053552758</v>
+        <v>1.042566779473684</v>
       </c>
       <c r="K22">
-        <v>1.002093053552758</v>
+        <v>1.042566779473684</v>
       </c>
       <c r="L22">
-        <v>1.000148894817233</v>
+        <v>0.9861354573684212</v>
       </c>
       <c r="M22">
-        <v>0.9994075297328978</v>
+        <v>1.024009436842106</v>
       </c>
       <c r="N22">
-        <v>1.002093053552758</v>
+        <v>1.042566779473684</v>
       </c>
       <c r="O22">
-        <v>0.9981088695450405</v>
+        <v>1.016432656315789</v>
       </c>
       <c r="P22">
-        <v>0.99962546708244</v>
+        <v>0.9759151534210526</v>
       </c>
       <c r="Q22">
-        <v>0.999128882181137</v>
+        <v>1.001284056842105</v>
       </c>
       <c r="R22">
-        <v>1.000447995905879</v>
+        <v>0.9981323621052631</v>
       </c>
       <c r="S22">
-        <v>0.9997999429940378</v>
+        <v>0.9793219214035088</v>
       </c>
       <c r="T22">
-        <v>1.000447995905879</v>
+        <v>0.9981323621052631</v>
       </c>
       <c r="U22">
-        <v>1.000373220633718</v>
+        <v>0.9951331359210527</v>
       </c>
       <c r="V22">
-        <v>1.000717187217526</v>
+        <v>1.004619864631579</v>
       </c>
       <c r="W22">
-        <v>1.000146537034628</v>
+        <v>0.9957299931578948</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9923957669731575</v>
+        <v>1.004584562242399</v>
       </c>
       <c r="D23">
-        <v>1.025179709688581</v>
+        <v>0.9972617404338369</v>
       </c>
       <c r="E23">
-        <v>0.9855411775522112</v>
+        <v>0.9948921832548223</v>
       </c>
       <c r="F23">
-        <v>1.025179709688581</v>
+        <v>0.9972617404338369</v>
       </c>
       <c r="G23">
-        <v>1.004197990025722</v>
+        <v>1.001948354221839</v>
       </c>
       <c r="H23">
-        <v>0.994432464683307</v>
+        <v>0.9985178997039236</v>
       </c>
       <c r="I23">
-        <v>1.016145287831274</v>
+        <v>0.9988948293817664</v>
       </c>
       <c r="J23">
-        <v>0.9855411775522112</v>
+        <v>0.9948921832548223</v>
       </c>
       <c r="K23">
-        <v>0.9855411775522112</v>
+        <v>0.9948921832548223</v>
       </c>
       <c r="L23">
-        <v>1.005331818181824</v>
+        <v>0.9996460297370516</v>
       </c>
       <c r="M23">
-        <v>0.9905160771073416</v>
+        <v>1.001425802721175</v>
       </c>
       <c r="N23">
-        <v>0.9855411775522112</v>
+        <v>0.9948921832548223</v>
       </c>
       <c r="O23">
-        <v>0.9923957669731575</v>
+        <v>1.004584562242399</v>
       </c>
       <c r="P23">
-        <v>1.008787738330869</v>
+        <v>1.000923151338118</v>
       </c>
       <c r="Q23">
-        <v>0.9988637925774908</v>
+        <v>1.002115295989725</v>
       </c>
       <c r="R23">
-        <v>1.001038884737983</v>
+        <v>0.9989128286436862</v>
       </c>
       <c r="S23">
-        <v>1.007635764947854</v>
+        <v>1.000497444137763</v>
       </c>
       <c r="T23">
-        <v>1.001038884737983</v>
+        <v>0.9989128286436862</v>
       </c>
       <c r="U23">
-        <v>1.002112118098943</v>
+        <v>0.9990961289170276</v>
       </c>
       <c r="V23">
-        <v>0.9987979299895968</v>
+        <v>0.9982553397845866</v>
       </c>
       <c r="W23">
-        <v>1.001717536505427</v>
+        <v>0.9996464252121017</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9990787227496117</v>
+        <v>0.9981088695450405</v>
       </c>
       <c r="D24">
-        <v>1.005880519605584</v>
+        <v>1.00114206461984</v>
       </c>
       <c r="E24">
-        <v>0.9951039193639368</v>
+        <v>1.002093053552758</v>
       </c>
       <c r="F24">
-        <v>1.005880519605584</v>
+        <v>1.00114206461984</v>
       </c>
       <c r="G24">
-        <v>1.001527371619576</v>
+        <v>0.9992008158679484</v>
       </c>
       <c r="H24">
-        <v>0.9982249519428326</v>
+        <v>1.000606490716347</v>
       </c>
       <c r="I24">
-        <v>1.003918575695935</v>
+        <v>1.000464577424958</v>
       </c>
       <c r="J24">
-        <v>0.9951039193639368</v>
+        <v>1.002093053552758</v>
       </c>
       <c r="K24">
-        <v>0.9951039193639368</v>
+        <v>1.002093053552758</v>
       </c>
       <c r="L24">
-        <v>1.001296572258907</v>
+        <v>1.000148894817233</v>
       </c>
       <c r="M24">
-        <v>0.9978748240822469</v>
+        <v>0.9994075297328978</v>
       </c>
       <c r="N24">
-        <v>0.9951039193639368</v>
+        <v>1.002093053552758</v>
       </c>
       <c r="O24">
-        <v>0.9990787227496117</v>
+        <v>0.9981088695450405</v>
       </c>
       <c r="P24">
-        <v>1.002479621177598</v>
+        <v>0.99962546708244</v>
       </c>
       <c r="Q24">
-        <v>1.000187647504259</v>
+        <v>0.999128882181137</v>
       </c>
       <c r="R24">
-        <v>1.000021053906378</v>
+        <v>1.000447995905879</v>
       </c>
       <c r="S24">
-        <v>1.002085271538034</v>
+        <v>0.9997999429940378</v>
       </c>
       <c r="T24">
-        <v>1.000021053906378</v>
+        <v>1.000447995905879</v>
       </c>
       <c r="U24">
-        <v>1.00033993349451</v>
+        <v>1.000373220633718</v>
       </c>
       <c r="V24">
-        <v>0.9992927306683953</v>
+        <v>1.000717187217526</v>
       </c>
       <c r="W24">
-        <v>1.000363182164829</v>
+        <v>1.000146537034628</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9961710038106326</v>
+        <v>0.9923957669731575</v>
       </c>
       <c r="D25">
-        <v>1.007312281306035</v>
+        <v>1.025179709688581</v>
       </c>
       <c r="E25">
-        <v>0.9986823374729268</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="F25">
-        <v>1.007312281306035</v>
+        <v>1.025179709688581</v>
       </c>
       <c r="G25">
-        <v>1.000181870885224</v>
+        <v>1.004197990025722</v>
       </c>
       <c r="H25">
-        <v>0.999283556772967</v>
+        <v>0.994432464683307</v>
       </c>
       <c r="I25">
-        <v>1.004408040210496</v>
+        <v>1.016145287831274</v>
       </c>
       <c r="J25">
-        <v>0.9986823374729268</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="K25">
-        <v>0.9986823374729268</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="L25">
-        <v>1.001450975327149</v>
+        <v>1.005331818181824</v>
       </c>
       <c r="M25">
-        <v>0.9970757097668707</v>
+        <v>0.9905160771073416</v>
       </c>
       <c r="N25">
-        <v>0.9986823374729268</v>
+        <v>0.9855411775522112</v>
       </c>
       <c r="O25">
-        <v>0.9961710038106326</v>
+        <v>0.9923957669731575</v>
       </c>
       <c r="P25">
-        <v>1.001741642558334</v>
+        <v>1.008787738330869</v>
       </c>
       <c r="Q25">
-        <v>0.9988109895688906</v>
+        <v>0.9988637925774908</v>
       </c>
       <c r="R25">
-        <v>1.000721874196532</v>
+        <v>1.001038884737983</v>
       </c>
       <c r="S25">
-        <v>1.001644753481272</v>
+        <v>1.007635764947854</v>
       </c>
       <c r="T25">
-        <v>1.000721874196531</v>
+        <v>1.001038884737983</v>
       </c>
       <c r="U25">
-        <v>1.000904149479186</v>
+        <v>1.002112118098943</v>
       </c>
       <c r="V25">
-        <v>1.000459787077934</v>
+        <v>0.9987979299895968</v>
       </c>
       <c r="W25">
-        <v>1.000570721944038</v>
+        <v>1.001717536505427</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000584791942278</v>
+        <v>0.9990787227496117</v>
       </c>
       <c r="D26">
-        <v>1.000921471761566</v>
+        <v>1.005880519605584</v>
       </c>
       <c r="E26">
-        <v>0.997936504661503</v>
+        <v>0.9951039193639368</v>
       </c>
       <c r="F26">
-        <v>1.000921471761566</v>
+        <v>1.005880519605584</v>
       </c>
       <c r="G26">
-        <v>1.000705995786463</v>
+        <v>1.001527371619576</v>
       </c>
       <c r="H26">
-        <v>0.9993167670061012</v>
+        <v>0.9982249519428326</v>
       </c>
       <c r="I26">
-        <v>1.000740285621528</v>
+        <v>1.003918575695935</v>
       </c>
       <c r="J26">
-        <v>0.997936504661503</v>
+        <v>0.9951039193639368</v>
       </c>
       <c r="K26">
-        <v>0.997936504661503</v>
+        <v>0.9951039193639368</v>
       </c>
       <c r="L26">
-        <v>1.000246984680731</v>
+        <v>1.001296572258907</v>
       </c>
       <c r="M26">
-        <v>0.9997435273320731</v>
+        <v>0.9978748240822469</v>
       </c>
       <c r="N26">
-        <v>0.997936504661503</v>
+        <v>0.9951039193639368</v>
       </c>
       <c r="O26">
-        <v>1.000584791942278</v>
+        <v>0.9990787227496117</v>
       </c>
       <c r="P26">
-        <v>1.000753131851922</v>
+        <v>1.002479621177598</v>
       </c>
       <c r="Q26">
-        <v>1.000415888311504</v>
+        <v>1.000187647504259</v>
       </c>
       <c r="R26">
-        <v>0.9998142561217821</v>
+        <v>1.000021053906378</v>
       </c>
       <c r="S26">
-        <v>1.000584416128191</v>
+        <v>1.002085271538034</v>
       </c>
       <c r="T26">
-        <v>0.9998142561217821</v>
+        <v>1.000021053906378</v>
       </c>
       <c r="U26">
-        <v>0.9999224382615193</v>
+        <v>1.00033993349451</v>
       </c>
       <c r="V26">
-        <v>0.9995252515415161</v>
+        <v>0.9992927306683953</v>
       </c>
       <c r="W26">
-        <v>1.00002454109903</v>
+        <v>1.000363182164829</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001525594773627</v>
+        <v>0.9961710038106326</v>
       </c>
       <c r="D27">
-        <v>0.9938265253350946</v>
+        <v>1.007312281306035</v>
       </c>
       <c r="E27">
-        <v>1.004147247190128</v>
+        <v>0.9986823374729268</v>
       </c>
       <c r="F27">
-        <v>0.9938265253350946</v>
+        <v>1.007312281306035</v>
       </c>
       <c r="G27">
-        <v>0.9987539203486643</v>
+        <v>1.000181870885224</v>
       </c>
       <c r="H27">
-        <v>1.001553239690504</v>
+        <v>0.999283556772967</v>
       </c>
       <c r="I27">
-        <v>0.9959828863708103</v>
+        <v>1.004408040210496</v>
       </c>
       <c r="J27">
-        <v>1.004147247190128</v>
+        <v>0.9986823374729268</v>
       </c>
       <c r="K27">
-        <v>1.004147247190128</v>
+        <v>0.9986823374729268</v>
       </c>
       <c r="L27">
-        <v>0.998672392978501</v>
+        <v>1.001450975327149</v>
       </c>
       <c r="M27">
-        <v>1.002289676737032</v>
+        <v>0.9970757097668707</v>
       </c>
       <c r="N27">
-        <v>1.004147247190128</v>
+        <v>0.9986823374729268</v>
       </c>
       <c r="O27">
-        <v>1.001525594773627</v>
+        <v>0.9961710038106326</v>
       </c>
       <c r="P27">
-        <v>0.9976760600543607</v>
+        <v>1.001741642558334</v>
       </c>
       <c r="Q27">
-        <v>1.000098993876064</v>
+        <v>0.9988109895688906</v>
       </c>
       <c r="R27">
-        <v>0.9998331224329501</v>
+        <v>1.000721874196532</v>
       </c>
       <c r="S27">
-        <v>0.9980081710290741</v>
+        <v>1.001644753481272</v>
       </c>
       <c r="T27">
-        <v>0.9998331224329501</v>
+        <v>1.000721874196531</v>
       </c>
       <c r="U27">
-        <v>0.9995429400693377</v>
+        <v>1.000904149479186</v>
       </c>
       <c r="V27">
-        <v>1.000463801493496</v>
+        <v>1.000459787077934</v>
       </c>
       <c r="W27">
-        <v>0.9995939354280452</v>
+        <v>1.000570721944038</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001468322675749</v>
+        <v>1.000584791942278</v>
       </c>
       <c r="D28">
-        <v>0.9934386647339022</v>
+        <v>1.000921471761566</v>
       </c>
       <c r="E28">
-        <v>1.004680011887688</v>
+        <v>0.997936504661503</v>
       </c>
       <c r="F28">
-        <v>0.9934386647339022</v>
+        <v>1.000921471761566</v>
       </c>
       <c r="G28">
-        <v>0.9985776478558172</v>
+        <v>1.000705995786463</v>
       </c>
       <c r="H28">
-        <v>1.001735898079818</v>
+        <v>0.9993167670061012</v>
       </c>
       <c r="I28">
-        <v>0.9957040044949209</v>
+        <v>1.000740285621528</v>
       </c>
       <c r="J28">
-        <v>1.004680011887688</v>
+        <v>0.997936504661503</v>
       </c>
       <c r="K28">
-        <v>1.004680011887688</v>
+        <v>0.997936504661503</v>
       </c>
       <c r="L28">
-        <v>0.9985797831118944</v>
+        <v>1.000246984680731</v>
       </c>
       <c r="M28">
-        <v>1.002417454308465</v>
+        <v>0.9997435273320731</v>
       </c>
       <c r="N28">
-        <v>1.004680011887688</v>
+        <v>0.997936504661503</v>
       </c>
       <c r="O28">
-        <v>1.001468322675749</v>
+        <v>1.000584791942278</v>
       </c>
       <c r="P28">
-        <v>0.9974534937048254</v>
+        <v>1.000753131851922</v>
       </c>
       <c r="Q28">
-        <v>1.000024052893822</v>
+        <v>1.000415888311504</v>
       </c>
       <c r="R28">
-        <v>0.9998623330991129</v>
+        <v>0.9998142561217821</v>
       </c>
       <c r="S28">
-        <v>0.9978289235071817</v>
+        <v>1.000584416128191</v>
       </c>
       <c r="T28">
-        <v>0.9998623330991129</v>
+        <v>0.9998142561217821</v>
       </c>
       <c r="U28">
-        <v>0.9995416956023082</v>
+        <v>0.9999224382615193</v>
       </c>
       <c r="V28">
-        <v>1.000569358859384</v>
+        <v>0.9995252515415161</v>
       </c>
       <c r="W28">
-        <v>0.9995752233935318</v>
+        <v>1.00002454109903</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001525594773627</v>
+      </c>
+      <c r="D29">
+        <v>0.9938265253350946</v>
+      </c>
+      <c r="E29">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="F29">
+        <v>0.9938265253350946</v>
+      </c>
+      <c r="G29">
+        <v>0.9987539203486643</v>
+      </c>
+      <c r="H29">
+        <v>1.001553239690504</v>
+      </c>
+      <c r="I29">
+        <v>0.9959828863708103</v>
+      </c>
+      <c r="J29">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="K29">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="L29">
+        <v>0.998672392978501</v>
+      </c>
+      <c r="M29">
+        <v>1.002289676737032</v>
+      </c>
+      <c r="N29">
+        <v>1.004147247190128</v>
+      </c>
+      <c r="O29">
+        <v>1.001525594773627</v>
+      </c>
+      <c r="P29">
+        <v>0.9976760600543607</v>
+      </c>
+      <c r="Q29">
+        <v>1.000098993876064</v>
+      </c>
+      <c r="R29">
+        <v>0.9998331224329501</v>
+      </c>
+      <c r="S29">
+        <v>0.9980081710290741</v>
+      </c>
+      <c r="T29">
+        <v>0.9998331224329501</v>
+      </c>
+      <c r="U29">
+        <v>0.9995429400693377</v>
+      </c>
+      <c r="V29">
+        <v>1.000463801493496</v>
+      </c>
+      <c r="W29">
+        <v>0.9995939354280452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001468322675749</v>
+      </c>
+      <c r="D30">
+        <v>0.9934386647339022</v>
+      </c>
+      <c r="E30">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="F30">
+        <v>0.9934386647339022</v>
+      </c>
+      <c r="G30">
+        <v>0.9985776478558172</v>
+      </c>
+      <c r="H30">
+        <v>1.001735898079818</v>
+      </c>
+      <c r="I30">
+        <v>0.9957040044949209</v>
+      </c>
+      <c r="J30">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="K30">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="L30">
+        <v>0.9985797831118944</v>
+      </c>
+      <c r="M30">
+        <v>1.002417454308465</v>
+      </c>
+      <c r="N30">
+        <v>1.004680011887688</v>
+      </c>
+      <c r="O30">
+        <v>1.001468322675749</v>
+      </c>
+      <c r="P30">
+        <v>0.9974534937048254</v>
+      </c>
+      <c r="Q30">
+        <v>1.000024052893822</v>
+      </c>
+      <c r="R30">
+        <v>0.9998623330991129</v>
+      </c>
+      <c r="S30">
+        <v>0.9978289235071817</v>
+      </c>
+      <c r="T30">
+        <v>0.9998623330991129</v>
+      </c>
+      <c r="U30">
+        <v>0.9995416956023082</v>
+      </c>
+      <c r="V30">
+        <v>1.000569358859384</v>
+      </c>
+      <c r="W30">
+        <v>0.9995752233935318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9957191200764245</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.013033148058242</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.993129164782399</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.013033148058242</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.001952171827427</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9973098220741796</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.008297175840393</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.993129164782399</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.993129164782399</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.002739046581583</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9950548782235576</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.993129164782399</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9957191200764245</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004376134067333</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9992290833290036</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000627144305689</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00383043823875</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000627144305689</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.001155119874662</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9995499288562094</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000904315933026</v>
       </c>
     </row>
